--- a/backtracer_summary.xlsx
+++ b/backtracer_summary.xlsx
@@ -8,13 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="maperiod_ma5_ma20_정리" sheetId="1" r:id="rId1"/>
+    <sheet name="smExponExpon" sheetId="2" r:id="rId2"/>
+    <sheet name="smExponSimple" sheetId="3" r:id="rId3"/>
+    <sheet name="smExponWeight" sheetId="4" r:id="rId4"/>
+    <sheet name="smWeightExpon" sheetId="5" r:id="rId5"/>
+    <sheet name="smWeightSimple" sheetId="6" r:id="rId6"/>
+    <sheet name="smWeightWeight" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>평균 : meanprofit</t>
   </si>
@@ -78,7 +84,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4. 추천하는 Ma5=8~12, Ma20=44~48</t>
+    <t>열 레이블</t>
+  </si>
+  <si>
+    <t>행 레이블</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max : </t>
+  </si>
+  <si>
+    <t>lenprofitrate &gt; 50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 추천하는 ma1: range(9,15),  ma2:range(41:50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -474,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:O39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2576,7 +2595,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2906,11 +2925,6 @@
     <mergeCell ref="A52:O52"/>
     <mergeCell ref="A53:O53"/>
     <mergeCell ref="A54:O54"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="A47:O47"/>
-    <mergeCell ref="A48:O48"/>
     <mergeCell ref="A49:O49"/>
     <mergeCell ref="A38:O38"/>
     <mergeCell ref="A39:O39"/>
@@ -2918,11 +2932,11 @@
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A42:O42"/>
     <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A32:O32"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="A34:O34"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="A48:O48"/>
     <mergeCell ref="A37:O37"/>
     <mergeCell ref="A26:O26"/>
     <mergeCell ref="A27:O27"/>
@@ -2930,6 +2944,11 @@
     <mergeCell ref="A29:O29"/>
     <mergeCell ref="A30:O30"/>
     <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O34"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:AO20">
@@ -2939,4 +2958,8358 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="D18:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1">
+        <v>32</v>
+      </c>
+      <c r="T4" s="1">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1">
+        <v>34</v>
+      </c>
+      <c r="V4" s="1">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>47</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>6.8850408970101131E-3</v>
+      </c>
+      <c r="C5">
+        <v>7.2158756742681874E-3</v>
+      </c>
+      <c r="D5">
+        <v>7.7468268517620073E-3</v>
+      </c>
+      <c r="E5">
+        <v>8.3335312309084138E-3</v>
+      </c>
+      <c r="F5">
+        <v>8.484366395111893E-3</v>
+      </c>
+      <c r="G5">
+        <v>8.9353217637155452E-3</v>
+      </c>
+      <c r="H5">
+        <v>9.4500504838211322E-3</v>
+      </c>
+      <c r="I5">
+        <v>1.017784116329774E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.0710822248970171E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.1471318468346639E-2</v>
+      </c>
+      <c r="L5">
+        <v>1.1771561506445705E-2</v>
+      </c>
+      <c r="M5">
+        <v>1.219703762560378E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.2702774517068536E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.3223649435824986E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.374904737681612E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.4167100773024929E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.4418522572594071E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.4741355007314196E-2</v>
+      </c>
+      <c r="T5">
+        <v>1.4999123150762178E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.5591808446698621E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.5898836618194596E-2</v>
+      </c>
+      <c r="W5">
+        <v>1.5974512765367287E-2</v>
+      </c>
+      <c r="X5">
+        <v>1.6549303459124105E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.6939664051219109E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1.75557434098743E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.760094796927374E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.7904690578196731E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.8334503871489383E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.8644863838922637E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.8888918009135777E-2</v>
+      </c>
+      <c r="AF5">
+        <v>1.9153844991653891E-2</v>
+      </c>
+      <c r="AG5">
+        <v>1.9441234983922608E-2</v>
+      </c>
+      <c r="AH5">
+        <v>2.0026857752412246E-2</v>
+      </c>
+      <c r="AI5">
+        <v>2.0135996210612298E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>2.0200797437205383E-2</v>
+      </c>
+      <c r="AK5">
+        <v>1.3944924516511576E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>8.4602277521689164E-3</v>
+      </c>
+      <c r="C6">
+        <v>8.6029508032776595E-3</v>
+      </c>
+      <c r="D6">
+        <v>9.1610634413014282E-3</v>
+      </c>
+      <c r="E6">
+        <v>9.8243915647022121E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.0494024397055083E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.1395209570539291E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.1968942077035603E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.2726380272459776E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.3335657934274351E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.392704781620689E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.4562583033927745E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.4916210854881672E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.5385307284726427E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.5653434772793701E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.6202204534459558E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.6585174145283904E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.6733478035013728E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.7264496749626022E-2</v>
+      </c>
+      <c r="T6">
+        <v>1.7567937029050591E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.7959244043166067E-2</v>
+      </c>
+      <c r="V6">
+        <v>1.8155745086621364E-2</v>
+      </c>
+      <c r="W6">
+        <v>1.8313827346164793E-2</v>
+      </c>
+      <c r="X6">
+        <v>1.8972922849016655E-2</v>
+      </c>
+      <c r="Y6">
+        <v>1.9263894381219192E-2</v>
+      </c>
+      <c r="Z6">
+        <v>1.9927000030487283E-2</v>
+      </c>
+      <c r="AA6">
+        <v>2.046329712068725E-2</v>
+      </c>
+      <c r="AB6">
+        <v>2.0865324853919166E-2</v>
+      </c>
+      <c r="AC6">
+        <v>2.0983400820180437E-2</v>
+      </c>
+      <c r="AD6">
+        <v>2.1138272426897597E-2</v>
+      </c>
+      <c r="AE6">
+        <v>2.1777849663461912E-2</v>
+      </c>
+      <c r="AF6">
+        <v>2.2269933870255134E-2</v>
+      </c>
+      <c r="AG6">
+        <v>2.2566087315438396E-2</v>
+      </c>
+      <c r="AH6">
+        <v>2.2748020716949948E-2</v>
+      </c>
+      <c r="AI6">
+        <v>2.2587773038340739E-2</v>
+      </c>
+      <c r="AJ6">
+        <v>2.2856822674013382E-2</v>
+      </c>
+      <c r="AK6">
+        <v>1.632832678460178E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9.6409096449982662E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.024473198779643E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.1036251015466477E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.1765784511188161E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.2731962201753915E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.3546064789557086E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.444527953348625E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.5254172752386051E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.6021671489249972E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.6499832017277036E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.6698937103342606E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.6891488407371452E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.7638959523864309E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.7826637769749031E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.8368846719786489E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.8834940488230027E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.8758586935364838E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.9080822637502621E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.9754214815106096E-2</v>
+      </c>
+      <c r="U7">
+        <v>2.0251063499879325E-2</v>
+      </c>
+      <c r="V7">
+        <v>2.0225780721221748E-2</v>
+      </c>
+      <c r="W7">
+        <v>2.0755718537129392E-2</v>
+      </c>
+      <c r="X7">
+        <v>2.1459304020871366E-2</v>
+      </c>
+      <c r="Y7">
+        <v>2.1901258443611796E-2</v>
+      </c>
+      <c r="Z7">
+        <v>2.2646160064771072E-2</v>
+      </c>
+      <c r="AA7">
+        <v>2.29512596700371E-2</v>
+      </c>
+      <c r="AB7">
+        <v>2.3629982425353319E-2</v>
+      </c>
+      <c r="AC7">
+        <v>2.3787522953367179E-2</v>
+      </c>
+      <c r="AD7">
+        <v>2.4182909391625165E-2</v>
+      </c>
+      <c r="AE7">
+        <v>2.3674088658750377E-2</v>
+      </c>
+      <c r="AF7">
+        <v>2.397892427439028E-2</v>
+      </c>
+      <c r="AG7">
+        <v>2.4326753637968955E-2</v>
+      </c>
+      <c r="AH7">
+        <v>2.502038235429074E-2</v>
+      </c>
+      <c r="AI7">
+        <v>2.4622976285574603E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>2.4872887421252477E-2</v>
+      </c>
+      <c r="AK7">
+        <v>1.850575061248139E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.1289960624317971E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.1934487405867217E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.293378437194098E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.3811281583443944E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.486293909513718E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.5684727333372131E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.6495534701670686E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.7157311596677809E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.7635862666422579E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.8235827350833681E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.8669153680359898E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.9147036952204901E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.9520187469457568E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.9842095305534935E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.9891202477550655E-2</v>
+      </c>
+      <c r="Q8">
+        <v>2.0559266772736933E-2</v>
+      </c>
+      <c r="R8">
+        <v>2.0782915000766743E-2</v>
+      </c>
+      <c r="S8">
+        <v>2.1194742165997576E-2</v>
+      </c>
+      <c r="T8">
+        <v>2.1711043543688937E-2</v>
+      </c>
+      <c r="U8">
+        <v>2.2508473312378426E-2</v>
+      </c>
+      <c r="V8">
+        <v>2.2570070322238154E-2</v>
+      </c>
+      <c r="W8">
+        <v>2.2555267269350296E-2</v>
+      </c>
+      <c r="X8">
+        <v>2.3648236078748587E-2</v>
+      </c>
+      <c r="Y8">
+        <v>2.3861843221816718E-2</v>
+      </c>
+      <c r="Z8">
+        <v>2.489653379666899E-2</v>
+      </c>
+      <c r="AA8">
+        <v>2.5219095482132577E-2</v>
+      </c>
+      <c r="AB8">
+        <v>2.5484509566463878E-2</v>
+      </c>
+      <c r="AC8">
+        <v>2.5365529497822309E-2</v>
+      </c>
+      <c r="AD8">
+        <v>2.482147448098445E-2</v>
+      </c>
+      <c r="AE8">
+        <v>2.5165395379110451E-2</v>
+      </c>
+      <c r="AF8">
+        <v>2.5907715591025657E-2</v>
+      </c>
+      <c r="AG8">
+        <v>2.6130031360689934E-2</v>
+      </c>
+      <c r="AH8">
+        <v>2.6328367811400338E-2</v>
+      </c>
+      <c r="AI8">
+        <v>2.6442401539483181E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>2.6265150782443229E-2</v>
+      </c>
+      <c r="AK8">
+        <v>2.0335456766687E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1.3047808286207553E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.3953847252129607E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.4873466641254E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.5912807652056302E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.6824819496366886E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.7430779696616615E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.8130266017134432E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.9020751460612887E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.9703860337546005E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.0084080372121494E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.0627743501119313E-2</v>
+      </c>
+      <c r="M9">
+        <v>2.0916145577622624E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.130661648264295E-2</v>
+      </c>
+      <c r="O9">
+        <v>2.15306621851102E-2</v>
+      </c>
+      <c r="P9">
+        <v>2.1934597848350869E-2</v>
+      </c>
+      <c r="Q9">
+        <v>2.2352157556707001E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.2812770236717753E-2</v>
+      </c>
+      <c r="S9">
+        <v>2.3113803975158737E-2</v>
+      </c>
+      <c r="T9">
+        <v>2.3571358088744825E-2</v>
+      </c>
+      <c r="U9">
+        <v>2.4170403100601055E-2</v>
+      </c>
+      <c r="V9">
+        <v>2.4359769829461007E-2</v>
+      </c>
+      <c r="W9">
+        <v>2.4683981093052573E-2</v>
+      </c>
+      <c r="X9">
+        <v>2.5435493281507539E-2</v>
+      </c>
+      <c r="Y9">
+        <v>2.5797760545902271E-2</v>
+      </c>
+      <c r="Z9">
+        <v>2.6839153302853882E-2</v>
+      </c>
+      <c r="AA9">
+        <v>2.6187868711813962E-2</v>
+      </c>
+      <c r="AB9">
+        <v>2.6181718224586432E-2</v>
+      </c>
+      <c r="AC9">
+        <v>2.6016710642319182E-2</v>
+      </c>
+      <c r="AD9">
+        <v>2.5861450013587816E-2</v>
+      </c>
+      <c r="AE9">
+        <v>2.6645013392608181E-2</v>
+      </c>
+      <c r="AF9">
+        <v>2.6755879488071965E-2</v>
+      </c>
+      <c r="AG9">
+        <v>2.5914131188896739E-2</v>
+      </c>
+      <c r="AH9">
+        <v>2.6114155707943159E-2</v>
+      </c>
+      <c r="AI9">
+        <v>2.5713627415571254E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>2.5481094053065041E-2</v>
+      </c>
+      <c r="AK9">
+        <v>2.1793629887444498E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1.4786011446772824E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.5713317035856825E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.6587395195812309E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.74824981304194E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.8147697365504083E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.908242843698137E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.9791921353907962E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.0575600076920476E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.114540169490195E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.1685821938912928E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.2079798883477202E-2</v>
+      </c>
+      <c r="M10">
+        <v>2.2412837127097945E-2</v>
+      </c>
+      <c r="N10">
+        <v>2.2961285030264882E-2</v>
+      </c>
+      <c r="O10">
+        <v>2.3053988110066821E-2</v>
+      </c>
+      <c r="P10">
+        <v>2.3914852662239711E-2</v>
+      </c>
+      <c r="Q10">
+        <v>2.4474989684232337E-2</v>
+      </c>
+      <c r="R10">
+        <v>2.4424386325949614E-2</v>
+      </c>
+      <c r="S10">
+        <v>2.4760546419844154E-2</v>
+      </c>
+      <c r="T10">
+        <v>2.51745789737336E-2</v>
+      </c>
+      <c r="U10">
+        <v>2.5489548355224514E-2</v>
+      </c>
+      <c r="V10">
+        <v>2.5695532691953796E-2</v>
+      </c>
+      <c r="W10">
+        <v>2.6177697260670277E-2</v>
+      </c>
+      <c r="X10">
+        <v>2.6658597719935187E-2</v>
+      </c>
+      <c r="Y10">
+        <v>2.6975427368196882E-2</v>
+      </c>
+      <c r="Z10">
+        <v>2.7414863116920797E-2</v>
+      </c>
+      <c r="AA10">
+        <v>2.695800904421872E-2</v>
+      </c>
+      <c r="AB10">
+        <v>2.6597131160024167E-2</v>
+      </c>
+      <c r="AC10">
+        <v>2.6343382189416543E-2</v>
+      </c>
+      <c r="AD10">
+        <v>2.5798760260133658E-2</v>
+      </c>
+      <c r="AE10">
+        <v>2.5787291904491076E-2</v>
+      </c>
+      <c r="AF10">
+        <v>2.5945958027535208E-2</v>
+      </c>
+      <c r="AG10">
+        <v>2.6308486848564884E-2</v>
+      </c>
+      <c r="AH10">
+        <v>2.5273486572773493E-2</v>
+      </c>
+      <c r="AI10">
+        <v>2.460675184965587E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>2.4652960263962295E-2</v>
+      </c>
+      <c r="AK10">
+        <v>2.2843569558229193E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1.6437258240624388E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.7148407988535348E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.7836207470706605E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.8842031974908191E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.9723950268032704E-2</v>
+      </c>
+      <c r="G11">
+        <v>2.0685184767558529E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.1465511753050996E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.1945089248346358E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.2844916325383935E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.3254255759146695E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.3649825970745497E-2</v>
+      </c>
+      <c r="M11">
+        <v>2.4005691083007964E-2</v>
+      </c>
+      <c r="N11">
+        <v>2.4236207821895544E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.5015033907926466E-2</v>
+      </c>
+      <c r="P11">
+        <v>2.520081859911846E-2</v>
+      </c>
+      <c r="Q11">
+        <v>2.567951347686781E-2</v>
+      </c>
+      <c r="R11">
+        <v>2.5758382495817703E-2</v>
+      </c>
+      <c r="S11">
+        <v>2.6127911278609178E-2</v>
+      </c>
+      <c r="T11">
+        <v>2.6224657209999138E-2</v>
+      </c>
+      <c r="U11">
+        <v>2.7135774104128572E-2</v>
+      </c>
+      <c r="V11">
+        <v>2.724825498952587E-2</v>
+      </c>
+      <c r="W11">
+        <v>2.6780083934365366E-2</v>
+      </c>
+      <c r="X11">
+        <v>2.697793881264679E-2</v>
+      </c>
+      <c r="Y11">
+        <v>2.698698737405646E-2</v>
+      </c>
+      <c r="Z11">
+        <v>2.710159184496844E-2</v>
+      </c>
+      <c r="AA11">
+        <v>2.7094915482853033E-2</v>
+      </c>
+      <c r="AB11">
+        <v>2.6184899618481593E-2</v>
+      </c>
+      <c r="AC11">
+        <v>2.6129531737210256E-2</v>
+      </c>
+      <c r="AD11">
+        <v>2.5714876770071251E-2</v>
+      </c>
+      <c r="AE11">
+        <v>2.5999074338865842E-2</v>
+      </c>
+      <c r="AF11">
+        <v>2.5861318468616293E-2</v>
+      </c>
+      <c r="AG11">
+        <v>2.4391255564324994E-2</v>
+      </c>
+      <c r="AH11">
+        <v>2.3914509483687119E-2</v>
+      </c>
+      <c r="AI11">
+        <v>2.3432920582985694E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>2.2532044381043337E-2</v>
+      </c>
+      <c r="AK11">
+        <v>2.3646942732137351E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1.7692284451536162E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.8243196199523349E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.9307536428419789E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.0325489695243001E-2</v>
+      </c>
+      <c r="F12">
+        <v>2.1148633802323222E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.2198017819960964E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.2733915080598039E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.3441971417299333E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.4218462027495682E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.4517495382964404E-2</v>
+      </c>
+      <c r="L12">
+        <v>2.494913114004384E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.5520842064486796E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.597534248489489E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.596722512962155E-2</v>
+      </c>
+      <c r="P12">
+        <v>2.6629359990128151E-2</v>
+      </c>
+      <c r="Q12">
+        <v>2.7227577607597107E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.6975506827073628E-2</v>
+      </c>
+      <c r="S12">
+        <v>2.7207813994743219E-2</v>
+      </c>
+      <c r="T12">
+        <v>2.7138673799948405E-2</v>
+      </c>
+      <c r="U12">
+        <v>2.7646774337374704E-2</v>
+      </c>
+      <c r="V12">
+        <v>2.7061983544492289E-2</v>
+      </c>
+      <c r="W12">
+        <v>2.6912708629048539E-2</v>
+      </c>
+      <c r="X12">
+        <v>2.7512061435942894E-2</v>
+      </c>
+      <c r="Y12">
+        <v>2.7115137481149972E-2</v>
+      </c>
+      <c r="Z12">
+        <v>2.6490352156769162E-2</v>
+      </c>
+      <c r="AA12">
+        <v>2.6511478049704093E-2</v>
+      </c>
+      <c r="AB12">
+        <v>2.5778468687828203E-2</v>
+      </c>
+      <c r="AC12">
+        <v>2.5712355359668752E-2</v>
+      </c>
+      <c r="AD12">
+        <v>2.4838913958941274E-2</v>
+      </c>
+      <c r="AE12">
+        <v>2.3194464744771281E-2</v>
+      </c>
+      <c r="AF12">
+        <v>2.3618251183668167E-2</v>
+      </c>
+      <c r="AG12">
+        <v>2.243658509053794E-2</v>
+      </c>
+      <c r="AH12">
+        <v>2.1937792194122965E-2</v>
+      </c>
+      <c r="AI12">
+        <v>1.929949878735341E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>1.7384704267862365E-2</v>
+      </c>
+      <c r="AK12">
+        <v>2.4103258937992519E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1.8714755941854462E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.9806492003551165E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.0481603823183252E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.1796243159509173E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.2700093616022349E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.3230053357454896E-2</v>
+      </c>
+      <c r="H13">
+        <v>2.4094051971525178E-2</v>
+      </c>
+      <c r="I13">
+        <v>2.4713101757430772E-2</v>
+      </c>
+      <c r="J13">
+        <v>2.5425140561900025E-2</v>
+      </c>
+      <c r="K13">
+        <v>2.5676827878110018E-2</v>
+      </c>
+      <c r="L13">
+        <v>2.6360531901637438E-2</v>
+      </c>
+      <c r="M13">
+        <v>2.6574691452761187E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.7086784914321382E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.7476101766017242E-2</v>
+      </c>
+      <c r="P13">
+        <v>2.790414730886015E-2</v>
+      </c>
+      <c r="Q13">
+        <v>2.8382436265063229E-2</v>
+      </c>
+      <c r="R13">
+        <v>2.791267224183544E-2</v>
+      </c>
+      <c r="S13">
+        <v>2.7877333506912363E-2</v>
+      </c>
+      <c r="T13">
+        <v>2.7189454855833572E-2</v>
+      </c>
+      <c r="U13">
+        <v>2.7944393375398932E-2</v>
+      </c>
+      <c r="V13">
+        <v>2.727213901522833E-2</v>
+      </c>
+      <c r="W13">
+        <v>2.6588219022819024E-2</v>
+      </c>
+      <c r="X13">
+        <v>2.6364749830790683E-2</v>
+      </c>
+      <c r="Y13">
+        <v>2.5597282120187213E-2</v>
+      </c>
+      <c r="Z13">
+        <v>2.53028902960932E-2</v>
+      </c>
+      <c r="AA13">
+        <v>2.4290583902604797E-2</v>
+      </c>
+      <c r="AB13">
+        <v>2.4015662156522719E-2</v>
+      </c>
+      <c r="AC13">
+        <v>2.2796697549718723E-2</v>
+      </c>
+      <c r="AD13">
+        <v>2.1516450598727754E-2</v>
+      </c>
+      <c r="AE13">
+        <v>2.1409854832082648E-2</v>
+      </c>
+      <c r="AF13">
+        <v>1.9864066993047932E-2</v>
+      </c>
+      <c r="AG13">
+        <v>1.8804111082130735E-2</v>
+      </c>
+      <c r="AH13">
+        <v>1.7323108367149637E-2</v>
+      </c>
+      <c r="AI13">
+        <v>1.5020752984953216E-2</v>
+      </c>
+      <c r="AJ13">
+        <v>1.5262284472052277E-2</v>
+      </c>
+      <c r="AK13">
+        <v>2.4300900876140983E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2.010091210955867E-2</v>
+      </c>
+      <c r="C14">
+        <v>2.0930292392406076E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.1973786490715606E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.2956458836489519E-2</v>
+      </c>
+      <c r="F14">
+        <v>2.3684725959123319E-2</v>
+      </c>
+      <c r="G14">
+        <v>2.4283145356793365E-2</v>
+      </c>
+      <c r="H14">
+        <v>2.511980367021183E-2</v>
+      </c>
+      <c r="I14">
+        <v>2.5838690421904714E-2</v>
+      </c>
+      <c r="J14">
+        <v>2.6498469646245009E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.6965253487847309E-2</v>
+      </c>
+      <c r="L14">
+        <v>2.722041621994551E-2</v>
+      </c>
+      <c r="M14">
+        <v>2.8049613722576909E-2</v>
+      </c>
+      <c r="N14">
+        <v>2.8576111144544575E-2</v>
+      </c>
+      <c r="O14">
+        <v>2.8580951343459372E-2</v>
+      </c>
+      <c r="P14">
+        <v>2.8264540737055584E-2</v>
+      </c>
+      <c r="Q14">
+        <v>2.8199410338294702E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.7997888678124177E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.7409689602245293E-2</v>
+      </c>
+      <c r="T14">
+        <v>2.7491893539302193E-2</v>
+      </c>
+      <c r="U14">
+        <v>2.7038061608641254E-2</v>
+      </c>
+      <c r="V14">
+        <v>2.6825478876276197E-2</v>
+      </c>
+      <c r="W14">
+        <v>2.4909727344953298E-2</v>
+      </c>
+      <c r="X14">
+        <v>2.4445858728701819E-2</v>
+      </c>
+      <c r="Y14">
+        <v>2.3419949395270017E-2</v>
+      </c>
+      <c r="Z14">
+        <v>2.3227400066950812E-2</v>
+      </c>
+      <c r="AA14">
+        <v>2.2786300121716573E-2</v>
+      </c>
+      <c r="AB14">
+        <v>2.1239812031787989E-2</v>
+      </c>
+      <c r="AC14">
+        <v>1.9071865072276546E-2</v>
+      </c>
+      <c r="AD14">
+        <v>1.7419496678446514E-2</v>
+      </c>
+      <c r="AE14">
+        <v>1.8146738267250009E-2</v>
+      </c>
+      <c r="AF14">
+        <v>1.6484544282280023E-2</v>
+      </c>
+      <c r="AG14">
+        <v>1.6040437060167691E-2</v>
+      </c>
+      <c r="AH14">
+        <v>1.5319453430113528E-2</v>
+      </c>
+      <c r="AI14">
+        <v>1.4988898730300756E-2</v>
+      </c>
+      <c r="AJ14">
+        <v>1.2729237711367962E-2</v>
+      </c>
+      <c r="AK14">
+        <v>2.4442331060559559E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1.3398956921988737E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.4048822846410033E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.4850546440833425E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.5740193868969007E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.6499675918799278E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.7259335156032583E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.7958420191906702E-2</v>
+      </c>
+      <c r="I15">
+        <v>1.867607061658506E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.9332370474029484E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.9813002169523582E-2</v>
+      </c>
+      <c r="L15">
+        <v>2.0225554225233346E-2</v>
+      </c>
+      <c r="M15">
+        <v>2.0613510285093572E-2</v>
+      </c>
+      <c r="N15">
+        <v>2.1080726887620395E-2</v>
+      </c>
+      <c r="O15">
+        <v>2.1344218921626561E-2</v>
+      </c>
+      <c r="P15">
+        <v>2.1722571536577799E-2</v>
+      </c>
+      <c r="Q15">
+        <v>2.2155929181701051E-2</v>
+      </c>
+      <c r="R15">
+        <v>2.2171678520940298E-2</v>
+      </c>
+      <c r="S15">
+        <v>2.2398402594110599E-2</v>
+      </c>
+      <c r="T15">
+        <v>2.2595655782929054E-2</v>
+      </c>
+      <c r="U15">
+        <v>2.3072843888728194E-2</v>
+      </c>
+      <c r="V15">
+        <v>2.3030246960150984E-2</v>
+      </c>
+      <c r="W15">
+        <v>2.291157459332701E-2</v>
+      </c>
+      <c r="X15">
+        <v>2.3371704230742172E-2</v>
+      </c>
+      <c r="Y15">
+        <v>2.3414229895822262E-2</v>
+      </c>
+      <c r="Z15">
+        <v>2.3819235005063655E-2</v>
+      </c>
+      <c r="AA15">
+        <v>2.3725363043746225E-2</v>
+      </c>
+      <c r="AB15">
+        <v>2.362245866202009E-2</v>
+      </c>
+      <c r="AC15">
+        <v>2.3428595273822933E-2</v>
+      </c>
+      <c r="AD15">
+        <v>2.3132575022802377E-2</v>
+      </c>
+      <c r="AE15">
+        <v>2.3239084846037754E-2</v>
+      </c>
+      <c r="AF15">
+        <v>2.3373685897601165E-2</v>
+      </c>
+      <c r="AG15">
+        <v>2.3184082599591652E-2</v>
+      </c>
+      <c r="AH15">
+        <v>2.317800998602931E-2</v>
+      </c>
+      <c r="AI15">
+        <v>2.2723697979719716E-2</v>
+      </c>
+      <c r="AJ15">
+        <v>2.25604815013732E-2</v>
+      </c>
+      <c r="AK15">
+        <v>2.0553824652898883E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>2.8580951343459372E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1">
+        <v>32</v>
+      </c>
+      <c r="T4" s="1">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1">
+        <v>34</v>
+      </c>
+      <c r="V4" s="1">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>47</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>7.0446608883535508E-3</v>
+      </c>
+      <c r="C5">
+        <v>7.444485775717641E-3</v>
+      </c>
+      <c r="D5">
+        <v>7.6708208228962564E-3</v>
+      </c>
+      <c r="E5">
+        <v>7.986493863434363E-3</v>
+      </c>
+      <c r="F5">
+        <v>8.5019146183821243E-3</v>
+      </c>
+      <c r="G5">
+        <v>9.0330326918631153E-3</v>
+      </c>
+      <c r="H5">
+        <v>9.5805497404367595E-3</v>
+      </c>
+      <c r="I5">
+        <v>1.0071934358053609E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.0609828031861062E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.1113216349895079E-2</v>
+      </c>
+      <c r="L5">
+        <v>1.1830034135429102E-2</v>
+      </c>
+      <c r="M5">
+        <v>1.2410005729949108E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.3199681405110708E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.4099038634932644E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.4682990162294178E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.55249768675528E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.6385315210788131E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.6831928499894282E-2</v>
+      </c>
+      <c r="T5">
+        <v>1.7536419446296615E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.8084482530051186E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.8425102125747307E-2</v>
+      </c>
+      <c r="W5">
+        <v>1.8530155393554151E-2</v>
+      </c>
+      <c r="X5">
+        <v>1.9147729177488765E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.9486566190682029E-2</v>
+      </c>
+      <c r="Z5">
+        <v>2.0209398584095616E-2</v>
+      </c>
+      <c r="AA5">
+        <v>2.0593619279690504E-2</v>
+      </c>
+      <c r="AB5">
+        <v>2.1134998628167496E-2</v>
+      </c>
+      <c r="AC5">
+        <v>2.1128273803951145E-2</v>
+      </c>
+      <c r="AD5">
+        <v>2.1552110091090683E-2</v>
+      </c>
+      <c r="AE5">
+        <v>2.2188796140090037E-2</v>
+      </c>
+      <c r="AF5">
+        <v>2.3079071445952434E-2</v>
+      </c>
+      <c r="AG5">
+        <v>2.3691504540484215E-2</v>
+      </c>
+      <c r="AH5">
+        <v>2.3812581655699692E-2</v>
+      </c>
+      <c r="AI5">
+        <v>2.4182876432116394E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>2.4559599304822013E-2</v>
+      </c>
+      <c r="AK5">
+        <v>1.5465457633041578E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7.5434586071211982E-3</v>
+      </c>
+      <c r="C6">
+        <v>8.0298829882484574E-3</v>
+      </c>
+      <c r="D6">
+        <v>8.3782897093248321E-3</v>
+      </c>
+      <c r="E6">
+        <v>8.8208201610171545E-3</v>
+      </c>
+      <c r="F6">
+        <v>9.0828733040127403E-3</v>
+      </c>
+      <c r="G6">
+        <v>1.026767883542383E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.0773747872432448E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.1188276388041096E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.1992185626541219E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.2746911266587254E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.3286300890020487E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.4203950464421267E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.504872795837703E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.5984902601037906E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.6506027271116833E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.722140497019314E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.8355707576910331E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.8678749566596802E-2</v>
+      </c>
+      <c r="T6">
+        <v>1.9399188925031327E-2</v>
+      </c>
+      <c r="U6">
+        <v>2.001513173375959E-2</v>
+      </c>
+      <c r="V6">
+        <v>2.0393871377513008E-2</v>
+      </c>
+      <c r="W6">
+        <v>2.0674804590186325E-2</v>
+      </c>
+      <c r="X6">
+        <v>2.1318585205317962E-2</v>
+      </c>
+      <c r="Y6">
+        <v>2.1564840689492059E-2</v>
+      </c>
+      <c r="Z6">
+        <v>2.2507702723456778E-2</v>
+      </c>
+      <c r="AA6">
+        <v>2.2736208962346759E-2</v>
+      </c>
+      <c r="AB6">
+        <v>2.3276887516614667E-2</v>
+      </c>
+      <c r="AC6">
+        <v>2.3568208339297032E-2</v>
+      </c>
+      <c r="AD6">
+        <v>2.3867695860948869E-2</v>
+      </c>
+      <c r="AE6">
+        <v>2.4615143623908469E-2</v>
+      </c>
+      <c r="AF6">
+        <v>2.5661105713113318E-2</v>
+      </c>
+      <c r="AG6">
+        <v>2.5551592552803905E-2</v>
+      </c>
+      <c r="AH6">
+        <v>2.6380665110540383E-2</v>
+      </c>
+      <c r="AI6">
+        <v>2.6453697611525682E-2</v>
+      </c>
+      <c r="AJ6">
+        <v>2.7227318947124903E-2</v>
+      </c>
+      <c r="AK6">
+        <v>1.7110893678687726E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7.7142197890202923E-3</v>
+      </c>
+      <c r="C7">
+        <v>8.3981983419789078E-3</v>
+      </c>
+      <c r="D7">
+        <v>8.8246621286637277E-3</v>
+      </c>
+      <c r="E7">
+        <v>9.0480121307409955E-3</v>
+      </c>
+      <c r="F7">
+        <v>9.8150107929983726E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.0831759169876141E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.1458285016085527E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.2349255576319447E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.318040783044897E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.3651053675662697E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.4426515222360702E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.5285760686980438E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.6391417306243501E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.7575338742324795E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.8427435461401895E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.9030379460254751E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.9834461221366253E-2</v>
+      </c>
+      <c r="S7">
+        <v>2.0604370769074794E-2</v>
+      </c>
+      <c r="T7">
+        <v>2.1300245536295278E-2</v>
+      </c>
+      <c r="U7">
+        <v>2.1829374923633346E-2</v>
+      </c>
+      <c r="V7">
+        <v>2.209443370582001E-2</v>
+      </c>
+      <c r="W7">
+        <v>2.2175313617166483E-2</v>
+      </c>
+      <c r="X7">
+        <v>2.2754751994512469E-2</v>
+      </c>
+      <c r="Y7">
+        <v>2.3084754061823747E-2</v>
+      </c>
+      <c r="Z7">
+        <v>2.4399025737430042E-2</v>
+      </c>
+      <c r="AA7">
+        <v>2.4755969210126103E-2</v>
+      </c>
+      <c r="AB7">
+        <v>2.5133780388026702E-2</v>
+      </c>
+      <c r="AC7">
+        <v>2.5479120135362958E-2</v>
+      </c>
+      <c r="AD7">
+        <v>2.5631743940509114E-2</v>
+      </c>
+      <c r="AE7">
+        <v>2.6231127017330585E-2</v>
+      </c>
+      <c r="AF7">
+        <v>2.7051507008114099E-2</v>
+      </c>
+      <c r="AG7">
+        <v>2.7283881392017029E-2</v>
+      </c>
+      <c r="AH7">
+        <v>2.8382557753762812E-2</v>
+      </c>
+      <c r="AI7">
+        <v>2.8369590965750362E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>2.8834171603478304E-2</v>
+      </c>
+      <c r="AK7">
+        <v>1.8367366916495625E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7.7553318804133922E-3</v>
+      </c>
+      <c r="C8">
+        <v>8.5250865030729664E-3</v>
+      </c>
+      <c r="D8">
+        <v>9.1393919929777766E-3</v>
+      </c>
+      <c r="E8">
+        <v>9.5208557589471117E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.0286920824917689E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.1387802693551543E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.2223690517737645E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.3241215165190445E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.385251230230543E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.4693743877294552E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.5514447520573902E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.6601925725858103E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.7757563533530332E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.8469964335057883E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.9367576592142149E-2</v>
+      </c>
+      <c r="Q8">
+        <v>2.0469286784004892E-2</v>
+      </c>
+      <c r="R8">
+        <v>2.0799593248139202E-2</v>
+      </c>
+      <c r="S8">
+        <v>2.1307582140063668E-2</v>
+      </c>
+      <c r="T8">
+        <v>2.2036750202206849E-2</v>
+      </c>
+      <c r="U8">
+        <v>2.2920547239811483E-2</v>
+      </c>
+      <c r="V8">
+        <v>2.3581849201844425E-2</v>
+      </c>
+      <c r="W8">
+        <v>2.3723587077882888E-2</v>
+      </c>
+      <c r="X8">
+        <v>2.4512801566492378E-2</v>
+      </c>
+      <c r="Y8">
+        <v>2.4448278961018425E-2</v>
+      </c>
+      <c r="Z8">
+        <v>2.6166739247942248E-2</v>
+      </c>
+      <c r="AA8">
+        <v>2.666836221566856E-2</v>
+      </c>
+      <c r="AB8">
+        <v>2.6670607848941968E-2</v>
+      </c>
+      <c r="AC8">
+        <v>2.7257220847627179E-2</v>
+      </c>
+      <c r="AD8">
+        <v>2.7227269026236404E-2</v>
+      </c>
+      <c r="AE8">
+        <v>2.7798620512759983E-2</v>
+      </c>
+      <c r="AF8">
+        <v>2.9059921551915786E-2</v>
+      </c>
+      <c r="AG8">
+        <v>2.9008696971745226E-2</v>
+      </c>
+      <c r="AH8">
+        <v>2.9751678921396341E-2</v>
+      </c>
+      <c r="AI8">
+        <v>3.0084041605981823E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>3.0323143014982779E-2</v>
+      </c>
+      <c r="AK8">
+        <v>1.9382454356248007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7.655989790190252E-3</v>
+      </c>
+      <c r="C9">
+        <v>8.709783012361064E-3</v>
+      </c>
+      <c r="D9">
+        <v>9.1141509877513075E-3</v>
+      </c>
+      <c r="E9">
+        <v>9.9036642101626195E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.0674137534023822E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.1800078734573193E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.2733328509697057E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.3766191787136528E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.4341192266421854E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.5564499665898502E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.6418401595981263E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.7469943478652925E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.8637776077616647E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.9283576659371759E-2</v>
+      </c>
+      <c r="P9">
+        <v>2.0314156105293336E-2</v>
+      </c>
+      <c r="Q9">
+        <v>2.1501867164836323E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.1866067251390814E-2</v>
+      </c>
+      <c r="S9">
+        <v>2.2423183942549635E-2</v>
+      </c>
+      <c r="T9">
+        <v>2.3143820103367622E-2</v>
+      </c>
+      <c r="U9">
+        <v>2.4317013367001854E-2</v>
+      </c>
+      <c r="V9">
+        <v>2.4239026149086317E-2</v>
+      </c>
+      <c r="W9">
+        <v>2.476501685404876E-2</v>
+      </c>
+      <c r="X9">
+        <v>2.5633931698446678E-2</v>
+      </c>
+      <c r="Y9">
+        <v>2.6316646583269026E-2</v>
+      </c>
+      <c r="Z9">
+        <v>2.7525545041568764E-2</v>
+      </c>
+      <c r="AA9">
+        <v>2.7725343064291069E-2</v>
+      </c>
+      <c r="AB9">
+        <v>2.8446829785929727E-2</v>
+      </c>
+      <c r="AC9">
+        <v>2.8309432121678402E-2</v>
+      </c>
+      <c r="AD9">
+        <v>2.8882715299510555E-2</v>
+      </c>
+      <c r="AE9">
+        <v>2.9438455608327248E-2</v>
+      </c>
+      <c r="AF9">
+        <v>3.0467180481120796E-2</v>
+      </c>
+      <c r="AG9">
+        <v>3.0645616601610956E-2</v>
+      </c>
+      <c r="AH9">
+        <v>3.0546562368285467E-2</v>
+      </c>
+      <c r="AI9">
+        <v>3.144015334608477E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>3.0197669860565823E-2</v>
+      </c>
+      <c r="AK9">
+        <v>2.0151072267443785E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>7.3926920396290537E-3</v>
+      </c>
+      <c r="C10">
+        <v>8.5512107029758807E-3</v>
+      </c>
+      <c r="D10">
+        <v>9.2493896713130436E-3</v>
+      </c>
+      <c r="E10">
+        <v>9.9555228945617941E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.0977147581398321E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.2051129438077917E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.2960250476649563E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.3874163275504317E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.4889039606634498E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.6135049248579857E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.7047555916488433E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.8189516850686767E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.931641876971469E-2</v>
+      </c>
+      <c r="O10">
+        <v>2.0041364007388752E-2</v>
+      </c>
+      <c r="P10">
+        <v>2.1148565709651627E-2</v>
+      </c>
+      <c r="Q10">
+        <v>2.2226012341357248E-2</v>
+      </c>
+      <c r="R10">
+        <v>2.2473041853880445E-2</v>
+      </c>
+      <c r="S10">
+        <v>2.3153442835532841E-2</v>
+      </c>
+      <c r="T10">
+        <v>2.4090877530393573E-2</v>
+      </c>
+      <c r="U10">
+        <v>2.5058396488080576E-2</v>
+      </c>
+      <c r="V10">
+        <v>2.5488724518158479E-2</v>
+      </c>
+      <c r="W10">
+        <v>2.5926234632360635E-2</v>
+      </c>
+      <c r="X10">
+        <v>2.6584577342320802E-2</v>
+      </c>
+      <c r="Y10">
+        <v>2.7551269144822622E-2</v>
+      </c>
+      <c r="Z10">
+        <v>2.8696979426544981E-2</v>
+      </c>
+      <c r="AA10">
+        <v>2.8792201297346543E-2</v>
+      </c>
+      <c r="AB10">
+        <v>2.9311702393864453E-2</v>
+      </c>
+      <c r="AC10">
+        <v>2.9348473498135654E-2</v>
+      </c>
+      <c r="AD10">
+        <v>3.0384989887662285E-2</v>
+      </c>
+      <c r="AE10">
+        <v>3.0867655318161089E-2</v>
+      </c>
+      <c r="AF10">
+        <v>3.157231949411371E-2</v>
+      </c>
+      <c r="AG10">
+        <v>3.099720579132148E-2</v>
+      </c>
+      <c r="AH10">
+        <v>3.1678264974030756E-2</v>
+      </c>
+      <c r="AI10">
+        <v>3.0924919526264801E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>2.9684164592484869E-2</v>
+      </c>
+      <c r="AK10">
+        <v>2.0647095008724119E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>6.9192589954489578E-3</v>
+      </c>
+      <c r="C11">
+        <v>8.2542970971966906E-3</v>
+      </c>
+      <c r="D11">
+        <v>9.1302332676360433E-3</v>
+      </c>
+      <c r="E11">
+        <v>9.9794113576843462E-3</v>
+      </c>
+      <c r="F11">
+        <v>1.0973068162472122E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.1961999739859093E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.2967120343784385E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.4094767029981489E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.5112978563151141E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.6552791966905147E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.7297986082620807E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.8723978045224954E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.9846395146899308E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.0613495897156338E-2</v>
+      </c>
+      <c r="P11">
+        <v>2.176919637239259E-2</v>
+      </c>
+      <c r="Q11">
+        <v>2.2694747401623701E-2</v>
+      </c>
+      <c r="R11">
+        <v>2.345387346403963E-2</v>
+      </c>
+      <c r="S11">
+        <v>2.3845473745906065E-2</v>
+      </c>
+      <c r="T11">
+        <v>2.4875742869291246E-2</v>
+      </c>
+      <c r="U11">
+        <v>2.6053405175793867E-2</v>
+      </c>
+      <c r="V11">
+        <v>2.5816043871205018E-2</v>
+      </c>
+      <c r="W11">
+        <v>2.6802340002790349E-2</v>
+      </c>
+      <c r="X11">
+        <v>2.7709242474124346E-2</v>
+      </c>
+      <c r="Y11">
+        <v>2.8266463081472442E-2</v>
+      </c>
+      <c r="Z11">
+        <v>2.9602285841380322E-2</v>
+      </c>
+      <c r="AA11">
+        <v>2.9800597086928345E-2</v>
+      </c>
+      <c r="AB11">
+        <v>2.9926673085661236E-2</v>
+      </c>
+      <c r="AC11">
+        <v>3.0686532317852417E-2</v>
+      </c>
+      <c r="AD11">
+        <v>3.0739931355211997E-2</v>
+      </c>
+      <c r="AE11">
+        <v>3.1332340827549883E-2</v>
+      </c>
+      <c r="AF11">
+        <v>3.1653567699350973E-2</v>
+      </c>
+      <c r="AG11">
+        <v>3.1510209568809899E-2</v>
+      </c>
+      <c r="AH11">
+        <v>3.1318774505228332E-2</v>
+      </c>
+      <c r="AI11">
+        <v>3.0338995931770259E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>2.9553773092297321E-2</v>
+      </c>
+      <c r="AK11">
+        <v>2.0890389601423726E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>6.492195932657297E-3</v>
+      </c>
+      <c r="C12">
+        <v>7.9007454180311642E-3</v>
+      </c>
+      <c r="D12">
+        <v>9.1879807908271365E-3</v>
+      </c>
+      <c r="E12">
+        <v>9.9215217051567099E-3</v>
+      </c>
+      <c r="F12">
+        <v>1.0723394378217522E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.1947753179502354E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.2982226818397606E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.3949469283395103E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.5300280049128171E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.656729181667491E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.751835568811708E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.8994699129498648E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.0179247681260008E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.0913550207750851E-2</v>
+      </c>
+      <c r="P12">
+        <v>2.2085913830493412E-2</v>
+      </c>
+      <c r="Q12">
+        <v>2.3142741959250233E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.357917475773437E-2</v>
+      </c>
+      <c r="S12">
+        <v>2.4405110181823772E-2</v>
+      </c>
+      <c r="T12">
+        <v>2.5455240592760199E-2</v>
+      </c>
+      <c r="U12">
+        <v>2.6378762388148635E-2</v>
+      </c>
+      <c r="V12">
+        <v>2.6417867165563987E-2</v>
+      </c>
+      <c r="W12">
+        <v>2.7162328895041814E-2</v>
+      </c>
+      <c r="X12">
+        <v>2.8537218622824528E-2</v>
+      </c>
+      <c r="Y12">
+        <v>2.8584308590441265E-2</v>
+      </c>
+      <c r="Z12">
+        <v>2.993509024875168E-2</v>
+      </c>
+      <c r="AA12">
+        <v>3.0322322928564838E-2</v>
+      </c>
+      <c r="AB12">
+        <v>3.0933871637991751E-2</v>
+      </c>
+      <c r="AC12">
+        <v>3.0747891133695582E-2</v>
+      </c>
+      <c r="AD12">
+        <v>3.1000268646740339E-2</v>
+      </c>
+      <c r="AE12">
+        <v>3.2292511802189706E-2</v>
+      </c>
+      <c r="AF12">
+        <v>3.1446819719422564E-2</v>
+      </c>
+      <c r="AG12">
+        <v>3.0640248588957902E-2</v>
+      </c>
+      <c r="AH12">
+        <v>3.0817716869453889E-2</v>
+      </c>
+      <c r="AI12">
+        <v>2.9953951499823848E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>2.9647070755090744E-2</v>
+      </c>
+      <c r="AK12">
+        <v>2.0909362081331866E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>5.6828282502417709E-3</v>
+      </c>
+      <c r="C13">
+        <v>7.2672211523574747E-3</v>
+      </c>
+      <c r="D13">
+        <v>8.6118473341603562E-3</v>
+      </c>
+      <c r="E13">
+        <v>9.63936762930203E-3</v>
+      </c>
+      <c r="F13">
+        <v>1.0497823727808019E-2</v>
+      </c>
+      <c r="G13">
+        <v>1.1543219971741134E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.2658865242404648E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.387666192478009E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.5239112156306361E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.6305473951998828E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.7546693874798021E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.9091940392788099E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.0297104395562801E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.1249808294959364E-2</v>
+      </c>
+      <c r="P13">
+        <v>2.2313569522377678E-2</v>
+      </c>
+      <c r="Q13">
+        <v>2.3274417086859449E-2</v>
+      </c>
+      <c r="R13">
+        <v>2.3854572986080666E-2</v>
+      </c>
+      <c r="S13">
+        <v>2.4822892401548807E-2</v>
+      </c>
+      <c r="T13">
+        <v>2.5972949342164178E-2</v>
+      </c>
+      <c r="U13">
+        <v>2.6895038284867809E-2</v>
+      </c>
+      <c r="V13">
+        <v>2.7200144913595816E-2</v>
+      </c>
+      <c r="W13">
+        <v>2.7836799897503081E-2</v>
+      </c>
+      <c r="X13">
+        <v>2.8855176844513639E-2</v>
+      </c>
+      <c r="Y13">
+        <v>2.9422127943396187E-2</v>
+      </c>
+      <c r="Z13">
+        <v>3.0745101077810304E-2</v>
+      </c>
+      <c r="AA13">
+        <v>3.078299162212338E-2</v>
+      </c>
+      <c r="AB13">
+        <v>3.1388677147503929E-2</v>
+      </c>
+      <c r="AC13">
+        <v>3.1775671586712607E-2</v>
+      </c>
+      <c r="AD13">
+        <v>3.1891680699467323E-2</v>
+      </c>
+      <c r="AE13">
+        <v>3.1032065871608679E-2</v>
+      </c>
+      <c r="AF13">
+        <v>3.1310210065712087E-2</v>
+      </c>
+      <c r="AG13">
+        <v>3.0243974707330767E-2</v>
+      </c>
+      <c r="AH13">
+        <v>2.9995474793791402E-2</v>
+      </c>
+      <c r="AI13">
+        <v>2.8661122305413726E-2</v>
+      </c>
+      <c r="AJ13">
+        <v>2.9226320876952039E-2</v>
+      </c>
+      <c r="AK13">
+        <v>2.078018879656901E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>5.030512380322239E-3</v>
+      </c>
+      <c r="C14">
+        <v>6.7200642992952028E-3</v>
+      </c>
+      <c r="D14">
+        <v>8.2083557965908095E-3</v>
+      </c>
+      <c r="E14">
+        <v>9.3075003739773315E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.0265607719498989E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.1395825812651682E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.2667735486128573E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.3520814851268199E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.4883074765758657E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.6164638681593669E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.735948770285177E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.9032900136709271E-2</v>
+      </c>
+      <c r="N14">
+        <v>2.0224948616528869E-2</v>
+      </c>
+      <c r="O14">
+        <v>2.1261483326026714E-2</v>
+      </c>
+      <c r="P14">
+        <v>2.2354306056672796E-2</v>
+      </c>
+      <c r="Q14">
+        <v>2.3411433479578012E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.4377259101344789E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.4970435820160449E-2</v>
+      </c>
+      <c r="T14">
+        <v>2.6509312986880921E-2</v>
+      </c>
+      <c r="U14">
+        <v>2.7415026462430738E-2</v>
+      </c>
+      <c r="V14">
+        <v>2.7812372862152469E-2</v>
+      </c>
+      <c r="W14">
+        <v>2.8563620123385206E-2</v>
+      </c>
+      <c r="X14">
+        <v>2.9135963747932606E-2</v>
+      </c>
+      <c r="Y14">
+        <v>2.988133647173967E-2</v>
+      </c>
+      <c r="Z14">
+        <v>3.1163700703804312E-2</v>
+      </c>
+      <c r="AA14">
+        <v>3.1476517249381976E-2</v>
+      </c>
+      <c r="AB14">
+        <v>3.1697019668452439E-2</v>
+      </c>
+      <c r="AC14">
+        <v>3.1746574116308844E-2</v>
+      </c>
+      <c r="AD14">
+        <v>3.1893066089526724E-2</v>
+      </c>
+      <c r="AE14">
+        <v>3.2052359638134374E-2</v>
+      </c>
+      <c r="AF14">
+        <v>3.054831794997722E-2</v>
+      </c>
+      <c r="AG14">
+        <v>2.9609810255115426E-2</v>
+      </c>
+      <c r="AH14">
+        <v>2.9770227896351861E-2</v>
+      </c>
+      <c r="AI14">
+        <v>2.7089839767191502E-2</v>
+      </c>
+      <c r="AJ14">
+        <v>2.7032300455365817E-2</v>
+      </c>
+      <c r="AK14">
+        <v>2.0605331550780464E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>6.9182872613397228E-3</v>
+      </c>
+      <c r="C15">
+        <v>7.9762200405635933E-3</v>
+      </c>
+      <c r="D15">
+        <v>8.7473076500272501E-3</v>
+      </c>
+      <c r="E15">
+        <v>9.4026838821842824E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.0170016001636509E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.1208796763384507E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.2080012821953747E-2</v>
+      </c>
+      <c r="I15">
+        <v>1.2963029454229589E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.390456263022256E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.4902288748960811E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.5771987442230091E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.6933352578806137E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.8012428842823867E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.8865479895028982E-2</v>
+      </c>
+      <c r="P15">
+        <v>1.9803660902283065E-2</v>
+      </c>
+      <c r="Q15">
+        <v>2.0741627771803651E-2</v>
+      </c>
+      <c r="R15">
+        <v>2.1392408483314553E-2</v>
+      </c>
+      <c r="S15">
+        <v>2.1992723647951413E-2</v>
+      </c>
+      <c r="T15">
+        <v>2.2893166149471612E-2</v>
+      </c>
+      <c r="U15">
+        <v>2.3747780369897518E-2</v>
+      </c>
+      <c r="V15">
+        <v>2.3993777822717176E-2</v>
+      </c>
+      <c r="W15">
+        <v>2.4435834999694768E-2</v>
+      </c>
+      <c r="X15">
+        <v>2.5223581070360945E-2</v>
+      </c>
+      <c r="Y15">
+        <v>2.5656066875925365E-2</v>
+      </c>
+      <c r="Z15">
+        <v>2.6862575699542108E-2</v>
+      </c>
+      <c r="AA15">
+        <v>2.7111169719143204E-2</v>
+      </c>
+      <c r="AB15">
+        <v>2.7528483406121407E-2</v>
+      </c>
+      <c r="AC15">
+        <v>2.7711589286531391E-2</v>
+      </c>
+      <c r="AD15">
+        <v>2.8011960274616169E-2</v>
+      </c>
+      <c r="AE15">
+        <v>2.8456201780092234E-2</v>
+      </c>
+      <c r="AF15">
+        <v>2.8891148913576588E-2</v>
+      </c>
+      <c r="AG15">
+        <v>2.8640747820344311E-2</v>
+      </c>
+      <c r="AH15">
+        <v>2.8980219858841038E-2</v>
+      </c>
+      <c r="AI15">
+        <v>2.8613330069699097E-2</v>
+      </c>
+      <c r="AJ15">
+        <v>2.8512218596155565E-2</v>
+      </c>
+      <c r="AK15">
+        <v>1.93457888910359E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>3.2292511802189706E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1">
+        <v>32</v>
+      </c>
+      <c r="T4" s="1">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1">
+        <v>34</v>
+      </c>
+      <c r="V4" s="1">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>47</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4.0285926864198776E-3</v>
+      </c>
+      <c r="C5">
+        <v>4.8189019239090903E-3</v>
+      </c>
+      <c r="D5">
+        <v>5.5863867083071209E-3</v>
+      </c>
+      <c r="E5">
+        <v>6.3229761891225988E-3</v>
+      </c>
+      <c r="F5">
+        <v>6.6706151271477016E-3</v>
+      </c>
+      <c r="G5">
+        <v>6.8200457656494478E-3</v>
+      </c>
+      <c r="H5">
+        <v>7.1528901893010586E-3</v>
+      </c>
+      <c r="I5">
+        <v>7.2297071976886815E-3</v>
+      </c>
+      <c r="J5">
+        <v>7.5808021306215606E-3</v>
+      </c>
+      <c r="K5">
+        <v>7.752392158501327E-3</v>
+      </c>
+      <c r="L5">
+        <v>1.12537523221731E-2</v>
+      </c>
+      <c r="M5">
+        <v>1.1444955269951618E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.2627854863026828E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.0684665080296184E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.0996874734789159E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.1853346086460138E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.2440374691652472E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.2451520697320653E-2</v>
+      </c>
+      <c r="T5">
+        <v>1.2533623623541958E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.3221518304353145E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.4482708668164059E-2</v>
+      </c>
+      <c r="W5">
+        <v>1.4718068729489395E-2</v>
+      </c>
+      <c r="X5">
+        <v>1.520405411102092E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.5482348539720761E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1.6229536218802947E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.6537943216298586E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.7062919305911438E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.7094820196374497E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.7877435811964083E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.7836147813983367E-2</v>
+      </c>
+      <c r="AF5">
+        <v>1.8824962784721285E-2</v>
+      </c>
+      <c r="AG5">
+        <v>1.9412530810522653E-2</v>
+      </c>
+      <c r="AH5">
+        <v>2.3098780200138242E-2</v>
+      </c>
+      <c r="AI5">
+        <v>2.3348190732448537E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>2.3854236848706818E-2</v>
+      </c>
+      <c r="AK5">
+        <v>1.2881739993543802E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4.41633367802329E-3</v>
+      </c>
+      <c r="C6">
+        <v>5.1216865193783158E-3</v>
+      </c>
+      <c r="D6">
+        <v>6.1141565640283847E-3</v>
+      </c>
+      <c r="E6">
+        <v>7.0122245355706842E-3</v>
+      </c>
+      <c r="F6">
+        <v>7.2281147337233554E-3</v>
+      </c>
+      <c r="G6">
+        <v>7.7292757260171603E-3</v>
+      </c>
+      <c r="H6">
+        <v>7.8385209542153854E-3</v>
+      </c>
+      <c r="I6">
+        <v>8.0265864594320467E-3</v>
+      </c>
+      <c r="J6">
+        <v>8.2319618118570411E-3</v>
+      </c>
+      <c r="K6">
+        <v>1.1850182777217133E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.2271254304734485E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.1044410250891711E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.1738732410040828E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.2007074706149444E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.262946623441422E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.339862054956785E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.3609037591653364E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.3512031551582529E-2</v>
+      </c>
+      <c r="T6">
+        <v>1.4441715585232924E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.5789460491987071E-2</v>
+      </c>
+      <c r="V6">
+        <v>1.6126031263286839E-2</v>
+      </c>
+      <c r="W6">
+        <v>1.651762555899873E-2</v>
+      </c>
+      <c r="X6">
+        <v>1.6952228951327062E-2</v>
+      </c>
+      <c r="Y6">
+        <v>1.7489474510746585E-2</v>
+      </c>
+      <c r="Z6">
+        <v>1.7993081809014492E-2</v>
+      </c>
+      <c r="AA6">
+        <v>1.8354529040570829E-2</v>
+      </c>
+      <c r="AB6">
+        <v>1.8754305170313675E-2</v>
+      </c>
+      <c r="AC6">
+        <v>1.8967918708700439E-2</v>
+      </c>
+      <c r="AD6">
+        <v>1.9790988052444239E-2</v>
+      </c>
+      <c r="AE6">
+        <v>2.0703244556360963E-2</v>
+      </c>
+      <c r="AF6">
+        <v>2.1347372713085268E-2</v>
+      </c>
+      <c r="AG6">
+        <v>2.1912421203827647E-2</v>
+      </c>
+      <c r="AH6">
+        <v>2.2055062678986357E-2</v>
+      </c>
+      <c r="AI6">
+        <v>2.2262470444689049E-2</v>
+      </c>
+      <c r="AJ6">
+        <v>2.5817969795165381E-2</v>
+      </c>
+      <c r="AK6">
+        <v>1.4133138624583397E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4.2434304902650832E-3</v>
+      </c>
+      <c r="C7">
+        <v>5.386834414230551E-3</v>
+      </c>
+      <c r="D7">
+        <v>6.439414603137553E-3</v>
+      </c>
+      <c r="E7">
+        <v>7.2406848981328214E-3</v>
+      </c>
+      <c r="F7">
+        <v>7.8645181754308322E-3</v>
+      </c>
+      <c r="G7">
+        <v>8.1707332440723243E-3</v>
+      </c>
+      <c r="H7">
+        <v>8.4057879025985077E-3</v>
+      </c>
+      <c r="I7">
+        <v>8.6492611919100418E-3</v>
+      </c>
+      <c r="J7">
+        <v>1.2542900196742198E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.0857502287328369E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.1514554135427879E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.2212532392335954E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.2601402247747378E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.3104575913542223E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.3641180126816905E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.416899349506833E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.4742968350733082E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.5120093832464732E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.5900064293708167E-2</v>
+      </c>
+      <c r="U7">
+        <v>1.6861183041580626E-2</v>
+      </c>
+      <c r="V7">
+        <v>1.748249835687532E-2</v>
+      </c>
+      <c r="W7">
+        <v>1.7959680632487807E-2</v>
+      </c>
+      <c r="X7">
+        <v>1.809250724389725E-2</v>
+      </c>
+      <c r="Y7">
+        <v>1.8773905406847521E-2</v>
+      </c>
+      <c r="Z7">
+        <v>1.9759957434438709E-2</v>
+      </c>
+      <c r="AA7">
+        <v>1.9981308328765164E-2</v>
+      </c>
+      <c r="AB7">
+        <v>2.0434192190953868E-2</v>
+      </c>
+      <c r="AC7">
+        <v>2.077950753705942E-2</v>
+      </c>
+      <c r="AD7">
+        <v>2.168173483722036E-2</v>
+      </c>
+      <c r="AE7">
+        <v>2.2702141830148188E-2</v>
+      </c>
+      <c r="AF7">
+        <v>2.322106716182628E-2</v>
+      </c>
+      <c r="AG7">
+        <v>2.3485836897044844E-2</v>
+      </c>
+      <c r="AH7">
+        <v>2.389485084154468E-2</v>
+      </c>
+      <c r="AI7">
+        <v>2.4171947551423451E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>2.4727831597806133E-2</v>
+      </c>
+      <c r="AK7">
+        <v>1.5184355952198147E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3.6421523759779056E-3</v>
+      </c>
+      <c r="C8">
+        <v>5.0946253265555224E-3</v>
+      </c>
+      <c r="D8">
+        <v>6.5007390469545576E-3</v>
+      </c>
+      <c r="E8">
+        <v>7.5667353184472345E-3</v>
+      </c>
+      <c r="F8">
+        <v>8.042679614198734E-3</v>
+      </c>
+      <c r="G8">
+        <v>8.5021704447484862E-3</v>
+      </c>
+      <c r="H8">
+        <v>8.8149885727495936E-3</v>
+      </c>
+      <c r="I8">
+        <v>1.2283559093667719E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.2932904261001623E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.1623397316942723E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.2407796205641459E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.3101135149506865E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.3398995070146847E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.4146804280082798E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.4503471338223202E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.5137703000860524E-2</v>
+      </c>
+      <c r="R8">
+        <v>1.5833001900858169E-2</v>
+      </c>
+      <c r="S8">
+        <v>1.6476836545829373E-2</v>
+      </c>
+      <c r="T8">
+        <v>1.7074239647903808E-2</v>
+      </c>
+      <c r="U8">
+        <v>1.8037100110800008E-2</v>
+      </c>
+      <c r="V8">
+        <v>1.8373198213228303E-2</v>
+      </c>
+      <c r="W8">
+        <v>1.8864977901928769E-2</v>
+      </c>
+      <c r="X8">
+        <v>1.9920389961694047E-2</v>
+      </c>
+      <c r="Y8">
+        <v>2.0539467600328837E-2</v>
+      </c>
+      <c r="Z8">
+        <v>2.107159159698585E-2</v>
+      </c>
+      <c r="AA8">
+        <v>2.1489247984493313E-2</v>
+      </c>
+      <c r="AB8">
+        <v>2.1853554041558521E-2</v>
+      </c>
+      <c r="AC8">
+        <v>2.2236795523939062E-2</v>
+      </c>
+      <c r="AD8">
+        <v>2.3761497635603583E-2</v>
+      </c>
+      <c r="AE8">
+        <v>2.4274048263989313E-2</v>
+      </c>
+      <c r="AF8">
+        <v>2.4744838968325057E-2</v>
+      </c>
+      <c r="AG8">
+        <v>2.5068783318549889E-2</v>
+      </c>
+      <c r="AH8">
+        <v>2.5656423638040719E-2</v>
+      </c>
+      <c r="AI8">
+        <v>2.6499513893392605E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>2.6673570409334199E-2</v>
+      </c>
+      <c r="AK8">
+        <v>1.6276972769796543E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2.7392315380852777E-3</v>
+      </c>
+      <c r="C9">
+        <v>4.2974354035624236E-3</v>
+      </c>
+      <c r="D9">
+        <v>5.8268940681141653E-3</v>
+      </c>
+      <c r="E9">
+        <v>7.3103626594937434E-3</v>
+      </c>
+      <c r="F9">
+        <v>8.3451725614147806E-3</v>
+      </c>
+      <c r="G9">
+        <v>8.7946488299517848E-3</v>
+      </c>
+      <c r="H9">
+        <v>9.1580090777016541E-3</v>
+      </c>
+      <c r="I9">
+        <v>1.3128666995819526E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.1448306882844272E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.2015480742089746E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.2997993001076213E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.3515186973559513E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.4183221611827281E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.4690159337976754E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.5216721903666268E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.5863407486980105E-2</v>
+      </c>
+      <c r="R9">
+        <v>1.6645934059565791E-2</v>
+      </c>
+      <c r="S9">
+        <v>1.7431331663387624E-2</v>
+      </c>
+      <c r="T9">
+        <v>1.8489956360579526E-2</v>
+      </c>
+      <c r="U9">
+        <v>1.9014437655009622E-2</v>
+      </c>
+      <c r="V9">
+        <v>1.9740237957841991E-2</v>
+      </c>
+      <c r="W9">
+        <v>2.0212380475919816E-2</v>
+      </c>
+      <c r="X9">
+        <v>2.1110531857858057E-2</v>
+      </c>
+      <c r="Y9">
+        <v>2.177169752866695E-2</v>
+      </c>
+      <c r="Z9">
+        <v>2.241226560275492E-2</v>
+      </c>
+      <c r="AA9">
+        <v>2.2914669331785271E-2</v>
+      </c>
+      <c r="AB9">
+        <v>2.3202478007038327E-2</v>
+      </c>
+      <c r="AC9">
+        <v>2.4166679331375212E-2</v>
+      </c>
+      <c r="AD9">
+        <v>2.4536055880161604E-2</v>
+      </c>
+      <c r="AE9">
+        <v>2.5556446693771055E-2</v>
+      </c>
+      <c r="AF9">
+        <v>2.5932519317044826E-2</v>
+      </c>
+      <c r="AG9">
+        <v>2.6775705394906455E-2</v>
+      </c>
+      <c r="AH9">
+        <v>2.7315225592939269E-2</v>
+      </c>
+      <c r="AI9">
+        <v>2.7631688757435859E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>2.7390524933933947E-2</v>
+      </c>
+      <c r="AK9">
+        <v>1.6977138334519373E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1.7456891933289016E-3</v>
+      </c>
+      <c r="C10">
+        <v>3.2507136507998512E-3</v>
+      </c>
+      <c r="D10">
+        <v>5.1645666498282743E-3</v>
+      </c>
+      <c r="E10">
+        <v>6.6055559422258294E-3</v>
+      </c>
+      <c r="F10">
+        <v>7.7478416878398381E-3</v>
+      </c>
+      <c r="G10">
+        <v>9.0201418473029506E-3</v>
+      </c>
+      <c r="H10">
+        <v>9.4003548055473281E-3</v>
+      </c>
+      <c r="I10">
+        <v>9.6744970612670216E-3</v>
+      </c>
+      <c r="J10">
+        <v>1.1917566407375266E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.2315606994947083E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.3423858162260964E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.3613378021115908E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.4794974335658998E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.4983171577590012E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.5628353159830743E-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.6713240558757489E-2</v>
+      </c>
+      <c r="R10">
+        <v>1.7115231006485872E-2</v>
+      </c>
+      <c r="S10">
+        <v>1.8042292005689783E-2</v>
+      </c>
+      <c r="T10">
+        <v>1.9129217926735057E-2</v>
+      </c>
+      <c r="U10">
+        <v>1.9835536133305971E-2</v>
+      </c>
+      <c r="V10">
+        <v>2.0913317821868161E-2</v>
+      </c>
+      <c r="W10">
+        <v>2.1375269213128992E-2</v>
+      </c>
+      <c r="X10">
+        <v>2.2206113862001914E-2</v>
+      </c>
+      <c r="Y10">
+        <v>2.2617168691257478E-2</v>
+      </c>
+      <c r="Z10">
+        <v>2.327462798854648E-2</v>
+      </c>
+      <c r="AA10">
+        <v>2.3693363627450201E-2</v>
+      </c>
+      <c r="AB10">
+        <v>2.462264499895666E-2</v>
+      </c>
+      <c r="AC10">
+        <v>2.5267255481857508E-2</v>
+      </c>
+      <c r="AD10">
+        <v>2.5569044065347817E-2</v>
+      </c>
+      <c r="AE10">
+        <v>2.6986962788011697E-2</v>
+      </c>
+      <c r="AF10">
+        <v>2.7601306396842863E-2</v>
+      </c>
+      <c r="AG10">
+        <v>2.8107159991387479E-2</v>
+      </c>
+      <c r="AH10">
+        <v>2.8417756760149567E-2</v>
+      </c>
+      <c r="AI10">
+        <v>2.8780037961805938E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>2.8732535396568358E-2</v>
+      </c>
+      <c r="AK10">
+        <v>1.7425473327564767E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1.7543093616269919E-3</v>
+      </c>
+      <c r="C11">
+        <v>2.2271192305793525E-3</v>
+      </c>
+      <c r="D11">
+        <v>3.7836115880651015E-3</v>
+      </c>
+      <c r="E11">
+        <v>5.61833800307534E-3</v>
+      </c>
+      <c r="F11">
+        <v>7.1308884800046551E-3</v>
+      </c>
+      <c r="G11">
+        <v>8.3172244577755551E-3</v>
+      </c>
+      <c r="H11">
+        <v>9.5477128119728846E-3</v>
+      </c>
+      <c r="I11">
+        <v>9.9454078368276695E-3</v>
+      </c>
+      <c r="J11">
+        <v>1.1928670318851531E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.2682588046307376E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.3858084931216794E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.3715537541207874E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.4970816405252333E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.5239491673012921E-2</v>
+      </c>
+      <c r="P11">
+        <v>1.6100893994093837E-2</v>
+      </c>
+      <c r="Q11">
+        <v>1.7158723052054268E-2</v>
+      </c>
+      <c r="R11">
+        <v>1.7757492715926842E-2</v>
+      </c>
+      <c r="S11">
+        <v>1.8807111380232947E-2</v>
+      </c>
+      <c r="T11">
+        <v>1.9712129180620628E-2</v>
+      </c>
+      <c r="U11">
+        <v>2.0772546509660917E-2</v>
+      </c>
+      <c r="V11">
+        <v>2.1576933266199885E-2</v>
+      </c>
+      <c r="W11">
+        <v>2.2461103151684546E-2</v>
+      </c>
+      <c r="X11">
+        <v>2.2930660749016122E-2</v>
+      </c>
+      <c r="Y11">
+        <v>2.4977116668417218E-2</v>
+      </c>
+      <c r="Z11">
+        <v>2.5905654060315201E-2</v>
+      </c>
+      <c r="AA11">
+        <v>2.6386379529632534E-2</v>
+      </c>
+      <c r="AB11">
+        <v>2.6924611846156236E-2</v>
+      </c>
+      <c r="AC11">
+        <v>2.7780800158759507E-2</v>
+      </c>
+      <c r="AD11">
+        <v>2.6665567218074136E-2</v>
+      </c>
+      <c r="AE11">
+        <v>2.7871354540704177E-2</v>
+      </c>
+      <c r="AF11">
+        <v>2.8746512290148275E-2</v>
+      </c>
+      <c r="AG11">
+        <v>2.9221928202525768E-2</v>
+      </c>
+      <c r="AH11">
+        <v>2.9694672286575689E-2</v>
+      </c>
+      <c r="AI11">
+        <v>2.9945127272906994E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>3.1326379334574453E-2</v>
+      </c>
+      <c r="AK11">
+        <v>1.8145218645328854E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2.8428896695881331E-3</v>
+      </c>
+      <c r="C12">
+        <v>2.6030352486173781E-3</v>
+      </c>
+      <c r="D12">
+        <v>2.802199350041037E-3</v>
+      </c>
+      <c r="E12">
+        <v>4.5648290245905382E-3</v>
+      </c>
+      <c r="F12">
+        <v>6.1991298900411539E-3</v>
+      </c>
+      <c r="G12">
+        <v>7.8394808277313897E-3</v>
+      </c>
+      <c r="H12">
+        <v>8.986953140428168E-3</v>
+      </c>
+      <c r="I12">
+        <v>9.8596859348230835E-3</v>
+      </c>
+      <c r="J12">
+        <v>9.9842249111840708E-3</v>
+      </c>
+      <c r="K12">
+        <v>1.2409031561665253E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.3531122088650734E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.411362483564293E-2</v>
+      </c>
+      <c r="N12">
+        <v>1.4532121490778611E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.5303174333656088E-2</v>
+      </c>
+      <c r="P12">
+        <v>1.6017078540079659E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.7433572045155547E-2</v>
+      </c>
+      <c r="R12">
+        <v>1.8083093355967493E-2</v>
+      </c>
+      <c r="S12">
+        <v>1.9153660387264983E-2</v>
+      </c>
+      <c r="T12">
+        <v>2.0377311688925648E-2</v>
+      </c>
+      <c r="U12">
+        <v>2.1352745461112016E-2</v>
+      </c>
+      <c r="V12">
+        <v>2.3865692952673996E-2</v>
+      </c>
+      <c r="W12">
+        <v>2.4552414111232004E-2</v>
+      </c>
+      <c r="X12">
+        <v>2.4984556097628719E-2</v>
+      </c>
+      <c r="Y12">
+        <v>2.5724254357878468E-2</v>
+      </c>
+      <c r="Z12">
+        <v>2.6608167851767801E-2</v>
+      </c>
+      <c r="AA12">
+        <v>2.7118910564709584E-2</v>
+      </c>
+      <c r="AB12">
+        <v>2.8351086265583577E-2</v>
+      </c>
+      <c r="AC12">
+        <v>2.887699879764178E-2</v>
+      </c>
+      <c r="AD12">
+        <v>2.9544710734593905E-2</v>
+      </c>
+      <c r="AE12">
+        <v>2.8975416367390469E-2</v>
+      </c>
+      <c r="AF12">
+        <v>3.0016925657537115E-2</v>
+      </c>
+      <c r="AG12">
+        <v>3.0089474880471447E-2</v>
+      </c>
+      <c r="AH12">
+        <v>3.0418790680830168E-2</v>
+      </c>
+      <c r="AI12">
+        <v>3.1836536375668564E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>3.2133367060480804E-2</v>
+      </c>
+      <c r="AK12">
+        <v>1.8718822580417686E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>5.2975330552468523E-3</v>
+      </c>
+      <c r="C13">
+        <v>3.9457459720527565E-3</v>
+      </c>
+      <c r="D13">
+        <v>3.5917201012227538E-3</v>
+      </c>
+      <c r="E13">
+        <v>3.7062210137453642E-3</v>
+      </c>
+      <c r="F13">
+        <v>5.3837147147638284E-3</v>
+      </c>
+      <c r="G13">
+        <v>7.0386891007083842E-3</v>
+      </c>
+      <c r="H13">
+        <v>8.3999552593000057E-3</v>
+      </c>
+      <c r="I13">
+        <v>9.4398829639821841E-3</v>
+      </c>
+      <c r="J13">
+        <v>9.966402061260371E-3</v>
+      </c>
+      <c r="K13">
+        <v>9.8397295828014271E-3</v>
+      </c>
+      <c r="L13">
+        <v>1.2772878396103915E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.4218739767573615E-2</v>
+      </c>
+      <c r="N13">
+        <v>1.4277872776802517E-2</v>
+      </c>
+      <c r="O13">
+        <v>1.5226885425898872E-2</v>
+      </c>
+      <c r="P13">
+        <v>1.611447063060964E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1.7322059199380877E-2</v>
+      </c>
+      <c r="R13">
+        <v>1.8201425070707513E-2</v>
+      </c>
+      <c r="S13">
+        <v>1.9608392907016117E-2</v>
+      </c>
+      <c r="T13">
+        <v>2.2003176784146535E-2</v>
+      </c>
+      <c r="U13">
+        <v>2.3291002015920891E-2</v>
+      </c>
+      <c r="V13">
+        <v>2.4163453568037809E-2</v>
+      </c>
+      <c r="W13">
+        <v>2.4827218516184961E-2</v>
+      </c>
+      <c r="X13">
+        <v>2.5491692473001763E-2</v>
+      </c>
+      <c r="Y13">
+        <v>2.6154977353145783E-2</v>
+      </c>
+      <c r="Z13">
+        <v>2.7203402473632739E-2</v>
+      </c>
+      <c r="AA13">
+        <v>2.7733139487020407E-2</v>
+      </c>
+      <c r="AB13">
+        <v>2.9229958898553867E-2</v>
+      </c>
+      <c r="AC13">
+        <v>2.9359291146147368E-2</v>
+      </c>
+      <c r="AD13">
+        <v>3.0191282564302698E-2</v>
+      </c>
+      <c r="AE13">
+        <v>3.1926275547230057E-2</v>
+      </c>
+      <c r="AF13">
+        <v>3.0678178305499983E-2</v>
+      </c>
+      <c r="AG13">
+        <v>3.0922892354928379E-2</v>
+      </c>
+      <c r="AH13">
+        <v>3.2081100676332339E-2</v>
+      </c>
+      <c r="AI13">
+        <v>2.5525822091311347E-2</v>
+      </c>
+      <c r="AJ13">
+        <v>2.6176606136374812E-2</v>
+      </c>
+      <c r="AK13">
+        <v>1.8871005828318091E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>6.9720050125297063E-3</v>
+      </c>
+      <c r="C14">
+        <v>5.8578977221638608E-3</v>
+      </c>
+      <c r="D14">
+        <v>5.2097263468685543E-3</v>
+      </c>
+      <c r="E14">
+        <v>4.7605129954027816E-3</v>
+      </c>
+      <c r="F14">
+        <v>5.019804514157949E-3</v>
+      </c>
+      <c r="G14">
+        <v>6.4239893319609801E-3</v>
+      </c>
+      <c r="H14">
+        <v>7.6130747025696414E-3</v>
+      </c>
+      <c r="I14">
+        <v>8.9551094011972743E-3</v>
+      </c>
+      <c r="J14">
+        <v>9.7437144311669222E-3</v>
+      </c>
+      <c r="K14">
+        <v>1.0234267646337E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.0463913092948779E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.3627828244679979E-2</v>
+      </c>
+      <c r="N14">
+        <v>1.4533627137038785E-2</v>
+      </c>
+      <c r="O14">
+        <v>1.5742076816411033E-2</v>
+      </c>
+      <c r="P14">
+        <v>1.5962626469635727E-2</v>
+      </c>
+      <c r="Q14">
+        <v>1.7273612979421274E-2</v>
+      </c>
+      <c r="R14">
+        <v>1.9431954185846329E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.0926293698190424E-2</v>
+      </c>
+      <c r="T14">
+        <v>2.2070594095261496E-2</v>
+      </c>
+      <c r="U14">
+        <v>2.3438855710212231E-2</v>
+      </c>
+      <c r="V14">
+        <v>2.4182723210952672E-2</v>
+      </c>
+      <c r="W14">
+        <v>2.5087885825690586E-2</v>
+      </c>
+      <c r="X14">
+        <v>2.5889801390200667E-2</v>
+      </c>
+      <c r="Y14">
+        <v>2.6321563039675762E-2</v>
+      </c>
+      <c r="Z14">
+        <v>2.7705215319088549E-2</v>
+      </c>
+      <c r="AA14">
+        <v>2.8440218388192259E-2</v>
+      </c>
+      <c r="AB14">
+        <v>2.9836888877464437E-2</v>
+      </c>
+      <c r="AC14">
+        <v>3.0201360991531704E-2</v>
+      </c>
+      <c r="AD14">
+        <v>3.1252006292897316E-2</v>
+      </c>
+      <c r="AE14">
+        <v>3.2713174467260887E-2</v>
+      </c>
+      <c r="AF14">
+        <v>3.3362104573791455E-2</v>
+      </c>
+      <c r="AG14">
+        <v>2.5417968017246596E-2</v>
+      </c>
+      <c r="AH14">
+        <v>2.5726739314243643E-2</v>
+      </c>
+      <c r="AI14">
+        <v>2.6185855534463967E-2</v>
+      </c>
+      <c r="AJ14">
+        <v>2.6815512444586662E-2</v>
+      </c>
+      <c r="AK14">
+        <v>1.9075963530634402E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3.6633159304256756E-3</v>
+      </c>
+      <c r="C15">
+        <v>4.2516165497850393E-3</v>
+      </c>
+      <c r="D15">
+        <v>5.138363939892223E-3</v>
+      </c>
+      <c r="E15">
+        <v>6.1207479154024415E-3</v>
+      </c>
+      <c r="F15">
+        <v>6.9939699648409147E-3</v>
+      </c>
+      <c r="G15">
+        <v>7.8744964879780971E-3</v>
+      </c>
+      <c r="H15">
+        <v>8.5298689754803297E-3</v>
+      </c>
+      <c r="I15">
+        <v>9.7144011464203352E-3</v>
+      </c>
+      <c r="J15">
+        <v>1.0624669894398907E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.1151826484726389E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.2443122568764975E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.3046294434747115E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.375263789218526E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.4089766686370898E-2</v>
+      </c>
+      <c r="P15">
+        <v>1.4655192961106739E-2</v>
+      </c>
+      <c r="Q15">
+        <v>1.5600355346697918E-2</v>
+      </c>
+      <c r="R15">
+        <v>1.6352529401305962E-2</v>
+      </c>
+      <c r="S15">
+        <v>1.7108242096363441E-2</v>
+      </c>
+      <c r="T15">
+        <v>1.8111408928430557E-2</v>
+      </c>
+      <c r="U15">
+        <v>1.9093285500137266E-2</v>
+      </c>
+      <c r="V15">
+        <v>2.0020287264786992E-2</v>
+      </c>
+      <c r="W15">
+        <v>2.0579529745096033E-2</v>
+      </c>
+      <c r="X15">
+        <v>2.1207165418207795E-2</v>
+      </c>
+      <c r="Y15">
+        <v>2.19049159026426E-2</v>
+      </c>
+      <c r="Z15">
+        <v>2.2729150749447948E-2</v>
+      </c>
+      <c r="AA15">
+        <v>2.3172377752966419E-2</v>
+      </c>
+      <c r="AB15">
+        <v>2.3937002028473459E-2</v>
+      </c>
+      <c r="AC15">
+        <v>2.4387678271053093E-2</v>
+      </c>
+      <c r="AD15">
+        <v>2.499889645495678E-2</v>
+      </c>
+      <c r="AE15">
+        <v>2.5852386825927696E-2</v>
+      </c>
+      <c r="AF15">
+        <v>2.6348488722891604E-2</v>
+      </c>
+      <c r="AG15">
+        <v>2.597257628839196E-2</v>
+      </c>
+      <c r="AH15">
+        <v>2.6781663554460166E-2</v>
+      </c>
+      <c r="AI15">
+        <v>2.6572548931081904E-2</v>
+      </c>
+      <c r="AJ15">
+        <v>2.732927128084418E-2</v>
+      </c>
+      <c r="AK15">
+        <v>1.6720399662382639E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>3.3362104573791455E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1">
+        <v>32</v>
+      </c>
+      <c r="T4" s="1">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1">
+        <v>34</v>
+      </c>
+      <c r="V4" s="1">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>47</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5.8764395488135734E-3</v>
+      </c>
+      <c r="C5">
+        <v>5.9789540950131569E-3</v>
+      </c>
+      <c r="D5">
+        <v>6.442022144948943E-3</v>
+      </c>
+      <c r="E5">
+        <v>6.8309707562786287E-3</v>
+      </c>
+      <c r="F5">
+        <v>7.2538549100744669E-3</v>
+      </c>
+      <c r="G5">
+        <v>7.7343948753888286E-3</v>
+      </c>
+      <c r="H5">
+        <v>8.0501864298516308E-3</v>
+      </c>
+      <c r="I5">
+        <v>8.3593382388996648E-3</v>
+      </c>
+      <c r="J5">
+        <v>8.6687031433690543E-3</v>
+      </c>
+      <c r="K5">
+        <v>9.0562582238699046E-3</v>
+      </c>
+      <c r="L5">
+        <v>9.4036769582138188E-3</v>
+      </c>
+      <c r="M5">
+        <v>9.7264496452196189E-3</v>
+      </c>
+      <c r="N5">
+        <v>1.0261661905624884E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.0723642251354396E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.114904268328621E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.1587899590402823E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.1694364771281839E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.201637087234244E-2</v>
+      </c>
+      <c r="T5">
+        <v>1.2409301230191608E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.3035138129112358E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.3512754716430228E-2</v>
+      </c>
+      <c r="W5">
+        <v>1.3746552334701794E-2</v>
+      </c>
+      <c r="X5">
+        <v>1.4353902012591726E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.4393525927478314E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1.5193942608065563E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.5163198460612655E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.5531959455471886E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.5782882927719167E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.6016340570446246E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.6188067952852644E-2</v>
+      </c>
+      <c r="AF5">
+        <v>1.6884595688640057E-2</v>
+      </c>
+      <c r="AG5">
+        <v>1.695488944049002E-2</v>
+      </c>
+      <c r="AH5">
+        <v>1.717247475313859E-2</v>
+      </c>
+      <c r="AI5">
+        <v>1.7496971781906727E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.7565512358226395E-2</v>
+      </c>
+      <c r="AK5">
+        <v>1.1795465948457783E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7.5673086887345486E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.9606035226517519E-3</v>
+      </c>
+      <c r="D6">
+        <v>8.2941212459062778E-3</v>
+      </c>
+      <c r="E6">
+        <v>8.7895652426517607E-3</v>
+      </c>
+      <c r="F6">
+        <v>9.1828798444334118E-3</v>
+      </c>
+      <c r="G6">
+        <v>9.6292763402301643E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.0046288710632041E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.0570049198485629E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.1161746240707258E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.1702423764711695E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.2232166423089601E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.2721392373951517E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.3241446626937296E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.35118899257627E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.3902789801623603E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.454660377965864E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.4738641893090739E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.5178305362309128E-2</v>
+      </c>
+      <c r="T6">
+        <v>1.5425402486060629E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.5968565374070678E-2</v>
+      </c>
+      <c r="V6">
+        <v>1.5981373319613301E-2</v>
+      </c>
+      <c r="W6">
+        <v>1.6318481041877046E-2</v>
+      </c>
+      <c r="X6">
+        <v>1.6955780930579804E-2</v>
+      </c>
+      <c r="Y6">
+        <v>1.7199165449378169E-2</v>
+      </c>
+      <c r="Z6">
+        <v>1.7527160608703303E-2</v>
+      </c>
+      <c r="AA6">
+        <v>1.75734794372026E-2</v>
+      </c>
+      <c r="AB6">
+        <v>1.805671752066176E-2</v>
+      </c>
+      <c r="AC6">
+        <v>1.832605442268722E-2</v>
+      </c>
+      <c r="AD6">
+        <v>1.8488149530961583E-2</v>
+      </c>
+      <c r="AE6">
+        <v>1.913269152389464E-2</v>
+      </c>
+      <c r="AF6">
+        <v>1.9599578879625556E-2</v>
+      </c>
+      <c r="AG6">
+        <v>1.9924168721801909E-2</v>
+      </c>
+      <c r="AH6">
+        <v>2.0165993632629199E-2</v>
+      </c>
+      <c r="AI6">
+        <v>2.0094338688478791E-2</v>
+      </c>
+      <c r="AJ6">
+        <v>2.0609818405879516E-2</v>
+      </c>
+      <c r="AK6">
+        <v>1.4333449853159281E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9.5858801550377428E-3</v>
+      </c>
+      <c r="C7">
+        <v>9.9669795556260373E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.0384226534056488E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.0953063250008905E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.1430246565152367E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.1912780085681111E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.2692410214223461E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.3245733640030375E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.3859206818095722E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.4284602928692476E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.5012846595321917E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.5410874479565758E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.6064021345775968E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.6204565425723606E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.6675094707383254E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.7163583811586412E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.7358160849141713E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.7609213332985284E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.7980394682818892E-2</v>
+      </c>
+      <c r="U7">
+        <v>1.8487453761362863E-2</v>
+      </c>
+      <c r="V7">
+        <v>1.8645501131891347E-2</v>
+      </c>
+      <c r="W7">
+        <v>1.8878554865613458E-2</v>
+      </c>
+      <c r="X7">
+        <v>1.9274225712995044E-2</v>
+      </c>
+      <c r="Y7">
+        <v>1.9460696445305035E-2</v>
+      </c>
+      <c r="Z7">
+        <v>2.0219832311873978E-2</v>
+      </c>
+      <c r="AA7">
+        <v>2.0399930836521925E-2</v>
+      </c>
+      <c r="AB7">
+        <v>2.0678041180941471E-2</v>
+      </c>
+      <c r="AC7">
+        <v>2.0893089408958117E-2</v>
+      </c>
+      <c r="AD7">
+        <v>2.1382176888156561E-2</v>
+      </c>
+      <c r="AE7">
+        <v>2.1806774205653474E-2</v>
+      </c>
+      <c r="AF7">
+        <v>2.2347398418351511E-2</v>
+      </c>
+      <c r="AG7">
+        <v>2.2654711452996239E-2</v>
+      </c>
+      <c r="AH7">
+        <v>2.3224013967653365E-2</v>
+      </c>
+      <c r="AI7">
+        <v>2.3232838703637571E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>2.3089679090115774E-2</v>
+      </c>
+      <c r="AK7">
+        <v>1.6882706559260739E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.1786268238034898E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.2080584383486E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.2521388071678191E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.3220307474028352E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.3938074096688657E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.4765767505080216E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.5449230374187229E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.5971319822977448E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.6649284546757522E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.7171536229556878E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.7485498952314615E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.7814741956785667E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.8346793501178429E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.8691799034784688E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.8984354755438727E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.9439909485045717E-2</v>
+      </c>
+      <c r="R8">
+        <v>1.9680949443964008E-2</v>
+      </c>
+      <c r="S8">
+        <v>1.9730301433823302E-2</v>
+      </c>
+      <c r="T8">
+        <v>1.9873300316164525E-2</v>
+      </c>
+      <c r="U8">
+        <v>2.0574959773079673E-2</v>
+      </c>
+      <c r="V8">
+        <v>2.0656343212661243E-2</v>
+      </c>
+      <c r="W8">
+        <v>2.0997851410835811E-2</v>
+      </c>
+      <c r="X8">
+        <v>2.1586767554233832E-2</v>
+      </c>
+      <c r="Y8">
+        <v>2.189360364448055E-2</v>
+      </c>
+      <c r="Z8">
+        <v>2.2953128133642774E-2</v>
+      </c>
+      <c r="AA8">
+        <v>2.2857083384161911E-2</v>
+      </c>
+      <c r="AB8">
+        <v>2.3194085996909565E-2</v>
+      </c>
+      <c r="AC8">
+        <v>2.3637865798004195E-2</v>
+      </c>
+      <c r="AD8">
+        <v>2.3950402526123574E-2</v>
+      </c>
+      <c r="AE8">
+        <v>2.4388653334967075E-2</v>
+      </c>
+      <c r="AF8">
+        <v>2.513164313610123E-2</v>
+      </c>
+      <c r="AG8">
+        <v>2.539813514987144E-2</v>
+      </c>
+      <c r="AH8">
+        <v>2.5394298409884629E-2</v>
+      </c>
+      <c r="AI8">
+        <v>2.5611292945872454E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>2.5681236358228148E-2</v>
+      </c>
+      <c r="AK8">
+        <v>1.9293924295184985E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1.4009895604327197E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.4531238454772407E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.5268680673761061E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.5735557197583107E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.6526336907413432E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.7462212245032881E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.8140158379622243E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.8573442251032378E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.9073144225101677E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.9389120010129199E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.984295191587938E-2</v>
+      </c>
+      <c r="M9">
+        <v>2.0251107604651288E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.0778969184923925E-2</v>
+      </c>
+      <c r="O9">
+        <v>2.0794329223281269E-2</v>
+      </c>
+      <c r="P9">
+        <v>2.1183965878648549E-2</v>
+      </c>
+      <c r="Q9">
+        <v>2.1505510347201082E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.1524618525538577E-2</v>
+      </c>
+      <c r="S9">
+        <v>2.1733982953999486E-2</v>
+      </c>
+      <c r="T9">
+        <v>2.2013366149497667E-2</v>
+      </c>
+      <c r="U9">
+        <v>2.2668777122155547E-2</v>
+      </c>
+      <c r="V9">
+        <v>2.2904627537829982E-2</v>
+      </c>
+      <c r="W9">
+        <v>2.3534669895340428E-2</v>
+      </c>
+      <c r="X9">
+        <v>2.4202080332997089E-2</v>
+      </c>
+      <c r="Y9">
+        <v>2.4322044227814019E-2</v>
+      </c>
+      <c r="Z9">
+        <v>2.5379708618717561E-2</v>
+      </c>
+      <c r="AA9">
+        <v>2.5708320533119333E-2</v>
+      </c>
+      <c r="AB9">
+        <v>2.612736696254702E-2</v>
+      </c>
+      <c r="AC9">
+        <v>2.6341096684130604E-2</v>
+      </c>
+      <c r="AD9">
+        <v>2.6326570526490616E-2</v>
+      </c>
+      <c r="AE9">
+        <v>2.6734739799191141E-2</v>
+      </c>
+      <c r="AF9">
+        <v>2.71101993446346E-2</v>
+      </c>
+      <c r="AG9">
+        <v>2.7217922675570556E-2</v>
+      </c>
+      <c r="AH9">
+        <v>2.6928065975579108E-2</v>
+      </c>
+      <c r="AI9">
+        <v>2.6851471888210895E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>2.7147206195183893E-2</v>
+      </c>
+      <c r="AK9">
+        <v>2.1579942752738966E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1.6581035617945473E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.6927829498022351E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.7596147847231177E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.8047995882727791E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.870108041097544E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.9451278968997929E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.0142049120687757E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.0607766108682611E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.1244013529883234E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.1651128962427008E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.2053798000557744E-2</v>
+      </c>
+      <c r="M10">
+        <v>2.2524070636076768E-2</v>
+      </c>
+      <c r="N10">
+        <v>2.2736641811778591E-2</v>
+      </c>
+      <c r="O10">
+        <v>2.2798217938434524E-2</v>
+      </c>
+      <c r="P10">
+        <v>2.320721771017694E-2</v>
+      </c>
+      <c r="Q10">
+        <v>2.3650443665803638E-2</v>
+      </c>
+      <c r="R10">
+        <v>2.3431358554042069E-2</v>
+      </c>
+      <c r="S10">
+        <v>2.3660904836411943E-2</v>
+      </c>
+      <c r="T10">
+        <v>2.4209246769234867E-2</v>
+      </c>
+      <c r="U10">
+        <v>2.5034352158565101E-2</v>
+      </c>
+      <c r="V10">
+        <v>2.512402849512866E-2</v>
+      </c>
+      <c r="W10">
+        <v>2.5430592529516263E-2</v>
+      </c>
+      <c r="X10">
+        <v>2.6008652774237005E-2</v>
+      </c>
+      <c r="Y10">
+        <v>2.6529016459767362E-2</v>
+      </c>
+      <c r="Z10">
+        <v>2.7595692194831611E-2</v>
+      </c>
+      <c r="AA10">
+        <v>2.7364617401876873E-2</v>
+      </c>
+      <c r="AB10">
+        <v>2.7452700459614808E-2</v>
+      </c>
+      <c r="AC10">
+        <v>2.7642488910273703E-2</v>
+      </c>
+      <c r="AD10">
+        <v>2.7451602761389221E-2</v>
+      </c>
+      <c r="AE10">
+        <v>2.7818401435890393E-2</v>
+      </c>
+      <c r="AF10">
+        <v>2.8396715723358317E-2</v>
+      </c>
+      <c r="AG10">
+        <v>2.8308579065529631E-2</v>
+      </c>
+      <c r="AH10">
+        <v>2.8636829932851129E-2</v>
+      </c>
+      <c r="AI10">
+        <v>2.8200925562420671E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>2.8313551125886609E-2</v>
+      </c>
+      <c r="AK10">
+        <v>2.3489213911644779E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1.8787890072061959E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.9376412479659155E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.9641326409217164E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.0249954934594465E-2</v>
+      </c>
+      <c r="F11">
+        <v>2.0955388178875455E-2</v>
+      </c>
+      <c r="G11">
+        <v>2.1730133503377675E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.2388164301183747E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.2845098522810504E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.3340859992089368E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.3770973452144954E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.4134800981891549E-2</v>
+      </c>
+      <c r="M11">
+        <v>2.4428148737785396E-2</v>
+      </c>
+      <c r="N11">
+        <v>2.475262307083995E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.4882705289839387E-2</v>
+      </c>
+      <c r="P11">
+        <v>2.5019040687896746E-2</v>
+      </c>
+      <c r="Q11">
+        <v>2.5566766787079153E-2</v>
+      </c>
+      <c r="R11">
+        <v>2.5261895150667547E-2</v>
+      </c>
+      <c r="S11">
+        <v>2.5899715774341449E-2</v>
+      </c>
+      <c r="T11">
+        <v>2.6475864120240021E-2</v>
+      </c>
+      <c r="U11">
+        <v>2.7252532856670456E-2</v>
+      </c>
+      <c r="V11">
+        <v>2.7215243993026366E-2</v>
+      </c>
+      <c r="W11">
+        <v>2.7161348838410506E-2</v>
+      </c>
+      <c r="X11">
+        <v>2.7884331884125854E-2</v>
+      </c>
+      <c r="Y11">
+        <v>2.8152839770837129E-2</v>
+      </c>
+      <c r="Z11">
+        <v>2.8609182921764762E-2</v>
+      </c>
+      <c r="AA11">
+        <v>2.8500633410950969E-2</v>
+      </c>
+      <c r="AB11">
+        <v>2.8350607296704029E-2</v>
+      </c>
+      <c r="AC11">
+        <v>2.8432540248136164E-2</v>
+      </c>
+      <c r="AD11">
+        <v>2.855866802954651E-2</v>
+      </c>
+      <c r="AE11">
+        <v>2.8621555523004254E-2</v>
+      </c>
+      <c r="AF11">
+        <v>2.9002638209828312E-2</v>
+      </c>
+      <c r="AG11">
+        <v>2.9167683871800149E-2</v>
+      </c>
+      <c r="AH11">
+        <v>2.8997931058152137E-2</v>
+      </c>
+      <c r="AI11">
+        <v>2.8824091069014898E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>2.7603364588037187E-2</v>
+      </c>
+      <c r="AK11">
+        <v>2.5147723737484848E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2.1198587889492543E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.1488028124347369E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.2087768936263713E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.2651170035213709E-2</v>
+      </c>
+      <c r="F12">
+        <v>2.3409354153988791E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.3867176205173261E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.456281886938369E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.5110296073186513E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.5334965453244662E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.571386379314931E-2</v>
+      </c>
+      <c r="L12">
+        <v>2.5919271644794222E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.6280325501660616E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.6697408131170938E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.6694993059513037E-2</v>
+      </c>
+      <c r="P12">
+        <v>2.7167644929675848E-2</v>
+      </c>
+      <c r="Q12">
+        <v>2.7539105495532148E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.7619300245948934E-2</v>
+      </c>
+      <c r="S12">
+        <v>2.8205754853747756E-2</v>
+      </c>
+      <c r="T12">
+        <v>2.8209625699870663E-2</v>
+      </c>
+      <c r="U12">
+        <v>2.8999157295160897E-2</v>
+      </c>
+      <c r="V12">
+        <v>2.8782976373775651E-2</v>
+      </c>
+      <c r="W12">
+        <v>2.8032363941592732E-2</v>
+      </c>
+      <c r="X12">
+        <v>2.8558903104085501E-2</v>
+      </c>
+      <c r="Y12">
+        <v>2.8441574183979201E-2</v>
+      </c>
+      <c r="Z12">
+        <v>2.9434285543506966E-2</v>
+      </c>
+      <c r="AA12">
+        <v>2.9376103555587136E-2</v>
+      </c>
+      <c r="AB12">
+        <v>2.9573947209029484E-2</v>
+      </c>
+      <c r="AC12">
+        <v>2.9097133241564783E-2</v>
+      </c>
+      <c r="AD12">
+        <v>2.9628731278748675E-2</v>
+      </c>
+      <c r="AE12">
+        <v>2.9344037496884776E-2</v>
+      </c>
+      <c r="AF12">
+        <v>2.9036282177103068E-2</v>
+      </c>
+      <c r="AG12">
+        <v>2.7900293232208766E-2</v>
+      </c>
+      <c r="AH12">
+        <v>2.8590080451364224E-2</v>
+      </c>
+      <c r="AI12">
+        <v>2.7716998275655488E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>2.7633513358308628E-2</v>
+      </c>
+      <c r="AK12">
+        <v>2.6591879743854421E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2.3063282817802372E-2</v>
+      </c>
+      <c r="C13">
+        <v>2.335157588863163E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.4016171020102159E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.4608985037443319E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.5176192836645624E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.5924823691271134E-2</v>
+      </c>
+      <c r="H13">
+        <v>2.6316650912166117E-2</v>
+      </c>
+      <c r="I13">
+        <v>2.6807218772708068E-2</v>
+      </c>
+      <c r="J13">
+        <v>2.7270291901652342E-2</v>
+      </c>
+      <c r="K13">
+        <v>2.7514649287573942E-2</v>
+      </c>
+      <c r="L13">
+        <v>2.7867103812808148E-2</v>
+      </c>
+      <c r="M13">
+        <v>2.803524050713891E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.8480415486121725E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.838104362022956E-2</v>
+      </c>
+      <c r="P13">
+        <v>2.9064822778308963E-2</v>
+      </c>
+      <c r="Q13">
+        <v>2.9522497679515165E-2</v>
+      </c>
+      <c r="R13">
+        <v>2.8971711504632441E-2</v>
+      </c>
+      <c r="S13">
+        <v>2.9305172067699375E-2</v>
+      </c>
+      <c r="T13">
+        <v>2.9611613608367917E-2</v>
+      </c>
+      <c r="U13">
+        <v>2.9612511235715792E-2</v>
+      </c>
+      <c r="V13">
+        <v>2.9167419827007501E-2</v>
+      </c>
+      <c r="W13">
+        <v>2.8854172953004076E-2</v>
+      </c>
+      <c r="X13">
+        <v>2.9311474806301131E-2</v>
+      </c>
+      <c r="Y13">
+        <v>2.9582045778483803E-2</v>
+      </c>
+      <c r="Z13">
+        <v>2.9764952141111349E-2</v>
+      </c>
+      <c r="AA13">
+        <v>2.8544387530906098E-2</v>
+      </c>
+      <c r="AB13">
+        <v>2.8667418085528199E-2</v>
+      </c>
+      <c r="AC13">
+        <v>2.8744744455146264E-2</v>
+      </c>
+      <c r="AD13">
+        <v>2.8056364860205001E-2</v>
+      </c>
+      <c r="AE13">
+        <v>2.8206953416053115E-2</v>
+      </c>
+      <c r="AF13">
+        <v>2.7647706387621217E-2</v>
+      </c>
+      <c r="AG13">
+        <v>2.6991972745985429E-2</v>
+      </c>
+      <c r="AH13">
+        <v>2.6288096801114668E-2</v>
+      </c>
+      <c r="AI13">
+        <v>2.5732204696839282E-2</v>
+      </c>
+      <c r="AJ13">
+        <v>2.5298075367403267E-2</v>
+      </c>
+      <c r="AK13">
+        <v>2.745684015280983E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2.4250929955226864E-2</v>
+      </c>
+      <c r="C14">
+        <v>2.4910858676821676E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.5628099505814014E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.6313858703580658E-2</v>
+      </c>
+      <c r="F14">
+        <v>2.655993170586125E-2</v>
+      </c>
+      <c r="G14">
+        <v>2.7239757055753069E-2</v>
+      </c>
+      <c r="H14">
+        <v>2.7885529509904489E-2</v>
+      </c>
+      <c r="I14">
+        <v>2.8417105254410963E-2</v>
+      </c>
+      <c r="J14">
+        <v>2.873999765050084E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.8758848034794043E-2</v>
+      </c>
+      <c r="L14">
+        <v>2.9412595770809333E-2</v>
+      </c>
+      <c r="M14">
+        <v>2.9738590510744008E-2</v>
+      </c>
+      <c r="N14">
+        <v>2.995217106932286E-2</v>
+      </c>
+      <c r="O14">
+        <v>3.025609008618128E-2</v>
+      </c>
+      <c r="P14">
+        <v>3.020081371956276E-2</v>
+      </c>
+      <c r="Q14">
+        <v>3.0407112555974825E-2</v>
+      </c>
+      <c r="R14">
+        <v>3.0216481600303692E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.9967879227421248E-2</v>
+      </c>
+      <c r="T14">
+        <v>2.9737988069709887E-2</v>
+      </c>
+      <c r="U14">
+        <v>3.0041191873789785E-2</v>
+      </c>
+      <c r="V14">
+        <v>2.9659808133059247E-2</v>
+      </c>
+      <c r="W14">
+        <v>2.9789712136505091E-2</v>
+      </c>
+      <c r="X14">
+        <v>2.9400332853851661E-2</v>
+      </c>
+      <c r="Y14">
+        <v>2.8943672085842857E-2</v>
+      </c>
+      <c r="Z14">
+        <v>2.977054225885194E-2</v>
+      </c>
+      <c r="AA14">
+        <v>2.8935112776631629E-2</v>
+      </c>
+      <c r="AB14">
+        <v>2.8227044147333947E-2</v>
+      </c>
+      <c r="AC14">
+        <v>2.7500617730756374E-2</v>
+      </c>
+      <c r="AD14">
+        <v>2.7205470975862511E-2</v>
+      </c>
+      <c r="AE14">
+        <v>2.604060311860229E-2</v>
+      </c>
+      <c r="AF14">
+        <v>2.5654657492103692E-2</v>
+      </c>
+      <c r="AG14">
+        <v>2.5197749835764564E-2</v>
+      </c>
+      <c r="AH14">
+        <v>2.4767559049710185E-2</v>
+      </c>
+      <c r="AI14">
+        <v>2.2888472998341181E-2</v>
+      </c>
+      <c r="AJ14">
+        <v>2.0769651427024794E-2</v>
+      </c>
+      <c r="AK14">
+        <v>2.8034196473117667E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1.4725444964793683E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.5092906405622657E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.5600292659410655E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.6150548111282227E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.671744962234856E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.7360975605694374E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.7951381515235919E-2</v>
+      </c>
+      <c r="I15">
+        <v>1.8438202959659044E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.8917871496209965E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.9295358477628338E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.97299169715957E-2</v>
+      </c>
+      <c r="M15">
+        <v>2.0086842674339311E-2</v>
+      </c>
+      <c r="N15">
+        <v>2.0516866214024567E-2</v>
+      </c>
+      <c r="O15">
+        <v>2.0675867390064336E-2</v>
+      </c>
+      <c r="P15">
+        <v>2.104013047009062E-2</v>
+      </c>
+      <c r="Q15">
+        <v>2.1467662834012049E-2</v>
+      </c>
+      <c r="R15">
+        <v>2.1433931546825331E-2</v>
+      </c>
+      <c r="S15">
+        <v>2.1709783002487493E-2</v>
+      </c>
+      <c r="T15">
+        <v>2.1964640114689571E-2</v>
+      </c>
+      <c r="U15">
+        <v>2.2534094221666041E-2</v>
+      </c>
+      <c r="V15">
+        <v>2.2537632505692927E-2</v>
+      </c>
+      <c r="W15">
+        <v>2.2639632978228557E-2</v>
+      </c>
+      <c r="X15">
+        <v>2.3121887323777037E-2</v>
+      </c>
+      <c r="Y15">
+        <v>2.3254203970411971E-2</v>
+      </c>
+      <c r="Z15">
+        <v>2.3979957670581448E-2</v>
+      </c>
+      <c r="AA15">
+        <v>2.3795340726049677E-2</v>
+      </c>
+      <c r="AB15">
+        <v>2.3944165760469257E-2</v>
+      </c>
+      <c r="AC15">
+        <v>2.4015065369824052E-2</v>
+      </c>
+      <c r="AD15">
+        <v>2.408050477228969E-2</v>
+      </c>
+      <c r="AE15">
+        <v>2.4238374103612684E-2</v>
+      </c>
+      <c r="AF15">
+        <v>2.4532565482035213E-2</v>
+      </c>
+      <c r="AG15">
+        <v>2.4467714920868279E-2</v>
+      </c>
+      <c r="AH15">
+        <v>2.4529877767588557E-2</v>
+      </c>
+      <c r="AI15">
+        <v>2.4272979827058963E-2</v>
+      </c>
+      <c r="AJ15">
+        <v>2.4103467149214009E-2</v>
+      </c>
+      <c r="AK15">
+        <v>2.0799864475169245E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>3.0407112555974825E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1">
+        <v>32</v>
+      </c>
+      <c r="T4" s="1">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1">
+        <v>34</v>
+      </c>
+      <c r="V4" s="1">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>47</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>6.645453921119762E-3</v>
+      </c>
+      <c r="C5">
+        <v>6.939046393908339E-3</v>
+      </c>
+      <c r="D5">
+        <v>7.0756380404834616E-3</v>
+      </c>
+      <c r="E5">
+        <v>7.4535861558492787E-3</v>
+      </c>
+      <c r="F5">
+        <v>7.3971460642146157E-3</v>
+      </c>
+      <c r="G5">
+        <v>8.0178115492950744E-3</v>
+      </c>
+      <c r="H5">
+        <v>8.522705589425323E-3</v>
+      </c>
+      <c r="I5">
+        <v>8.9881531525349452E-3</v>
+      </c>
+      <c r="J5">
+        <v>9.442613208771454E-3</v>
+      </c>
+      <c r="K5">
+        <v>9.9285663714684131E-3</v>
+      </c>
+      <c r="L5">
+        <v>1.033026761005339E-2</v>
+      </c>
+      <c r="M5">
+        <v>1.0905414416636448E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.1647380185160964E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.2012583262773604E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.287098672631631E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.3607376539635976E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.4048894541546279E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.4747539755965981E-2</v>
+      </c>
+      <c r="T5">
+        <v>1.5430901467122879E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.6124211990597721E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.6518728576642293E-2</v>
+      </c>
+      <c r="W5">
+        <v>1.6721821454369373E-2</v>
+      </c>
+      <c r="X5">
+        <v>1.7221244146769139E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.7424847598075131E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1.832965196259893E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.8385534129156222E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.8827239566825402E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.9291164778892273E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.9592356249208104E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.9854033367632917E-2</v>
+      </c>
+      <c r="AF5">
+        <v>2.0294936502291749E-2</v>
+      </c>
+      <c r="AG5">
+        <v>2.0778170293602783E-2</v>
+      </c>
+      <c r="AH5">
+        <v>2.1262401590263713E-2</v>
+      </c>
+      <c r="AI5">
+        <v>2.1575479562711788E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>2.1903634255684531E-2</v>
+      </c>
+      <c r="AK5">
+        <v>1.3831959478706029E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7.4084925829069163E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.9116868590854116E-3</v>
+      </c>
+      <c r="D6">
+        <v>7.9809249421255515E-3</v>
+      </c>
+      <c r="E6">
+        <v>8.2960388615602454E-3</v>
+      </c>
+      <c r="F6">
+        <v>8.5726848609020065E-3</v>
+      </c>
+      <c r="G6">
+        <v>9.3331361701196689E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.01403782658649E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.0494870412056295E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.0929154385943838E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.153489311517476E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.2191765952165114E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.291330067220724E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.3562412619328522E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.4306696054659677E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.5021028878200277E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.583859608354031E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.6321728979418058E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.7087173787586694E-2</v>
+      </c>
+      <c r="T6">
+        <v>1.7801508096633431E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.8323424664129621E-2</v>
+      </c>
+      <c r="V6">
+        <v>1.8790132219229625E-2</v>
+      </c>
+      <c r="W6">
+        <v>1.9049944460529197E-2</v>
+      </c>
+      <c r="X6">
+        <v>1.9865693583900546E-2</v>
+      </c>
+      <c r="Y6">
+        <v>2.0064310950222063E-2</v>
+      </c>
+      <c r="Z6">
+        <v>2.0673774991653036E-2</v>
+      </c>
+      <c r="AA6">
+        <v>2.0783039063213549E-2</v>
+      </c>
+      <c r="AB6">
+        <v>2.125484589004413E-2</v>
+      </c>
+      <c r="AC6">
+        <v>2.1499975168354151E-2</v>
+      </c>
+      <c r="AD6">
+        <v>2.1809117674945477E-2</v>
+      </c>
+      <c r="AE6">
+        <v>2.2415530531647656E-2</v>
+      </c>
+      <c r="AF6">
+        <v>2.3240464700281294E-2</v>
+      </c>
+      <c r="AG6">
+        <v>2.3527643577928151E-2</v>
+      </c>
+      <c r="AH6">
+        <v>2.4341319191447938E-2</v>
+      </c>
+      <c r="AI6">
+        <v>2.4426390964564601E-2</v>
+      </c>
+      <c r="AJ6">
+        <v>2.4576541531224495E-2</v>
+      </c>
+      <c r="AK6">
+        <v>1.5795533237991786E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8.2350215491849912E-3</v>
+      </c>
+      <c r="C7">
+        <v>8.7312381838032492E-3</v>
+      </c>
+      <c r="D7">
+        <v>8.8084406367012098E-3</v>
+      </c>
+      <c r="E7">
+        <v>9.206027149819742E-3</v>
+      </c>
+      <c r="F7">
+        <v>9.6123399303990574E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.0659472355303812E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.1362425083027438E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.1828835442226782E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.2615087661001756E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.321320019306879E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.3744542026314317E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.461523273661894E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.5377678417863496E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.6233474310184189E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.6975992086023437E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.7984795589154126E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.8478500716715189E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.9176617004793204E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.9717508188996046E-2</v>
+      </c>
+      <c r="U7">
+        <v>2.038435831753517E-2</v>
+      </c>
+      <c r="V7">
+        <v>2.090279885415423E-2</v>
+      </c>
+      <c r="W7">
+        <v>2.1391763598508588E-2</v>
+      </c>
+      <c r="X7">
+        <v>2.1933398542502112E-2</v>
+      </c>
+      <c r="Y7">
+        <v>2.2328224276032562E-2</v>
+      </c>
+      <c r="Z7">
+        <v>2.2831716846750241E-2</v>
+      </c>
+      <c r="AA7">
+        <v>2.3179573494851561E-2</v>
+      </c>
+      <c r="AB7">
+        <v>2.3560057807085241E-2</v>
+      </c>
+      <c r="AC7">
+        <v>2.3814675727268819E-2</v>
+      </c>
+      <c r="AD7">
+        <v>2.4138874971007286E-2</v>
+      </c>
+      <c r="AE7">
+        <v>2.5208870520877148E-2</v>
+      </c>
+      <c r="AF7">
+        <v>2.5935406624814722E-2</v>
+      </c>
+      <c r="AG7">
+        <v>2.6150577708602688E-2</v>
+      </c>
+      <c r="AH7">
+        <v>2.6773890473999629E-2</v>
+      </c>
+      <c r="AI7">
+        <v>2.6652574805795026E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>2.7363633772186587E-2</v>
+      </c>
+      <c r="AK7">
+        <v>1.7589827670460526E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8.8376751426438079E-3</v>
+      </c>
+      <c r="C8">
+        <v>9.5040161564348934E-3</v>
+      </c>
+      <c r="D8">
+        <v>9.584631695811946E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.0204058106315738E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.0959667491283817E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.1877158687330365E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.2652272457334187E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.3140530499239711E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.3821663574801515E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.448812479131628E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.5471950969627685E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.6149996948404684E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.693384939280607E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.7852713109047607E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.8813832180641397E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.9516466179028254E-2</v>
+      </c>
+      <c r="R8">
+        <v>2.0288128661183388E-2</v>
+      </c>
+      <c r="S8">
+        <v>2.083985599151526E-2</v>
+      </c>
+      <c r="T8">
+        <v>2.1633507996895653E-2</v>
+      </c>
+      <c r="U8">
+        <v>2.2353187742409589E-2</v>
+      </c>
+      <c r="V8">
+        <v>2.2694165991048718E-2</v>
+      </c>
+      <c r="W8">
+        <v>2.3099071554437491E-2</v>
+      </c>
+      <c r="X8">
+        <v>2.3624198075798696E-2</v>
+      </c>
+      <c r="Y8">
+        <v>2.39876425402266E-2</v>
+      </c>
+      <c r="Z8">
+        <v>2.4558962827990739E-2</v>
+      </c>
+      <c r="AA8">
+        <v>2.4784079057752036E-2</v>
+      </c>
+      <c r="AB8">
+        <v>2.5642473547201387E-2</v>
+      </c>
+      <c r="AC8">
+        <v>2.5937264556521386E-2</v>
+      </c>
+      <c r="AD8">
+        <v>2.6500428919776959E-2</v>
+      </c>
+      <c r="AE8">
+        <v>2.7108399140869308E-2</v>
+      </c>
+      <c r="AF8">
+        <v>2.7840148447498582E-2</v>
+      </c>
+      <c r="AG8">
+        <v>2.7970448437982905E-2</v>
+      </c>
+      <c r="AH8">
+        <v>2.8355831331445432E-2</v>
+      </c>
+      <c r="AI8">
+        <v>2.8988913878309274E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>2.8872421952637048E-2</v>
+      </c>
+      <c r="AK8">
+        <v>1.909829849492287E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>9.3773640259175398E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.008184277079056E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.0373855715455649E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.0923966612820525E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.16642135470002E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.2749953523703311E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.3414900929968587E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.4224672424054145E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.4883921458584927E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.5946389341713458E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.68254167550696E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.7392798536445833E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.8260824409117121E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.9247298833843129E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.9913652859636623E-2</v>
+      </c>
+      <c r="Q9">
+        <v>2.0795750160141523E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.1676723088020922E-2</v>
+      </c>
+      <c r="S9">
+        <v>2.2357941132546407E-2</v>
+      </c>
+      <c r="T9">
+        <v>2.2926755386577128E-2</v>
+      </c>
+      <c r="U9">
+        <v>2.3716050948743218E-2</v>
+      </c>
+      <c r="V9">
+        <v>2.4077154227586144E-2</v>
+      </c>
+      <c r="W9">
+        <v>2.4643424325035683E-2</v>
+      </c>
+      <c r="X9">
+        <v>2.5510134764065603E-2</v>
+      </c>
+      <c r="Y9">
+        <v>2.5694074489848617E-2</v>
+      </c>
+      <c r="Z9">
+        <v>2.6064063772145617E-2</v>
+      </c>
+      <c r="AA9">
+        <v>2.6655617864534957E-2</v>
+      </c>
+      <c r="AB9">
+        <v>2.7195823128881056E-2</v>
+      </c>
+      <c r="AC9">
+        <v>2.7620490524379943E-2</v>
+      </c>
+      <c r="AD9">
+        <v>2.8257644438303739E-2</v>
+      </c>
+      <c r="AE9">
+        <v>2.8492854214151028E-2</v>
+      </c>
+      <c r="AF9">
+        <v>2.9439310550364518E-2</v>
+      </c>
+      <c r="AG9">
+        <v>2.9733484696232111E-2</v>
+      </c>
+      <c r="AH9">
+        <v>3.0661987655521802E-2</v>
+      </c>
+      <c r="AI9">
+        <v>3.064889552494357E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>3.0786886565130431E-2</v>
+      </c>
+      <c r="AK9">
+        <v>2.0353301618658465E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>9.4448102120853732E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.0158993157747799E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.079475466635303E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.1465631582501848E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.2444249700409823E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.3633888452983804E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.4229098169194434E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.504196241070864E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.5921989256970734E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.6818603359422646E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.7833095835679786E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.8508419010908883E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.9555459825769148E-2</v>
+      </c>
+      <c r="O10">
+        <v>2.0220030660132702E-2</v>
+      </c>
+      <c r="P10">
+        <v>2.1163131792870056E-2</v>
+      </c>
+      <c r="Q10">
+        <v>2.2354518419037864E-2</v>
+      </c>
+      <c r="R10">
+        <v>2.2912402375366771E-2</v>
+      </c>
+      <c r="S10">
+        <v>2.3507415880909398E-2</v>
+      </c>
+      <c r="T10">
+        <v>2.4102975529015809E-2</v>
+      </c>
+      <c r="U10">
+        <v>2.4751012307181273E-2</v>
+      </c>
+      <c r="V10">
+        <v>2.5379014727422072E-2</v>
+      </c>
+      <c r="W10">
+        <v>2.6000006964565496E-2</v>
+      </c>
+      <c r="X10">
+        <v>2.6751126612451992E-2</v>
+      </c>
+      <c r="Y10">
+        <v>2.7169594564828849E-2</v>
+      </c>
+      <c r="Z10">
+        <v>2.7887306228542415E-2</v>
+      </c>
+      <c r="AA10">
+        <v>2.8243264793079672E-2</v>
+      </c>
+      <c r="AB10">
+        <v>2.867620729269995E-2</v>
+      </c>
+      <c r="AC10">
+        <v>2.9203080870268693E-2</v>
+      </c>
+      <c r="AD10">
+        <v>2.9380842016480779E-2</v>
+      </c>
+      <c r="AE10">
+        <v>3.0001599144514533E-2</v>
+      </c>
+      <c r="AF10">
+        <v>3.1020205646207166E-2</v>
+      </c>
+      <c r="AG10">
+        <v>3.1825729900916817E-2</v>
+      </c>
+      <c r="AH10">
+        <v>3.179400071390108E-2</v>
+      </c>
+      <c r="AI10">
+        <v>3.1163128398494482E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>3.1531705643664434E-2</v>
+      </c>
+      <c r="AK10">
+        <v>2.1343914075748389E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9.5184851818240056E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.0268251857634842E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.1016654103955028E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.1859545097355271E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.2919848531481736E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.4030390064622198E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.4775027704050538E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.5953070266590531E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.6683966232454463E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.7618725562828948E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.855816826619729E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.9716937123923129E-2</v>
+      </c>
+      <c r="N11">
+        <v>2.0290594792545805E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.1249475112902465E-2</v>
+      </c>
+      <c r="P11">
+        <v>2.2124827682913829E-2</v>
+      </c>
+      <c r="Q11">
+        <v>2.3249782104315414E-2</v>
+      </c>
+      <c r="R11">
+        <v>2.3769497206696577E-2</v>
+      </c>
+      <c r="S11">
+        <v>2.4269791290252977E-2</v>
+      </c>
+      <c r="T11">
+        <v>2.4763344808414325E-2</v>
+      </c>
+      <c r="U11">
+        <v>2.574797605691197E-2</v>
+      </c>
+      <c r="V11">
+        <v>2.6596900599732975E-2</v>
+      </c>
+      <c r="W11">
+        <v>2.7086348560910568E-2</v>
+      </c>
+      <c r="X11">
+        <v>2.7733318503043228E-2</v>
+      </c>
+      <c r="Y11">
+        <v>2.8215278100572262E-2</v>
+      </c>
+      <c r="Z11">
+        <v>2.9492967104314302E-2</v>
+      </c>
+      <c r="AA11">
+        <v>2.9592032277491482E-2</v>
+      </c>
+      <c r="AB11">
+        <v>2.9918641598057891E-2</v>
+      </c>
+      <c r="AC11">
+        <v>3.0610903846052088E-2</v>
+      </c>
+      <c r="AD11">
+        <v>3.0924679211154948E-2</v>
+      </c>
+      <c r="AE11">
+        <v>3.1060599752494658E-2</v>
+      </c>
+      <c r="AF11">
+        <v>3.1934429445129975E-2</v>
+      </c>
+      <c r="AG11">
+        <v>3.2391901814027582E-2</v>
+      </c>
+      <c r="AH11">
+        <v>3.2651893176652964E-2</v>
+      </c>
+      <c r="AI11">
+        <v>3.2418991450192808E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>3.2069933986105914E-2</v>
+      </c>
+      <c r="AK11">
+        <v>2.2095809349707118E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>9.2979843838606833E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.0299893342915891E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.1213553638782132E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.2179328361430814E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.3353139908517532E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.4488405903582285E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.5549038252330472E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.6551396158590213E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.7401409772061571E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.8395803110163356E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.9358169635330595E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.0553442447881706E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.1248188371683192E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.2175358065847372E-2</v>
+      </c>
+      <c r="P12">
+        <v>2.3086985248970803E-2</v>
+      </c>
+      <c r="Q12">
+        <v>2.4267827231965761E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.4378793440674156E-2</v>
+      </c>
+      <c r="S12">
+        <v>2.4978472520869766E-2</v>
+      </c>
+      <c r="T12">
+        <v>2.5787952427921382E-2</v>
+      </c>
+      <c r="U12">
+        <v>2.6994601148839278E-2</v>
+      </c>
+      <c r="V12">
+        <v>2.7448460659487448E-2</v>
+      </c>
+      <c r="W12">
+        <v>2.7756421610282581E-2</v>
+      </c>
+      <c r="X12">
+        <v>2.8674296280303945E-2</v>
+      </c>
+      <c r="Y12">
+        <v>2.9349071547462725E-2</v>
+      </c>
+      <c r="Z12">
+        <v>3.0626000662956628E-2</v>
+      </c>
+      <c r="AA12">
+        <v>3.0567450402050979E-2</v>
+      </c>
+      <c r="AB12">
+        <v>3.0934244850750834E-2</v>
+      </c>
+      <c r="AC12">
+        <v>3.1322199312814568E-2</v>
+      </c>
+      <c r="AD12">
+        <v>3.1345599736937249E-2</v>
+      </c>
+      <c r="AE12">
+        <v>3.1851623075174258E-2</v>
+      </c>
+      <c r="AF12">
+        <v>3.2742497194242021E-2</v>
+      </c>
+      <c r="AG12">
+        <v>3.2499976067954024E-2</v>
+      </c>
+      <c r="AH12">
+        <v>3.2395228510953111E-2</v>
+      </c>
+      <c r="AI12">
+        <v>3.195983575090712E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>3.0463308695798889E-2</v>
+      </c>
+      <c r="AK12">
+        <v>2.258782588132301E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>9.2088391462651509E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.016541775538031E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.1326353903140483E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.218044410005825E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.368786631996665E-2</v>
+      </c>
+      <c r="G13">
+        <v>1.469856137309085E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.5855075862306986E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.7222707693623839E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.8250695898825851E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.9101710936283264E-2</v>
+      </c>
+      <c r="L13">
+        <v>2.0062112329205274E-2</v>
+      </c>
+      <c r="M13">
+        <v>2.1011439670598962E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.2017167884181853E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.2535490547282915E-2</v>
+      </c>
+      <c r="P13">
+        <v>2.384201157958836E-2</v>
+      </c>
+      <c r="Q13">
+        <v>2.452929173997118E-2</v>
+      </c>
+      <c r="R13">
+        <v>2.5261572482427521E-2</v>
+      </c>
+      <c r="S13">
+        <v>2.5617795489413637E-2</v>
+      </c>
+      <c r="T13">
+        <v>2.6429528525149997E-2</v>
+      </c>
+      <c r="U13">
+        <v>2.7985475457768073E-2</v>
+      </c>
+      <c r="V13">
+        <v>2.8346767225052739E-2</v>
+      </c>
+      <c r="W13">
+        <v>2.8501718861572413E-2</v>
+      </c>
+      <c r="X13">
+        <v>2.9324514447998436E-2</v>
+      </c>
+      <c r="Y13">
+        <v>3.0035668111599263E-2</v>
+      </c>
+      <c r="Z13">
+        <v>3.1236542181468849E-2</v>
+      </c>
+      <c r="AA13">
+        <v>3.1184593368444834E-2</v>
+      </c>
+      <c r="AB13">
+        <v>3.1572225120653177E-2</v>
+      </c>
+      <c r="AC13">
+        <v>3.2133565203735927E-2</v>
+      </c>
+      <c r="AD13">
+        <v>3.2264551179455495E-2</v>
+      </c>
+      <c r="AE13">
+        <v>3.1542097631568199E-2</v>
+      </c>
+      <c r="AF13">
+        <v>3.2747118260121937E-2</v>
+      </c>
+      <c r="AG13">
+        <v>3.2853333221187782E-2</v>
+      </c>
+      <c r="AH13">
+        <v>3.2561427853888901E-2</v>
+      </c>
+      <c r="AI13">
+        <v>3.1198225799409968E-2</v>
+      </c>
+      <c r="AJ13">
+        <v>2.9364312914367356E-2</v>
+      </c>
+      <c r="AK13">
+        <v>2.2901468711992355E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>9.1509437514525373E-3</v>
+      </c>
+      <c r="C14">
+        <v>1.0109475466105321E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.1101325692860863E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.2367384082679803E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.3662809652131857E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.4956995393571825E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.6306664593386627E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.7635276218106656E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.8662837521733387E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.956154507182091E-2</v>
+      </c>
+      <c r="L14">
+        <v>2.0671348406527703E-2</v>
+      </c>
+      <c r="M14">
+        <v>2.1552364051754026E-2</v>
+      </c>
+      <c r="N14">
+        <v>2.2286337422013615E-2</v>
+      </c>
+      <c r="O14">
+        <v>2.3137769040860175E-2</v>
+      </c>
+      <c r="P14">
+        <v>2.4370934338493803E-2</v>
+      </c>
+      <c r="Q14">
+        <v>2.5199740376245495E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.5816191836090359E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.6565915413164085E-2</v>
+      </c>
+      <c r="T14">
+        <v>2.7400515953493795E-2</v>
+      </c>
+      <c r="U14">
+        <v>2.8593225279850219E-2</v>
+      </c>
+      <c r="V14">
+        <v>2.8899900686919326E-2</v>
+      </c>
+      <c r="W14">
+        <v>2.9104772291090489E-2</v>
+      </c>
+      <c r="X14">
+        <v>3.0138806157102786E-2</v>
+      </c>
+      <c r="Y14">
+        <v>3.0480446688829699E-2</v>
+      </c>
+      <c r="Z14">
+        <v>3.1718113641713334E-2</v>
+      </c>
+      <c r="AA14">
+        <v>3.2036302481117176E-2</v>
+      </c>
+      <c r="AB14">
+        <v>3.2170810047132015E-2</v>
+      </c>
+      <c r="AC14">
+        <v>3.2583683051234831E-2</v>
+      </c>
+      <c r="AD14">
+        <v>3.2180665112672799E-2</v>
+      </c>
+      <c r="AE14">
+        <v>3.2426517133780773E-2</v>
+      </c>
+      <c r="AF14">
+        <v>3.2834079362275552E-2</v>
+      </c>
+      <c r="AG14">
+        <v>3.1711394662406203E-2</v>
+      </c>
+      <c r="AH14">
+        <v>3.1797095123962116E-2</v>
+      </c>
+      <c r="AI14">
+        <v>2.9773951418814025E-2</v>
+      </c>
+      <c r="AJ14">
+        <v>2.8765156075085316E-2</v>
+      </c>
+      <c r="AK14">
+        <v>2.3089377854357065E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>8.6997966990235154E-3</v>
+      </c>
+      <c r="C15">
+        <v>9.3933444699197573E-3</v>
+      </c>
+      <c r="D15">
+        <v>9.8865310939837796E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.0560820922953894E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.1348052920523464E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.2357636228137285E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.318545312768205E-2</v>
+      </c>
+      <c r="I15">
+        <v>1.3993786813539744E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.4739772908997141E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.5528421011058635E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.6356560164534802E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.7169491055150761E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.7948874272686013E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.8714195853882815E-2</v>
+      </c>
+      <c r="P15">
+        <v>1.9622725448065266E-2</v>
+      </c>
+      <c r="Q15">
+        <v>2.0523973981292E-2</v>
+      </c>
+      <c r="R15">
+        <v>2.1083171158777777E-2</v>
+      </c>
+      <c r="S15">
+        <v>2.1699283375728622E-2</v>
+      </c>
+      <c r="T15">
+        <v>2.2377349374713511E-2</v>
+      </c>
+      <c r="U15">
+        <v>2.3255369317124002E-2</v>
+      </c>
+      <c r="V15">
+        <v>2.3703740392826567E-2</v>
+      </c>
+      <c r="W15">
+        <v>2.4057426119524158E-2</v>
+      </c>
+      <c r="X15">
+        <v>2.4778879190744976E-2</v>
+      </c>
+      <c r="Y15">
+        <v>2.5148445196695953E-2</v>
+      </c>
+      <c r="Z15">
+        <v>2.5991248485035257E-2</v>
+      </c>
+      <c r="AA15">
+        <v>2.6180737968992195E-2</v>
+      </c>
+      <c r="AB15">
+        <v>2.6607951898699925E-2</v>
+      </c>
+      <c r="AC15">
+        <v>2.7012912120621853E-2</v>
+      </c>
+      <c r="AD15">
+        <v>2.7243334168053687E-2</v>
+      </c>
+      <c r="AE15">
+        <v>2.7597944739860342E-2</v>
+      </c>
+      <c r="AF15">
+        <v>2.8369804197476155E-2</v>
+      </c>
+      <c r="AG15">
+        <v>2.849500913984861E-2</v>
+      </c>
+      <c r="AH15">
+        <v>2.8786148544071591E-2</v>
+      </c>
+      <c r="AI15">
+        <v>2.8470802182759092E-2</v>
+      </c>
+      <c r="AJ15">
+        <v>2.8229772595857339E-2</v>
+      </c>
+      <c r="AK15">
+        <v>1.9677043412628017E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>3.2853333221187782E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1">
+        <v>32</v>
+      </c>
+      <c r="T4" s="1">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1">
+        <v>34</v>
+      </c>
+      <c r="V4" s="1">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>47</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3.5774343845762883E-3</v>
+      </c>
+      <c r="C5">
+        <v>4.2129255545074072E-3</v>
+      </c>
+      <c r="D5">
+        <v>4.7067638045548456E-3</v>
+      </c>
+      <c r="E5">
+        <v>5.1453483136026908E-3</v>
+      </c>
+      <c r="F5">
+        <v>5.6544035916197572E-3</v>
+      </c>
+      <c r="G5">
+        <v>5.9900087965784991E-3</v>
+      </c>
+      <c r="H5">
+        <v>6.2143818374031708E-3</v>
+      </c>
+      <c r="I5">
+        <v>6.3482565225104707E-3</v>
+      </c>
+      <c r="J5">
+        <v>6.4291667231626652E-3</v>
+      </c>
+      <c r="K5">
+        <v>6.583519727115102E-3</v>
+      </c>
+      <c r="L5">
+        <v>6.8077233114179903E-3</v>
+      </c>
+      <c r="M5">
+        <v>6.7226795374560402E-3</v>
+      </c>
+      <c r="N5">
+        <v>7.0941748823209853E-3</v>
+      </c>
+      <c r="O5">
+        <v>7.3297133659775068E-3</v>
+      </c>
+      <c r="P5">
+        <v>7.6771076347005116E-3</v>
+      </c>
+      <c r="Q5">
+        <v>7.9540242390628811E-3</v>
+      </c>
+      <c r="R5">
+        <v>8.1765292187053248E-3</v>
+      </c>
+      <c r="S5">
+        <v>8.4543072810492545E-3</v>
+      </c>
+      <c r="T5">
+        <v>8.7835466897397234E-3</v>
+      </c>
+      <c r="U5">
+        <v>9.2017419414223787E-3</v>
+      </c>
+      <c r="V5">
+        <v>9.5970992167095821E-3</v>
+      </c>
+      <c r="W5">
+        <v>9.7867668884990735E-3</v>
+      </c>
+      <c r="X5">
+        <v>1.022116790015103E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.0760627031974539E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1.1472766221238852E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.1906722774043279E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.2233307737516833E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.2755426433824678E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.2983861460618976E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.346705415143778E-2</v>
+      </c>
+      <c r="AF5">
+        <v>1.3896102078077814E-2</v>
+      </c>
+      <c r="AG5">
+        <v>1.4271666932173428E-2</v>
+      </c>
+      <c r="AH5">
+        <v>1.458136469286982E-2</v>
+      </c>
+      <c r="AI5">
+        <v>1.4822663059029481E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.5179551777001556E-2</v>
+      </c>
+      <c r="AK5">
+        <v>8.9650328206472129E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4.6990846623256406E-3</v>
+      </c>
+      <c r="C6">
+        <v>5.2544979487213275E-3</v>
+      </c>
+      <c r="D6">
+        <v>5.7877704906239289E-3</v>
+      </c>
+      <c r="E6">
+        <v>6.2531103013786261E-3</v>
+      </c>
+      <c r="F6">
+        <v>6.7753937300346796E-3</v>
+      </c>
+      <c r="G6">
+        <v>7.1635147904446916E-3</v>
+      </c>
+      <c r="H6">
+        <v>7.3696445047093375E-3</v>
+      </c>
+      <c r="I6">
+        <v>7.4650721970093929E-3</v>
+      </c>
+      <c r="J6">
+        <v>7.447594041408611E-3</v>
+      </c>
+      <c r="K6">
+        <v>7.8048634405689776E-3</v>
+      </c>
+      <c r="L6">
+        <v>8.0067291247599443E-3</v>
+      </c>
+      <c r="M6">
+        <v>8.2353269652619149E-3</v>
+      </c>
+      <c r="N6">
+        <v>8.7153403913174925E-3</v>
+      </c>
+      <c r="O6">
+        <v>8.8994527111454242E-3</v>
+      </c>
+      <c r="P6">
+        <v>9.1826946932943732E-3</v>
+      </c>
+      <c r="Q6">
+        <v>9.66452529608758E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.0036784831853746E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.0266351474089058E-2</v>
+      </c>
+      <c r="T6">
+        <v>1.0753363547962613E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.1215969923848032E-2</v>
+      </c>
+      <c r="V6">
+        <v>1.1639879461625339E-2</v>
+      </c>
+      <c r="W6">
+        <v>1.2025322730167097E-2</v>
+      </c>
+      <c r="X6">
+        <v>1.2633549596208956E-2</v>
+      </c>
+      <c r="Y6">
+        <v>1.3141562735415674E-2</v>
+      </c>
+      <c r="Z6">
+        <v>1.3883070217567524E-2</v>
+      </c>
+      <c r="AA6">
+        <v>1.4243060935319815E-2</v>
+      </c>
+      <c r="AB6">
+        <v>1.4898244461391616E-2</v>
+      </c>
+      <c r="AC6">
+        <v>1.5241225918551704E-2</v>
+      </c>
+      <c r="AD6">
+        <v>1.551670217182281E-2</v>
+      </c>
+      <c r="AE6">
+        <v>1.5873216135183752E-2</v>
+      </c>
+      <c r="AF6">
+        <v>1.6306591824881752E-2</v>
+      </c>
+      <c r="AG6">
+        <v>1.6510515420148662E-2</v>
+      </c>
+      <c r="AH6">
+        <v>1.6929785234282724E-2</v>
+      </c>
+      <c r="AI6">
+        <v>1.7477239853415417E-2</v>
+      </c>
+      <c r="AJ6">
+        <v>1.7855546910351978E-2</v>
+      </c>
+      <c r="AK6">
+        <v>1.0731986346151752E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5.9538828925877066E-3</v>
+      </c>
+      <c r="C7">
+        <v>6.3912167205698849E-3</v>
+      </c>
+      <c r="D7">
+        <v>6.9375390754397043E-3</v>
+      </c>
+      <c r="E7">
+        <v>7.58976992509342E-3</v>
+      </c>
+      <c r="F7">
+        <v>7.9299348178379931E-3</v>
+      </c>
+      <c r="G7">
+        <v>8.3279102840210749E-3</v>
+      </c>
+      <c r="H7">
+        <v>8.6348484111996374E-3</v>
+      </c>
+      <c r="I7">
+        <v>8.5152585350954154E-3</v>
+      </c>
+      <c r="J7">
+        <v>8.8302158470590225E-3</v>
+      </c>
+      <c r="K7">
+        <v>9.1054533934290544E-3</v>
+      </c>
+      <c r="L7">
+        <v>9.507380749957493E-3</v>
+      </c>
+      <c r="M7">
+        <v>9.8855584277247003E-3</v>
+      </c>
+      <c r="N7">
+        <v>1.0191469958390901E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.0489849313299529E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.0894975031310998E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.1357285371194259E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.1682290369253105E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.2138402288158132E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.2633548456748597E-2</v>
+      </c>
+      <c r="U7">
+        <v>1.343615897513914E-2</v>
+      </c>
+      <c r="V7">
+        <v>1.4009399948132762E-2</v>
+      </c>
+      <c r="W7">
+        <v>1.4168227863668838E-2</v>
+      </c>
+      <c r="X7">
+        <v>1.4761129354286372E-2</v>
+      </c>
+      <c r="Y7">
+        <v>1.5435576958286798E-2</v>
+      </c>
+      <c r="Z7">
+        <v>1.6276985655221354E-2</v>
+      </c>
+      <c r="AA7">
+        <v>1.6742983793529825E-2</v>
+      </c>
+      <c r="AB7">
+        <v>1.712805508578754E-2</v>
+      </c>
+      <c r="AC7">
+        <v>1.7530452089078413E-2</v>
+      </c>
+      <c r="AD7">
+        <v>1.771033978244306E-2</v>
+      </c>
+      <c r="AE7">
+        <v>1.7942686210159788E-2</v>
+      </c>
+      <c r="AF7">
+        <v>1.8310519832381151E-2</v>
+      </c>
+      <c r="AG7">
+        <v>1.8810833069284327E-2</v>
+      </c>
+      <c r="AH7">
+        <v>1.9215285454190933E-2</v>
+      </c>
+      <c r="AI7">
+        <v>1.974784718273704E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>2.0102541698276782E-2</v>
+      </c>
+      <c r="AK7">
+        <v>1.2483585639249211E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>6.9374042089337023E-3</v>
+      </c>
+      <c r="C8">
+        <v>7.4890967482898379E-3</v>
+      </c>
+      <c r="D8">
+        <v>8.0306382673883351E-3</v>
+      </c>
+      <c r="E8">
+        <v>8.5207073832879038E-3</v>
+      </c>
+      <c r="F8">
+        <v>8.8269605088809235E-3</v>
+      </c>
+      <c r="G8">
+        <v>9.3346778949069779E-3</v>
+      </c>
+      <c r="H8">
+        <v>9.6595353718159863E-3</v>
+      </c>
+      <c r="I8">
+        <v>9.6672455303610013E-3</v>
+      </c>
+      <c r="J8">
+        <v>1.009674294698922E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.0459163693105891E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.092712821872923E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.1185300830980316E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.1613372113254075E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.1846775975564171E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.2263022642360824E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.297400034611617E-2</v>
+      </c>
+      <c r="R8">
+        <v>1.3305543186237797E-2</v>
+      </c>
+      <c r="S8">
+        <v>1.3841909081242994E-2</v>
+      </c>
+      <c r="T8">
+        <v>1.4512728055254942E-2</v>
+      </c>
+      <c r="U8">
+        <v>1.5388030004412486E-2</v>
+      </c>
+      <c r="V8">
+        <v>1.5704184760149544E-2</v>
+      </c>
+      <c r="W8">
+        <v>1.6231372944532287E-2</v>
+      </c>
+      <c r="X8">
+        <v>1.7139686726262673E-2</v>
+      </c>
+      <c r="Y8">
+        <v>1.7440365182723194E-2</v>
+      </c>
+      <c r="Z8">
+        <v>1.8339851063599401E-2</v>
+      </c>
+      <c r="AA8">
+        <v>1.8619148472661228E-2</v>
+      </c>
+      <c r="AB8">
+        <v>1.9225273472220077E-2</v>
+      </c>
+      <c r="AC8">
+        <v>1.9387747745208878E-2</v>
+      </c>
+      <c r="AD8">
+        <v>1.974002374546344E-2</v>
+      </c>
+      <c r="AE8">
+        <v>2.0011294642058666E-2</v>
+      </c>
+      <c r="AF8">
+        <v>2.0873472926793493E-2</v>
+      </c>
+      <c r="AG8">
+        <v>2.1271079164589229E-2</v>
+      </c>
+      <c r="AH8">
+        <v>2.1796799305882308E-2</v>
+      </c>
+      <c r="AI8">
+        <v>2.2230594953786209E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>2.2736243081529536E-2</v>
+      </c>
+      <c r="AK8">
+        <v>1.4109304663079053E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7.8087166505951336E-3</v>
+      </c>
+      <c r="C9">
+        <v>8.2473512611141234E-3</v>
+      </c>
+      <c r="D9">
+        <v>8.8016538697911813E-3</v>
+      </c>
+      <c r="E9">
+        <v>9.3423448427413115E-3</v>
+      </c>
+      <c r="F9">
+        <v>9.8932292532905742E-3</v>
+      </c>
+      <c r="G9">
+        <v>1.0308328427170079E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.0772536410745196E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.0947681576727469E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.1327099741945918E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.1807515698926525E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.2132137611606685E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.2417860778222409E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.2901564064522137E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.3151825442785675E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.3831801670189112E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.4464050853628275E-2</v>
+      </c>
+      <c r="R9">
+        <v>1.49125969581223E-2</v>
+      </c>
+      <c r="S9">
+        <v>1.5539978077362866E-2</v>
+      </c>
+      <c r="T9">
+        <v>1.6205595794469663E-2</v>
+      </c>
+      <c r="U9">
+        <v>1.6821849063845838E-2</v>
+      </c>
+      <c r="V9">
+        <v>1.7485160918088237E-2</v>
+      </c>
+      <c r="W9">
+        <v>1.8042899103651325E-2</v>
+      </c>
+      <c r="X9">
+        <v>1.8808854128689732E-2</v>
+      </c>
+      <c r="Y9">
+        <v>1.9343258315769753E-2</v>
+      </c>
+      <c r="Z9">
+        <v>2.0191379730676844E-2</v>
+      </c>
+      <c r="AA9">
+        <v>2.0651138857007385E-2</v>
+      </c>
+      <c r="AB9">
+        <v>2.0986991518927564E-2</v>
+      </c>
+      <c r="AC9">
+        <v>2.1261921015095397E-2</v>
+      </c>
+      <c r="AD9">
+        <v>2.1814563036274097E-2</v>
+      </c>
+      <c r="AE9">
+        <v>2.223503751432665E-2</v>
+      </c>
+      <c r="AF9">
+        <v>2.2781954151951521E-2</v>
+      </c>
+      <c r="AG9">
+        <v>2.3181223264265697E-2</v>
+      </c>
+      <c r="AH9">
+        <v>2.3613725836383041E-2</v>
+      </c>
+      <c r="AI9">
+        <v>2.3690919198176539E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>2.4199105095068903E-2</v>
+      </c>
+      <c r="AK9">
+        <v>1.5546320786769064E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>8.347933648701001E-3</v>
+      </c>
+      <c r="C10">
+        <v>8.9278124831748389E-3</v>
+      </c>
+      <c r="D10">
+        <v>9.6360717787441295E-3</v>
+      </c>
+      <c r="E10">
+        <v>1.0218930178287608E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.0663648966586786E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.0994231131210388E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.1415806622846634E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.1778997748878797E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.2434124117505403E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.2723179065469365E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.3260064065229683E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.3554465180696073E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.3955458677351104E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.4515659323507818E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.5093441546707704E-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.5882457172875543E-2</v>
+      </c>
+      <c r="R10">
+        <v>1.6372104592969568E-2</v>
+      </c>
+      <c r="S10">
+        <v>1.7000032716813551E-2</v>
+      </c>
+      <c r="T10">
+        <v>1.7598443354816428E-2</v>
+      </c>
+      <c r="U10">
+        <v>1.8485370163058241E-2</v>
+      </c>
+      <c r="V10">
+        <v>1.8957980331990386E-2</v>
+      </c>
+      <c r="W10">
+        <v>1.9618933307663705E-2</v>
+      </c>
+      <c r="X10">
+        <v>2.0497358908941162E-2</v>
+      </c>
+      <c r="Y10">
+        <v>2.0958720554682793E-2</v>
+      </c>
+      <c r="Z10">
+        <v>2.1876712381193618E-2</v>
+      </c>
+      <c r="AA10">
+        <v>2.2300314956321461E-2</v>
+      </c>
+      <c r="AB10">
+        <v>2.2658983972428253E-2</v>
+      </c>
+      <c r="AC10">
+        <v>2.3026641480027876E-2</v>
+      </c>
+      <c r="AD10">
+        <v>2.3405956456794032E-2</v>
+      </c>
+      <c r="AE10">
+        <v>2.3829915103431031E-2</v>
+      </c>
+      <c r="AF10">
+        <v>2.4346002033485848E-2</v>
+      </c>
+      <c r="AG10">
+        <v>2.486496741152398E-2</v>
+      </c>
+      <c r="AH10">
+        <v>2.5223574046732582E-2</v>
+      </c>
+      <c r="AI10">
+        <v>2.5440140926540022E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>2.5838337119729115E-2</v>
+      </c>
+      <c r="AK10">
+        <v>1.6796883673619031E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>8.7250273370664579E-3</v>
+      </c>
+      <c r="C11">
+        <v>9.3984502917925771E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.0091196765974952E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.072933811623227E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.1092835521910165E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.1443425808484575E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.2066070105486751E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.2486920844681728E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.3077505833665201E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.3668354477813772E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.4188747147466346E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.4492432974584557E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.5095740865111661E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.5729198007496972E-2</v>
+      </c>
+      <c r="P11">
+        <v>1.6302321848418684E-2</v>
+      </c>
+      <c r="Q11">
+        <v>1.7057634121565843E-2</v>
+      </c>
+      <c r="R11">
+        <v>1.7536296323125023E-2</v>
+      </c>
+      <c r="S11">
+        <v>1.8132129406431861E-2</v>
+      </c>
+      <c r="T11">
+        <v>1.8896790958545032E-2</v>
+      </c>
+      <c r="U11">
+        <v>1.9668310676827137E-2</v>
+      </c>
+      <c r="V11">
+        <v>2.0475321510699002E-2</v>
+      </c>
+      <c r="W11">
+        <v>2.0799351247005105E-2</v>
+      </c>
+      <c r="X11">
+        <v>2.1869073765155324E-2</v>
+      </c>
+      <c r="Y11">
+        <v>2.2235288499004184E-2</v>
+      </c>
+      <c r="Z11">
+        <v>2.3256697307234807E-2</v>
+      </c>
+      <c r="AA11">
+        <v>2.3554568421892561E-2</v>
+      </c>
+      <c r="AB11">
+        <v>2.3965280513094638E-2</v>
+      </c>
+      <c r="AC11">
+        <v>2.4377673692431073E-2</v>
+      </c>
+      <c r="AD11">
+        <v>2.4625083888151787E-2</v>
+      </c>
+      <c r="AE11">
+        <v>2.4901751390875384E-2</v>
+      </c>
+      <c r="AF11">
+        <v>2.575747597644738E-2</v>
+      </c>
+      <c r="AG11">
+        <v>2.6021874798197602E-2</v>
+      </c>
+      <c r="AH11">
+        <v>2.6597375067886179E-2</v>
+      </c>
+      <c r="AI11">
+        <v>2.6818906887207658E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>2.7260040899760678E-2</v>
+      </c>
+      <c r="AK11">
+        <v>1.7796999875952818E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>9.1812123838601375E-3</v>
+      </c>
+      <c r="C12">
+        <v>9.8125062632296277E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.025487790021868E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.0904642038227344E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.1323633678856183E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.2079961341843722E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.270501174789508E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.3317591424398314E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.3953042933762235E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.436188296088545E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.5050333422671773E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.5591527667897336E-2</v>
+      </c>
+      <c r="N12">
+        <v>1.6365714696172803E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.6750874521676746E-2</v>
+      </c>
+      <c r="P12">
+        <v>1.7564902221873419E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.8271605464657843E-2</v>
+      </c>
+      <c r="R12">
+        <v>1.8793258744074955E-2</v>
+      </c>
+      <c r="S12">
+        <v>1.9461794328604363E-2</v>
+      </c>
+      <c r="T12">
+        <v>2.0066191455291964E-2</v>
+      </c>
+      <c r="U12">
+        <v>2.0967198896343429E-2</v>
+      </c>
+      <c r="V12">
+        <v>2.1672694132954706E-2</v>
+      </c>
+      <c r="W12">
+        <v>2.2255699130738472E-2</v>
+      </c>
+      <c r="X12">
+        <v>2.3069008921466235E-2</v>
+      </c>
+      <c r="Y12">
+        <v>2.3569481466201303E-2</v>
+      </c>
+      <c r="Z12">
+        <v>2.4564334648670885E-2</v>
+      </c>
+      <c r="AA12">
+        <v>2.4669011983000744E-2</v>
+      </c>
+      <c r="AB12">
+        <v>2.5237697866600416E-2</v>
+      </c>
+      <c r="AC12">
+        <v>2.5496229947221352E-2</v>
+      </c>
+      <c r="AD12">
+        <v>2.5871891715146318E-2</v>
+      </c>
+      <c r="AE12">
+        <v>2.6078451251565868E-2</v>
+      </c>
+      <c r="AF12">
+        <v>2.6676377495358693E-2</v>
+      </c>
+      <c r="AG12">
+        <v>2.7135205523880452E-2</v>
+      </c>
+      <c r="AH12">
+        <v>2.7944926309737349E-2</v>
+      </c>
+      <c r="AI12">
+        <v>2.8426449135704492E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>2.8670011029235377E-2</v>
+      </c>
+      <c r="AK12">
+        <v>1.8764748898707766E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>9.4090415449982513E-3</v>
+      </c>
+      <c r="C13">
+        <v>9.8533968799731468E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.0647026684510704E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.1260058164260069E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.1888842448990123E-2</v>
+      </c>
+      <c r="G13">
+        <v>1.2588281801214596E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.3410033147722824E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.4031500509861801E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.4685888854808858E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.5290781330490959E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.6057022007875763E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.6580683178975854E-2</v>
+      </c>
+      <c r="N13">
+        <v>1.7300222037006558E-2</v>
+      </c>
+      <c r="O13">
+        <v>1.7827823898142192E-2</v>
+      </c>
+      <c r="P13">
+        <v>1.8751262887880819E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1.9424867906957698E-2</v>
+      </c>
+      <c r="R13">
+        <v>1.9901250706853401E-2</v>
+      </c>
+      <c r="S13">
+        <v>2.0544996043830348E-2</v>
+      </c>
+      <c r="T13">
+        <v>2.1242617769690532E-2</v>
+      </c>
+      <c r="U13">
+        <v>2.224756597373987E-2</v>
+      </c>
+      <c r="V13">
+        <v>2.2726017890576492E-2</v>
+      </c>
+      <c r="W13">
+        <v>2.3340569747228358E-2</v>
+      </c>
+      <c r="X13">
+        <v>2.4070269712763635E-2</v>
+      </c>
+      <c r="Y13">
+        <v>2.4531096899502568E-2</v>
+      </c>
+      <c r="Z13">
+        <v>2.5768053270604021E-2</v>
+      </c>
+      <c r="AA13">
+        <v>2.5845435539986684E-2</v>
+      </c>
+      <c r="AB13">
+        <v>2.6121140044642319E-2</v>
+      </c>
+      <c r="AC13">
+        <v>2.6485034509111206E-2</v>
+      </c>
+      <c r="AD13">
+        <v>2.6691415962710362E-2</v>
+      </c>
+      <c r="AE13">
+        <v>2.7185208727073491E-2</v>
+      </c>
+      <c r="AF13">
+        <v>2.7993557386011291E-2</v>
+      </c>
+      <c r="AG13">
+        <v>2.8552991123598343E-2</v>
+      </c>
+      <c r="AH13">
+        <v>2.8990518322778085E-2</v>
+      </c>
+      <c r="AI13">
+        <v>2.94093868495214E-2</v>
+      </c>
+      <c r="AJ13">
+        <v>3.0135483303101448E-2</v>
+      </c>
+      <c r="AK13">
+        <v>1.9641334087759695E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>9.151900427343122E-3</v>
+      </c>
+      <c r="C14">
+        <v>1.004009286582761E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.080836434859638E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.1504834511842112E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.2143693904261461E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.3190965083551286E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.415088238802705E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.4538945198820642E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.5462568854527089E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.6049930409474528E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.69132399853162E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.7357312170380425E-2</v>
+      </c>
+      <c r="N14">
+        <v>1.8326847761502122E-2</v>
+      </c>
+      <c r="O14">
+        <v>1.8905760909876664E-2</v>
+      </c>
+      <c r="P14">
+        <v>1.961657956286874E-2</v>
+      </c>
+      <c r="Q14">
+        <v>2.0478189042772321E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.1087357875382417E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.1526088308639897E-2</v>
+      </c>
+      <c r="T14">
+        <v>2.2260789220479277E-2</v>
+      </c>
+      <c r="U14">
+        <v>2.2974867116034629E-2</v>
+      </c>
+      <c r="V14">
+        <v>2.3476651820396464E-2</v>
+      </c>
+      <c r="W14">
+        <v>2.425305363490305E-2</v>
+      </c>
+      <c r="X14">
+        <v>2.50843803966917E-2</v>
+      </c>
+      <c r="Y14">
+        <v>2.5691672874885486E-2</v>
+      </c>
+      <c r="Z14">
+        <v>2.6472811062534858E-2</v>
+      </c>
+      <c r="AA14">
+        <v>2.639816687566577E-2</v>
+      </c>
+      <c r="AB14">
+        <v>2.6890220066596381E-2</v>
+      </c>
+      <c r="AC14">
+        <v>2.7375127631132375E-2</v>
+      </c>
+      <c r="AD14">
+        <v>2.7908819400996644E-2</v>
+      </c>
+      <c r="AE14">
+        <v>2.8438411223378278E-2</v>
+      </c>
+      <c r="AF14">
+        <v>2.8926525570193266E-2</v>
+      </c>
+      <c r="AG14">
+        <v>2.9542476931434761E-2</v>
+      </c>
+      <c r="AH14">
+        <v>2.9989439167573344E-2</v>
+      </c>
+      <c r="AI14">
+        <v>3.0621751024913848E-2</v>
+      </c>
+      <c r="AJ14">
+        <v>3.0904351803675567E-2</v>
+      </c>
+      <c r="AK14">
+        <v>2.037607019318765E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>7.3431917284605156E-3</v>
+      </c>
+      <c r="C15">
+        <v>7.9131885879744936E-3</v>
+      </c>
+      <c r="D15">
+        <v>8.5080623529374018E-3</v>
+      </c>
+      <c r="E15">
+        <v>9.0708026042008311E-3</v>
+      </c>
+      <c r="F15">
+        <v>9.5314361722338911E-3</v>
+      </c>
+      <c r="G15">
+        <v>1.0037611137666828E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.0518383735652502E-2</v>
+      </c>
+      <c r="I15">
+        <v>1.0772714342258112E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.1218641199198952E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.1616605511113858E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.2105126378271E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.2413791278339312E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.295888349714386E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.3337039002067362E-2</v>
+      </c>
+      <c r="P15">
+        <v>1.3893809225229925E-2</v>
+      </c>
+      <c r="Q15">
+        <v>1.4524658065752863E-2</v>
+      </c>
+      <c r="R15">
+        <v>1.4936487447913907E-2</v>
+      </c>
+      <c r="S15">
+        <v>1.5436751142475015E-2</v>
+      </c>
+      <c r="T15">
+        <v>1.6026205541876441E-2</v>
+      </c>
+      <c r="U15">
+        <v>1.6753382624513809E-2</v>
+      </c>
+      <c r="V15">
+        <v>1.7276811860491154E-2</v>
+      </c>
+      <c r="W15">
+        <v>1.7740512156149142E-2</v>
+      </c>
+      <c r="X15">
+        <v>1.848836954839006E-2</v>
+      </c>
+      <c r="Y15">
+        <v>1.8986699894108283E-2</v>
+      </c>
+      <c r="Z15">
+        <v>1.9879518578170156E-2</v>
+      </c>
+      <c r="AA15">
+        <v>2.0170957521486572E-2</v>
+      </c>
+      <c r="AB15">
+        <v>2.0606169758081411E-2</v>
+      </c>
+      <c r="AC15">
+        <v>2.0960025705703191E-2</v>
+      </c>
+      <c r="AD15">
+        <v>2.1281721560471093E-2</v>
+      </c>
+      <c r="AE15">
+        <v>2.1644335417340177E-2</v>
+      </c>
+      <c r="AF15">
+        <v>2.2223483612043397E-2</v>
+      </c>
+      <c r="AG15">
+        <v>2.2631438541414726E-2</v>
+      </c>
+      <c r="AH15">
+        <v>2.3082920006309668E-2</v>
+      </c>
+      <c r="AI15">
+        <v>2.3452299215812732E-2</v>
+      </c>
+      <c r="AJ15">
+        <v>2.3858568341068632E-2</v>
+      </c>
+      <c r="AK15">
+        <v>1.5306419787511533E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>3.0904351803675567E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/backtracer_summary.xlsx
+++ b/backtracer_summary.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="maperiod_ma5_ma20_정리" sheetId="1" r:id="rId1"/>
-    <sheet name="smExponExpon" sheetId="2" r:id="rId2"/>
-    <sheet name="smExponSimple" sheetId="3" r:id="rId3"/>
-    <sheet name="smExponWeight" sheetId="4" r:id="rId4"/>
-    <sheet name="smWeightExpon" sheetId="5" r:id="rId5"/>
-    <sheet name="smWeightSimple" sheetId="6" r:id="rId6"/>
-    <sheet name="smWeightWeight" sheetId="7" r:id="rId7"/>
+    <sheet name="시도1.단순_Exp_가중_평균이동" sheetId="1" r:id="rId1"/>
+    <sheet name="시도2.거래량_단순이평선" sheetId="8" r:id="rId2"/>
+    <sheet name="smExponExpon" sheetId="2" r:id="rId3"/>
+    <sheet name="smExponSimple" sheetId="3" r:id="rId4"/>
+    <sheet name="smExponWeight" sheetId="4" r:id="rId5"/>
+    <sheet name="smWeightExpon" sheetId="5" r:id="rId6"/>
+    <sheet name="smWeightSimple" sheetId="6" r:id="rId7"/>
+    <sheet name="smWeightWeight" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>평균 : meanprofit</t>
   </si>
@@ -100,6 +101,57 @@
     <t>4. 추천하는 ma1: range(9,15),  ma2:range(41:50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>5. 이동평균선을  단순,기하급수, 가충지 등으로  시뮬레이션을 해 보면,  특별이  좋은 것은 없다. 단지 simple이동평균이 상대적으로 조금이나마좋다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volperiod</t>
+  </si>
+  <si>
+    <t>volmulti</t>
+  </si>
+  <si>
+    <t>malong</t>
+  </si>
+  <si>
+    <t>mashort</t>
+  </si>
+  <si>
+    <t>profitrate</t>
+  </si>
+  <si>
+    <t>1. 이번 시도는 거래량을 기준으로 매수, 단순이평선을 기준으로 매도한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 방법에 대한 변수 :  volperiod:거래량일수, volmulti : 거래량배수, malong:장기이평선, mashort:단기이평선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 즉 단기 이평선이 장기이평선보다 크고, 해당일 거래양이 이전의 거래량일수의 평균보다  volmulti만큼의 배가 된다면 급등이라고 판단하고,매수한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 매도는 단기이평선이 장기이평선 보다 작을 때 수행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.위의 결과를 봤을 때, 최고의 수익률이 0.055 정도의 평균수익률이 나왔다 maVolPeriod=[ 30, 40], VolumeMultiple=[15,20], maPeriodLong=[47,48,49], maPeriodShort=[11,12,13,15] </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maVolPeriod=[ 30, 40], VolumeMultiple=[15,20], maPeriodLong=[47,48,49], maPeriodShort=[11,12,13,15] 이 해당 범위이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 2차 Volume와 이평선 시뮬레이션을 시행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maPeriodShort=[11,12,13,15,17,19,21], maPeriodLong=[47,49,51,53,55,57,9], VolumeMultiple=[15,17,19,21,23,25,30], maVolPeriod=[29,31,33,35,37,39,41,43,45,47]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -169,10 +221,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -493,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:O37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2406,214 +2458,216 @@
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2630,293 +2684,293 @@
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2962,6 +3016,712 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>5.5489999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>5.534E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>5.4440000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>5.432E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>5.4289999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>5.4260000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>5.3839999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>5.3699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>5.3339999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>5.3260000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>5.3060000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>5.3060000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>5.305E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>5.2920000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>5.2830000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>5.2760000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>5.2449999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>5.2350000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>5.228E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>5.2260000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>48</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>5.2049999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>5.203E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>5.1950000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>48</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>5.1929999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>5.1889999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>5.1749999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>5.1720000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>48</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>5.1709999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>48</v>
+      </c>
+      <c r="D30">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>5.1639999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>48</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>5.1549999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O34"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A37:O37"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4345,1397 +5105,6 @@
       </c>
       <c r="B17">
         <v>2.8580951343459372E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1">
-        <v>24</v>
-      </c>
-      <c r="L4" s="1">
-        <v>25</v>
-      </c>
-      <c r="M4" s="1">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1">
-        <v>27</v>
-      </c>
-      <c r="O4" s="1">
-        <v>28</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>30</v>
-      </c>
-      <c r="R4" s="1">
-        <v>31</v>
-      </c>
-      <c r="S4" s="1">
-        <v>32</v>
-      </c>
-      <c r="T4" s="1">
-        <v>33</v>
-      </c>
-      <c r="U4" s="1">
-        <v>34</v>
-      </c>
-      <c r="V4" s="1">
-        <v>35</v>
-      </c>
-      <c r="W4" s="1">
-        <v>36</v>
-      </c>
-      <c r="X4" s="1">
-        <v>37</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>40</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>41</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>42</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>43</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>44</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>45</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>46</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>47</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>48</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>49</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>7.0446608883535508E-3</v>
-      </c>
-      <c r="C5">
-        <v>7.444485775717641E-3</v>
-      </c>
-      <c r="D5">
-        <v>7.6708208228962564E-3</v>
-      </c>
-      <c r="E5">
-        <v>7.986493863434363E-3</v>
-      </c>
-      <c r="F5">
-        <v>8.5019146183821243E-3</v>
-      </c>
-      <c r="G5">
-        <v>9.0330326918631153E-3</v>
-      </c>
-      <c r="H5">
-        <v>9.5805497404367595E-3</v>
-      </c>
-      <c r="I5">
-        <v>1.0071934358053609E-2</v>
-      </c>
-      <c r="J5">
-        <v>1.0609828031861062E-2</v>
-      </c>
-      <c r="K5">
-        <v>1.1113216349895079E-2</v>
-      </c>
-      <c r="L5">
-        <v>1.1830034135429102E-2</v>
-      </c>
-      <c r="M5">
-        <v>1.2410005729949108E-2</v>
-      </c>
-      <c r="N5">
-        <v>1.3199681405110708E-2</v>
-      </c>
-      <c r="O5">
-        <v>1.4099038634932644E-2</v>
-      </c>
-      <c r="P5">
-        <v>1.4682990162294178E-2</v>
-      </c>
-      <c r="Q5">
-        <v>1.55249768675528E-2</v>
-      </c>
-      <c r="R5">
-        <v>1.6385315210788131E-2</v>
-      </c>
-      <c r="S5">
-        <v>1.6831928499894282E-2</v>
-      </c>
-      <c r="T5">
-        <v>1.7536419446296615E-2</v>
-      </c>
-      <c r="U5">
-        <v>1.8084482530051186E-2</v>
-      </c>
-      <c r="V5">
-        <v>1.8425102125747307E-2</v>
-      </c>
-      <c r="W5">
-        <v>1.8530155393554151E-2</v>
-      </c>
-      <c r="X5">
-        <v>1.9147729177488765E-2</v>
-      </c>
-      <c r="Y5">
-        <v>1.9486566190682029E-2</v>
-      </c>
-      <c r="Z5">
-        <v>2.0209398584095616E-2</v>
-      </c>
-      <c r="AA5">
-        <v>2.0593619279690504E-2</v>
-      </c>
-      <c r="AB5">
-        <v>2.1134998628167496E-2</v>
-      </c>
-      <c r="AC5">
-        <v>2.1128273803951145E-2</v>
-      </c>
-      <c r="AD5">
-        <v>2.1552110091090683E-2</v>
-      </c>
-      <c r="AE5">
-        <v>2.2188796140090037E-2</v>
-      </c>
-      <c r="AF5">
-        <v>2.3079071445952434E-2</v>
-      </c>
-      <c r="AG5">
-        <v>2.3691504540484215E-2</v>
-      </c>
-      <c r="AH5">
-        <v>2.3812581655699692E-2</v>
-      </c>
-      <c r="AI5">
-        <v>2.4182876432116394E-2</v>
-      </c>
-      <c r="AJ5">
-        <v>2.4559599304822013E-2</v>
-      </c>
-      <c r="AK5">
-        <v>1.5465457633041578E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>7.5434586071211982E-3</v>
-      </c>
-      <c r="C6">
-        <v>8.0298829882484574E-3</v>
-      </c>
-      <c r="D6">
-        <v>8.3782897093248321E-3</v>
-      </c>
-      <c r="E6">
-        <v>8.8208201610171545E-3</v>
-      </c>
-      <c r="F6">
-        <v>9.0828733040127403E-3</v>
-      </c>
-      <c r="G6">
-        <v>1.026767883542383E-2</v>
-      </c>
-      <c r="H6">
-        <v>1.0773747872432448E-2</v>
-      </c>
-      <c r="I6">
-        <v>1.1188276388041096E-2</v>
-      </c>
-      <c r="J6">
-        <v>1.1992185626541219E-2</v>
-      </c>
-      <c r="K6">
-        <v>1.2746911266587254E-2</v>
-      </c>
-      <c r="L6">
-        <v>1.3286300890020487E-2</v>
-      </c>
-      <c r="M6">
-        <v>1.4203950464421267E-2</v>
-      </c>
-      <c r="N6">
-        <v>1.504872795837703E-2</v>
-      </c>
-      <c r="O6">
-        <v>1.5984902601037906E-2</v>
-      </c>
-      <c r="P6">
-        <v>1.6506027271116833E-2</v>
-      </c>
-      <c r="Q6">
-        <v>1.722140497019314E-2</v>
-      </c>
-      <c r="R6">
-        <v>1.8355707576910331E-2</v>
-      </c>
-      <c r="S6">
-        <v>1.8678749566596802E-2</v>
-      </c>
-      <c r="T6">
-        <v>1.9399188925031327E-2</v>
-      </c>
-      <c r="U6">
-        <v>2.001513173375959E-2</v>
-      </c>
-      <c r="V6">
-        <v>2.0393871377513008E-2</v>
-      </c>
-      <c r="W6">
-        <v>2.0674804590186325E-2</v>
-      </c>
-      <c r="X6">
-        <v>2.1318585205317962E-2</v>
-      </c>
-      <c r="Y6">
-        <v>2.1564840689492059E-2</v>
-      </c>
-      <c r="Z6">
-        <v>2.2507702723456778E-2</v>
-      </c>
-      <c r="AA6">
-        <v>2.2736208962346759E-2</v>
-      </c>
-      <c r="AB6">
-        <v>2.3276887516614667E-2</v>
-      </c>
-      <c r="AC6">
-        <v>2.3568208339297032E-2</v>
-      </c>
-      <c r="AD6">
-        <v>2.3867695860948869E-2</v>
-      </c>
-      <c r="AE6">
-        <v>2.4615143623908469E-2</v>
-      </c>
-      <c r="AF6">
-        <v>2.5661105713113318E-2</v>
-      </c>
-      <c r="AG6">
-        <v>2.5551592552803905E-2</v>
-      </c>
-      <c r="AH6">
-        <v>2.6380665110540383E-2</v>
-      </c>
-      <c r="AI6">
-        <v>2.6453697611525682E-2</v>
-      </c>
-      <c r="AJ6">
-        <v>2.7227318947124903E-2</v>
-      </c>
-      <c r="AK6">
-        <v>1.7110893678687726E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>7.7142197890202923E-3</v>
-      </c>
-      <c r="C7">
-        <v>8.3981983419789078E-3</v>
-      </c>
-      <c r="D7">
-        <v>8.8246621286637277E-3</v>
-      </c>
-      <c r="E7">
-        <v>9.0480121307409955E-3</v>
-      </c>
-      <c r="F7">
-        <v>9.8150107929983726E-3</v>
-      </c>
-      <c r="G7">
-        <v>1.0831759169876141E-2</v>
-      </c>
-      <c r="H7">
-        <v>1.1458285016085527E-2</v>
-      </c>
-      <c r="I7">
-        <v>1.2349255576319447E-2</v>
-      </c>
-      <c r="J7">
-        <v>1.318040783044897E-2</v>
-      </c>
-      <c r="K7">
-        <v>1.3651053675662697E-2</v>
-      </c>
-      <c r="L7">
-        <v>1.4426515222360702E-2</v>
-      </c>
-      <c r="M7">
-        <v>1.5285760686980438E-2</v>
-      </c>
-      <c r="N7">
-        <v>1.6391417306243501E-2</v>
-      </c>
-      <c r="O7">
-        <v>1.7575338742324795E-2</v>
-      </c>
-      <c r="P7">
-        <v>1.8427435461401895E-2</v>
-      </c>
-      <c r="Q7">
-        <v>1.9030379460254751E-2</v>
-      </c>
-      <c r="R7">
-        <v>1.9834461221366253E-2</v>
-      </c>
-      <c r="S7">
-        <v>2.0604370769074794E-2</v>
-      </c>
-      <c r="T7">
-        <v>2.1300245536295278E-2</v>
-      </c>
-      <c r="U7">
-        <v>2.1829374923633346E-2</v>
-      </c>
-      <c r="V7">
-        <v>2.209443370582001E-2</v>
-      </c>
-      <c r="W7">
-        <v>2.2175313617166483E-2</v>
-      </c>
-      <c r="X7">
-        <v>2.2754751994512469E-2</v>
-      </c>
-      <c r="Y7">
-        <v>2.3084754061823747E-2</v>
-      </c>
-      <c r="Z7">
-        <v>2.4399025737430042E-2</v>
-      </c>
-      <c r="AA7">
-        <v>2.4755969210126103E-2</v>
-      </c>
-      <c r="AB7">
-        <v>2.5133780388026702E-2</v>
-      </c>
-      <c r="AC7">
-        <v>2.5479120135362958E-2</v>
-      </c>
-      <c r="AD7">
-        <v>2.5631743940509114E-2</v>
-      </c>
-      <c r="AE7">
-        <v>2.6231127017330585E-2</v>
-      </c>
-      <c r="AF7">
-        <v>2.7051507008114099E-2</v>
-      </c>
-      <c r="AG7">
-        <v>2.7283881392017029E-2</v>
-      </c>
-      <c r="AH7">
-        <v>2.8382557753762812E-2</v>
-      </c>
-      <c r="AI7">
-        <v>2.8369590965750362E-2</v>
-      </c>
-      <c r="AJ7">
-        <v>2.8834171603478304E-2</v>
-      </c>
-      <c r="AK7">
-        <v>1.8367366916495625E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>7.7553318804133922E-3</v>
-      </c>
-      <c r="C8">
-        <v>8.5250865030729664E-3</v>
-      </c>
-      <c r="D8">
-        <v>9.1393919929777766E-3</v>
-      </c>
-      <c r="E8">
-        <v>9.5208557589471117E-3</v>
-      </c>
-      <c r="F8">
-        <v>1.0286920824917689E-2</v>
-      </c>
-      <c r="G8">
-        <v>1.1387802693551543E-2</v>
-      </c>
-      <c r="H8">
-        <v>1.2223690517737645E-2</v>
-      </c>
-      <c r="I8">
-        <v>1.3241215165190445E-2</v>
-      </c>
-      <c r="J8">
-        <v>1.385251230230543E-2</v>
-      </c>
-      <c r="K8">
-        <v>1.4693743877294552E-2</v>
-      </c>
-      <c r="L8">
-        <v>1.5514447520573902E-2</v>
-      </c>
-      <c r="M8">
-        <v>1.6601925725858103E-2</v>
-      </c>
-      <c r="N8">
-        <v>1.7757563533530332E-2</v>
-      </c>
-      <c r="O8">
-        <v>1.8469964335057883E-2</v>
-      </c>
-      <c r="P8">
-        <v>1.9367576592142149E-2</v>
-      </c>
-      <c r="Q8">
-        <v>2.0469286784004892E-2</v>
-      </c>
-      <c r="R8">
-        <v>2.0799593248139202E-2</v>
-      </c>
-      <c r="S8">
-        <v>2.1307582140063668E-2</v>
-      </c>
-      <c r="T8">
-        <v>2.2036750202206849E-2</v>
-      </c>
-      <c r="U8">
-        <v>2.2920547239811483E-2</v>
-      </c>
-      <c r="V8">
-        <v>2.3581849201844425E-2</v>
-      </c>
-      <c r="W8">
-        <v>2.3723587077882888E-2</v>
-      </c>
-      <c r="X8">
-        <v>2.4512801566492378E-2</v>
-      </c>
-      <c r="Y8">
-        <v>2.4448278961018425E-2</v>
-      </c>
-      <c r="Z8">
-        <v>2.6166739247942248E-2</v>
-      </c>
-      <c r="AA8">
-        <v>2.666836221566856E-2</v>
-      </c>
-      <c r="AB8">
-        <v>2.6670607848941968E-2</v>
-      </c>
-      <c r="AC8">
-        <v>2.7257220847627179E-2</v>
-      </c>
-      <c r="AD8">
-        <v>2.7227269026236404E-2</v>
-      </c>
-      <c r="AE8">
-        <v>2.7798620512759983E-2</v>
-      </c>
-      <c r="AF8">
-        <v>2.9059921551915786E-2</v>
-      </c>
-      <c r="AG8">
-        <v>2.9008696971745226E-2</v>
-      </c>
-      <c r="AH8">
-        <v>2.9751678921396341E-2</v>
-      </c>
-      <c r="AI8">
-        <v>3.0084041605981823E-2</v>
-      </c>
-      <c r="AJ8">
-        <v>3.0323143014982779E-2</v>
-      </c>
-      <c r="AK8">
-        <v>1.9382454356248007E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>7.655989790190252E-3</v>
-      </c>
-      <c r="C9">
-        <v>8.709783012361064E-3</v>
-      </c>
-      <c r="D9">
-        <v>9.1141509877513075E-3</v>
-      </c>
-      <c r="E9">
-        <v>9.9036642101626195E-3</v>
-      </c>
-      <c r="F9">
-        <v>1.0674137534023822E-2</v>
-      </c>
-      <c r="G9">
-        <v>1.1800078734573193E-2</v>
-      </c>
-      <c r="H9">
-        <v>1.2733328509697057E-2</v>
-      </c>
-      <c r="I9">
-        <v>1.3766191787136528E-2</v>
-      </c>
-      <c r="J9">
-        <v>1.4341192266421854E-2</v>
-      </c>
-      <c r="K9">
-        <v>1.5564499665898502E-2</v>
-      </c>
-      <c r="L9">
-        <v>1.6418401595981263E-2</v>
-      </c>
-      <c r="M9">
-        <v>1.7469943478652925E-2</v>
-      </c>
-      <c r="N9">
-        <v>1.8637776077616647E-2</v>
-      </c>
-      <c r="O9">
-        <v>1.9283576659371759E-2</v>
-      </c>
-      <c r="P9">
-        <v>2.0314156105293336E-2</v>
-      </c>
-      <c r="Q9">
-        <v>2.1501867164836323E-2</v>
-      </c>
-      <c r="R9">
-        <v>2.1866067251390814E-2</v>
-      </c>
-      <c r="S9">
-        <v>2.2423183942549635E-2</v>
-      </c>
-      <c r="T9">
-        <v>2.3143820103367622E-2</v>
-      </c>
-      <c r="U9">
-        <v>2.4317013367001854E-2</v>
-      </c>
-      <c r="V9">
-        <v>2.4239026149086317E-2</v>
-      </c>
-      <c r="W9">
-        <v>2.476501685404876E-2</v>
-      </c>
-      <c r="X9">
-        <v>2.5633931698446678E-2</v>
-      </c>
-      <c r="Y9">
-        <v>2.6316646583269026E-2</v>
-      </c>
-      <c r="Z9">
-        <v>2.7525545041568764E-2</v>
-      </c>
-      <c r="AA9">
-        <v>2.7725343064291069E-2</v>
-      </c>
-      <c r="AB9">
-        <v>2.8446829785929727E-2</v>
-      </c>
-      <c r="AC9">
-        <v>2.8309432121678402E-2</v>
-      </c>
-      <c r="AD9">
-        <v>2.8882715299510555E-2</v>
-      </c>
-      <c r="AE9">
-        <v>2.9438455608327248E-2</v>
-      </c>
-      <c r="AF9">
-        <v>3.0467180481120796E-2</v>
-      </c>
-      <c r="AG9">
-        <v>3.0645616601610956E-2</v>
-      </c>
-      <c r="AH9">
-        <v>3.0546562368285467E-2</v>
-      </c>
-      <c r="AI9">
-        <v>3.144015334608477E-2</v>
-      </c>
-      <c r="AJ9">
-        <v>3.0197669860565823E-2</v>
-      </c>
-      <c r="AK9">
-        <v>2.0151072267443785E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>7.3926920396290537E-3</v>
-      </c>
-      <c r="C10">
-        <v>8.5512107029758807E-3</v>
-      </c>
-      <c r="D10">
-        <v>9.2493896713130436E-3</v>
-      </c>
-      <c r="E10">
-        <v>9.9555228945617941E-3</v>
-      </c>
-      <c r="F10">
-        <v>1.0977147581398321E-2</v>
-      </c>
-      <c r="G10">
-        <v>1.2051129438077917E-2</v>
-      </c>
-      <c r="H10">
-        <v>1.2960250476649563E-2</v>
-      </c>
-      <c r="I10">
-        <v>1.3874163275504317E-2</v>
-      </c>
-      <c r="J10">
-        <v>1.4889039606634498E-2</v>
-      </c>
-      <c r="K10">
-        <v>1.6135049248579857E-2</v>
-      </c>
-      <c r="L10">
-        <v>1.7047555916488433E-2</v>
-      </c>
-      <c r="M10">
-        <v>1.8189516850686767E-2</v>
-      </c>
-      <c r="N10">
-        <v>1.931641876971469E-2</v>
-      </c>
-      <c r="O10">
-        <v>2.0041364007388752E-2</v>
-      </c>
-      <c r="P10">
-        <v>2.1148565709651627E-2</v>
-      </c>
-      <c r="Q10">
-        <v>2.2226012341357248E-2</v>
-      </c>
-      <c r="R10">
-        <v>2.2473041853880445E-2</v>
-      </c>
-      <c r="S10">
-        <v>2.3153442835532841E-2</v>
-      </c>
-      <c r="T10">
-        <v>2.4090877530393573E-2</v>
-      </c>
-      <c r="U10">
-        <v>2.5058396488080576E-2</v>
-      </c>
-      <c r="V10">
-        <v>2.5488724518158479E-2</v>
-      </c>
-      <c r="W10">
-        <v>2.5926234632360635E-2</v>
-      </c>
-      <c r="X10">
-        <v>2.6584577342320802E-2</v>
-      </c>
-      <c r="Y10">
-        <v>2.7551269144822622E-2</v>
-      </c>
-      <c r="Z10">
-        <v>2.8696979426544981E-2</v>
-      </c>
-      <c r="AA10">
-        <v>2.8792201297346543E-2</v>
-      </c>
-      <c r="AB10">
-        <v>2.9311702393864453E-2</v>
-      </c>
-      <c r="AC10">
-        <v>2.9348473498135654E-2</v>
-      </c>
-      <c r="AD10">
-        <v>3.0384989887662285E-2</v>
-      </c>
-      <c r="AE10">
-        <v>3.0867655318161089E-2</v>
-      </c>
-      <c r="AF10">
-        <v>3.157231949411371E-2</v>
-      </c>
-      <c r="AG10">
-        <v>3.099720579132148E-2</v>
-      </c>
-      <c r="AH10">
-        <v>3.1678264974030756E-2</v>
-      </c>
-      <c r="AI10">
-        <v>3.0924919526264801E-2</v>
-      </c>
-      <c r="AJ10">
-        <v>2.9684164592484869E-2</v>
-      </c>
-      <c r="AK10">
-        <v>2.0647095008724119E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>6.9192589954489578E-3</v>
-      </c>
-      <c r="C11">
-        <v>8.2542970971966906E-3</v>
-      </c>
-      <c r="D11">
-        <v>9.1302332676360433E-3</v>
-      </c>
-      <c r="E11">
-        <v>9.9794113576843462E-3</v>
-      </c>
-      <c r="F11">
-        <v>1.0973068162472122E-2</v>
-      </c>
-      <c r="G11">
-        <v>1.1961999739859093E-2</v>
-      </c>
-      <c r="H11">
-        <v>1.2967120343784385E-2</v>
-      </c>
-      <c r="I11">
-        <v>1.4094767029981489E-2</v>
-      </c>
-      <c r="J11">
-        <v>1.5112978563151141E-2</v>
-      </c>
-      <c r="K11">
-        <v>1.6552791966905147E-2</v>
-      </c>
-      <c r="L11">
-        <v>1.7297986082620807E-2</v>
-      </c>
-      <c r="M11">
-        <v>1.8723978045224954E-2</v>
-      </c>
-      <c r="N11">
-        <v>1.9846395146899308E-2</v>
-      </c>
-      <c r="O11">
-        <v>2.0613495897156338E-2</v>
-      </c>
-      <c r="P11">
-        <v>2.176919637239259E-2</v>
-      </c>
-      <c r="Q11">
-        <v>2.2694747401623701E-2</v>
-      </c>
-      <c r="R11">
-        <v>2.345387346403963E-2</v>
-      </c>
-      <c r="S11">
-        <v>2.3845473745906065E-2</v>
-      </c>
-      <c r="T11">
-        <v>2.4875742869291246E-2</v>
-      </c>
-      <c r="U11">
-        <v>2.6053405175793867E-2</v>
-      </c>
-      <c r="V11">
-        <v>2.5816043871205018E-2</v>
-      </c>
-      <c r="W11">
-        <v>2.6802340002790349E-2</v>
-      </c>
-      <c r="X11">
-        <v>2.7709242474124346E-2</v>
-      </c>
-      <c r="Y11">
-        <v>2.8266463081472442E-2</v>
-      </c>
-      <c r="Z11">
-        <v>2.9602285841380322E-2</v>
-      </c>
-      <c r="AA11">
-        <v>2.9800597086928345E-2</v>
-      </c>
-      <c r="AB11">
-        <v>2.9926673085661236E-2</v>
-      </c>
-      <c r="AC11">
-        <v>3.0686532317852417E-2</v>
-      </c>
-      <c r="AD11">
-        <v>3.0739931355211997E-2</v>
-      </c>
-      <c r="AE11">
-        <v>3.1332340827549883E-2</v>
-      </c>
-      <c r="AF11">
-        <v>3.1653567699350973E-2</v>
-      </c>
-      <c r="AG11">
-        <v>3.1510209568809899E-2</v>
-      </c>
-      <c r="AH11">
-        <v>3.1318774505228332E-2</v>
-      </c>
-      <c r="AI11">
-        <v>3.0338995931770259E-2</v>
-      </c>
-      <c r="AJ11">
-        <v>2.9553773092297321E-2</v>
-      </c>
-      <c r="AK11">
-        <v>2.0890389601423726E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>6.492195932657297E-3</v>
-      </c>
-      <c r="C12">
-        <v>7.9007454180311642E-3</v>
-      </c>
-      <c r="D12">
-        <v>9.1879807908271365E-3</v>
-      </c>
-      <c r="E12">
-        <v>9.9215217051567099E-3</v>
-      </c>
-      <c r="F12">
-        <v>1.0723394378217522E-2</v>
-      </c>
-      <c r="G12">
-        <v>1.1947753179502354E-2</v>
-      </c>
-      <c r="H12">
-        <v>1.2982226818397606E-2</v>
-      </c>
-      <c r="I12">
-        <v>1.3949469283395103E-2</v>
-      </c>
-      <c r="J12">
-        <v>1.5300280049128171E-2</v>
-      </c>
-      <c r="K12">
-        <v>1.656729181667491E-2</v>
-      </c>
-      <c r="L12">
-        <v>1.751835568811708E-2</v>
-      </c>
-      <c r="M12">
-        <v>1.8994699129498648E-2</v>
-      </c>
-      <c r="N12">
-        <v>2.0179247681260008E-2</v>
-      </c>
-      <c r="O12">
-        <v>2.0913550207750851E-2</v>
-      </c>
-      <c r="P12">
-        <v>2.2085913830493412E-2</v>
-      </c>
-      <c r="Q12">
-        <v>2.3142741959250233E-2</v>
-      </c>
-      <c r="R12">
-        <v>2.357917475773437E-2</v>
-      </c>
-      <c r="S12">
-        <v>2.4405110181823772E-2</v>
-      </c>
-      <c r="T12">
-        <v>2.5455240592760199E-2</v>
-      </c>
-      <c r="U12">
-        <v>2.6378762388148635E-2</v>
-      </c>
-      <c r="V12">
-        <v>2.6417867165563987E-2</v>
-      </c>
-      <c r="W12">
-        <v>2.7162328895041814E-2</v>
-      </c>
-      <c r="X12">
-        <v>2.8537218622824528E-2</v>
-      </c>
-      <c r="Y12">
-        <v>2.8584308590441265E-2</v>
-      </c>
-      <c r="Z12">
-        <v>2.993509024875168E-2</v>
-      </c>
-      <c r="AA12">
-        <v>3.0322322928564838E-2</v>
-      </c>
-      <c r="AB12">
-        <v>3.0933871637991751E-2</v>
-      </c>
-      <c r="AC12">
-        <v>3.0747891133695582E-2</v>
-      </c>
-      <c r="AD12">
-        <v>3.1000268646740339E-2</v>
-      </c>
-      <c r="AE12">
-        <v>3.2292511802189706E-2</v>
-      </c>
-      <c r="AF12">
-        <v>3.1446819719422564E-2</v>
-      </c>
-      <c r="AG12">
-        <v>3.0640248588957902E-2</v>
-      </c>
-      <c r="AH12">
-        <v>3.0817716869453889E-2</v>
-      </c>
-      <c r="AI12">
-        <v>2.9953951499823848E-2</v>
-      </c>
-      <c r="AJ12">
-        <v>2.9647070755090744E-2</v>
-      </c>
-      <c r="AK12">
-        <v>2.0909362081331866E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>5.6828282502417709E-3</v>
-      </c>
-      <c r="C13">
-        <v>7.2672211523574747E-3</v>
-      </c>
-      <c r="D13">
-        <v>8.6118473341603562E-3</v>
-      </c>
-      <c r="E13">
-        <v>9.63936762930203E-3</v>
-      </c>
-      <c r="F13">
-        <v>1.0497823727808019E-2</v>
-      </c>
-      <c r="G13">
-        <v>1.1543219971741134E-2</v>
-      </c>
-      <c r="H13">
-        <v>1.2658865242404648E-2</v>
-      </c>
-      <c r="I13">
-        <v>1.387666192478009E-2</v>
-      </c>
-      <c r="J13">
-        <v>1.5239112156306361E-2</v>
-      </c>
-      <c r="K13">
-        <v>1.6305473951998828E-2</v>
-      </c>
-      <c r="L13">
-        <v>1.7546693874798021E-2</v>
-      </c>
-      <c r="M13">
-        <v>1.9091940392788099E-2</v>
-      </c>
-      <c r="N13">
-        <v>2.0297104395562801E-2</v>
-      </c>
-      <c r="O13">
-        <v>2.1249808294959364E-2</v>
-      </c>
-      <c r="P13">
-        <v>2.2313569522377678E-2</v>
-      </c>
-      <c r="Q13">
-        <v>2.3274417086859449E-2</v>
-      </c>
-      <c r="R13">
-        <v>2.3854572986080666E-2</v>
-      </c>
-      <c r="S13">
-        <v>2.4822892401548807E-2</v>
-      </c>
-      <c r="T13">
-        <v>2.5972949342164178E-2</v>
-      </c>
-      <c r="U13">
-        <v>2.6895038284867809E-2</v>
-      </c>
-      <c r="V13">
-        <v>2.7200144913595816E-2</v>
-      </c>
-      <c r="W13">
-        <v>2.7836799897503081E-2</v>
-      </c>
-      <c r="X13">
-        <v>2.8855176844513639E-2</v>
-      </c>
-      <c r="Y13">
-        <v>2.9422127943396187E-2</v>
-      </c>
-      <c r="Z13">
-        <v>3.0745101077810304E-2</v>
-      </c>
-      <c r="AA13">
-        <v>3.078299162212338E-2</v>
-      </c>
-      <c r="AB13">
-        <v>3.1388677147503929E-2</v>
-      </c>
-      <c r="AC13">
-        <v>3.1775671586712607E-2</v>
-      </c>
-      <c r="AD13">
-        <v>3.1891680699467323E-2</v>
-      </c>
-      <c r="AE13">
-        <v>3.1032065871608679E-2</v>
-      </c>
-      <c r="AF13">
-        <v>3.1310210065712087E-2</v>
-      </c>
-      <c r="AG13">
-        <v>3.0243974707330767E-2</v>
-      </c>
-      <c r="AH13">
-        <v>2.9995474793791402E-2</v>
-      </c>
-      <c r="AI13">
-        <v>2.8661122305413726E-2</v>
-      </c>
-      <c r="AJ13">
-        <v>2.9226320876952039E-2</v>
-      </c>
-      <c r="AK13">
-        <v>2.078018879656901E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>5.030512380322239E-3</v>
-      </c>
-      <c r="C14">
-        <v>6.7200642992952028E-3</v>
-      </c>
-      <c r="D14">
-        <v>8.2083557965908095E-3</v>
-      </c>
-      <c r="E14">
-        <v>9.3075003739773315E-3</v>
-      </c>
-      <c r="F14">
-        <v>1.0265607719498989E-2</v>
-      </c>
-      <c r="G14">
-        <v>1.1395825812651682E-2</v>
-      </c>
-      <c r="H14">
-        <v>1.2667735486128573E-2</v>
-      </c>
-      <c r="I14">
-        <v>1.3520814851268199E-2</v>
-      </c>
-      <c r="J14">
-        <v>1.4883074765758657E-2</v>
-      </c>
-      <c r="K14">
-        <v>1.6164638681593669E-2</v>
-      </c>
-      <c r="L14">
-        <v>1.735948770285177E-2</v>
-      </c>
-      <c r="M14">
-        <v>1.9032900136709271E-2</v>
-      </c>
-      <c r="N14">
-        <v>2.0224948616528869E-2</v>
-      </c>
-      <c r="O14">
-        <v>2.1261483326026714E-2</v>
-      </c>
-      <c r="P14">
-        <v>2.2354306056672796E-2</v>
-      </c>
-      <c r="Q14">
-        <v>2.3411433479578012E-2</v>
-      </c>
-      <c r="R14">
-        <v>2.4377259101344789E-2</v>
-      </c>
-      <c r="S14">
-        <v>2.4970435820160449E-2</v>
-      </c>
-      <c r="T14">
-        <v>2.6509312986880921E-2</v>
-      </c>
-      <c r="U14">
-        <v>2.7415026462430738E-2</v>
-      </c>
-      <c r="V14">
-        <v>2.7812372862152469E-2</v>
-      </c>
-      <c r="W14">
-        <v>2.8563620123385206E-2</v>
-      </c>
-      <c r="X14">
-        <v>2.9135963747932606E-2</v>
-      </c>
-      <c r="Y14">
-        <v>2.988133647173967E-2</v>
-      </c>
-      <c r="Z14">
-        <v>3.1163700703804312E-2</v>
-      </c>
-      <c r="AA14">
-        <v>3.1476517249381976E-2</v>
-      </c>
-      <c r="AB14">
-        <v>3.1697019668452439E-2</v>
-      </c>
-      <c r="AC14">
-        <v>3.1746574116308844E-2</v>
-      </c>
-      <c r="AD14">
-        <v>3.1893066089526724E-2</v>
-      </c>
-      <c r="AE14">
-        <v>3.2052359638134374E-2</v>
-      </c>
-      <c r="AF14">
-        <v>3.054831794997722E-2</v>
-      </c>
-      <c r="AG14">
-        <v>2.9609810255115426E-2</v>
-      </c>
-      <c r="AH14">
-        <v>2.9770227896351861E-2</v>
-      </c>
-      <c r="AI14">
-        <v>2.7089839767191502E-2</v>
-      </c>
-      <c r="AJ14">
-        <v>2.7032300455365817E-2</v>
-      </c>
-      <c r="AK14">
-        <v>2.0605331550780464E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>6.9182872613397228E-3</v>
-      </c>
-      <c r="C15">
-        <v>7.9762200405635933E-3</v>
-      </c>
-      <c r="D15">
-        <v>8.7473076500272501E-3</v>
-      </c>
-      <c r="E15">
-        <v>9.4026838821842824E-3</v>
-      </c>
-      <c r="F15">
-        <v>1.0170016001636509E-2</v>
-      </c>
-      <c r="G15">
-        <v>1.1208796763384507E-2</v>
-      </c>
-      <c r="H15">
-        <v>1.2080012821953747E-2</v>
-      </c>
-      <c r="I15">
-        <v>1.2963029454229589E-2</v>
-      </c>
-      <c r="J15">
-        <v>1.390456263022256E-2</v>
-      </c>
-      <c r="K15">
-        <v>1.4902288748960811E-2</v>
-      </c>
-      <c r="L15">
-        <v>1.5771987442230091E-2</v>
-      </c>
-      <c r="M15">
-        <v>1.6933352578806137E-2</v>
-      </c>
-      <c r="N15">
-        <v>1.8012428842823867E-2</v>
-      </c>
-      <c r="O15">
-        <v>1.8865479895028982E-2</v>
-      </c>
-      <c r="P15">
-        <v>1.9803660902283065E-2</v>
-      </c>
-      <c r="Q15">
-        <v>2.0741627771803651E-2</v>
-      </c>
-      <c r="R15">
-        <v>2.1392408483314553E-2</v>
-      </c>
-      <c r="S15">
-        <v>2.1992723647951413E-2</v>
-      </c>
-      <c r="T15">
-        <v>2.2893166149471612E-2</v>
-      </c>
-      <c r="U15">
-        <v>2.3747780369897518E-2</v>
-      </c>
-      <c r="V15">
-        <v>2.3993777822717176E-2</v>
-      </c>
-      <c r="W15">
-        <v>2.4435834999694768E-2</v>
-      </c>
-      <c r="X15">
-        <v>2.5223581070360945E-2</v>
-      </c>
-      <c r="Y15">
-        <v>2.5656066875925365E-2</v>
-      </c>
-      <c r="Z15">
-        <v>2.6862575699542108E-2</v>
-      </c>
-      <c r="AA15">
-        <v>2.7111169719143204E-2</v>
-      </c>
-      <c r="AB15">
-        <v>2.7528483406121407E-2</v>
-      </c>
-      <c r="AC15">
-        <v>2.7711589286531391E-2</v>
-      </c>
-      <c r="AD15">
-        <v>2.8011960274616169E-2</v>
-      </c>
-      <c r="AE15">
-        <v>2.8456201780092234E-2</v>
-      </c>
-      <c r="AF15">
-        <v>2.8891148913576588E-2</v>
-      </c>
-      <c r="AG15">
-        <v>2.8640747820344311E-2</v>
-      </c>
-      <c r="AH15">
-        <v>2.8980219858841038E-2</v>
-      </c>
-      <c r="AI15">
-        <v>2.8613330069699097E-2</v>
-      </c>
-      <c r="AJ15">
-        <v>2.8512218596155565E-2</v>
-      </c>
-      <c r="AK15">
-        <v>1.93457888910359E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>3.2292511802189706E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5883,112 +5252,112 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.0285926864198776E-3</v>
+        <v>7.0446608883535508E-3</v>
       </c>
       <c r="C5">
-        <v>4.8189019239090903E-3</v>
+        <v>7.444485775717641E-3</v>
       </c>
       <c r="D5">
-        <v>5.5863867083071209E-3</v>
+        <v>7.6708208228962564E-3</v>
       </c>
       <c r="E5">
-        <v>6.3229761891225988E-3</v>
+        <v>7.986493863434363E-3</v>
       </c>
       <c r="F5">
-        <v>6.6706151271477016E-3</v>
+        <v>8.5019146183821243E-3</v>
       </c>
       <c r="G5">
-        <v>6.8200457656494478E-3</v>
+        <v>9.0330326918631153E-3</v>
       </c>
       <c r="H5">
-        <v>7.1528901893010586E-3</v>
+        <v>9.5805497404367595E-3</v>
       </c>
       <c r="I5">
-        <v>7.2297071976886815E-3</v>
+        <v>1.0071934358053609E-2</v>
       </c>
       <c r="J5">
-        <v>7.5808021306215606E-3</v>
+        <v>1.0609828031861062E-2</v>
       </c>
       <c r="K5">
-        <v>7.752392158501327E-3</v>
+        <v>1.1113216349895079E-2</v>
       </c>
       <c r="L5">
-        <v>1.12537523221731E-2</v>
+        <v>1.1830034135429102E-2</v>
       </c>
       <c r="M5">
-        <v>1.1444955269951618E-2</v>
+        <v>1.2410005729949108E-2</v>
       </c>
       <c r="N5">
-        <v>1.2627854863026828E-2</v>
+        <v>1.3199681405110708E-2</v>
       </c>
       <c r="O5">
-        <v>1.0684665080296184E-2</v>
+        <v>1.4099038634932644E-2</v>
       </c>
       <c r="P5">
-        <v>1.0996874734789159E-2</v>
+        <v>1.4682990162294178E-2</v>
       </c>
       <c r="Q5">
-        <v>1.1853346086460138E-2</v>
+        <v>1.55249768675528E-2</v>
       </c>
       <c r="R5">
-        <v>1.2440374691652472E-2</v>
+        <v>1.6385315210788131E-2</v>
       </c>
       <c r="S5">
-        <v>1.2451520697320653E-2</v>
+        <v>1.6831928499894282E-2</v>
       </c>
       <c r="T5">
-        <v>1.2533623623541958E-2</v>
+        <v>1.7536419446296615E-2</v>
       </c>
       <c r="U5">
-        <v>1.3221518304353145E-2</v>
+        <v>1.8084482530051186E-2</v>
       </c>
       <c r="V5">
-        <v>1.4482708668164059E-2</v>
+        <v>1.8425102125747307E-2</v>
       </c>
       <c r="W5">
-        <v>1.4718068729489395E-2</v>
+        <v>1.8530155393554151E-2</v>
       </c>
       <c r="X5">
-        <v>1.520405411102092E-2</v>
+        <v>1.9147729177488765E-2</v>
       </c>
       <c r="Y5">
-        <v>1.5482348539720761E-2</v>
+        <v>1.9486566190682029E-2</v>
       </c>
       <c r="Z5">
-        <v>1.6229536218802947E-2</v>
+        <v>2.0209398584095616E-2</v>
       </c>
       <c r="AA5">
-        <v>1.6537943216298586E-2</v>
+        <v>2.0593619279690504E-2</v>
       </c>
       <c r="AB5">
-        <v>1.7062919305911438E-2</v>
+        <v>2.1134998628167496E-2</v>
       </c>
       <c r="AC5">
-        <v>1.7094820196374497E-2</v>
+        <v>2.1128273803951145E-2</v>
       </c>
       <c r="AD5">
-        <v>1.7877435811964083E-2</v>
+        <v>2.1552110091090683E-2</v>
       </c>
       <c r="AE5">
-        <v>1.7836147813983367E-2</v>
+        <v>2.2188796140090037E-2</v>
       </c>
       <c r="AF5">
-        <v>1.8824962784721285E-2</v>
+        <v>2.3079071445952434E-2</v>
       </c>
       <c r="AG5">
-        <v>1.9412530810522653E-2</v>
+        <v>2.3691504540484215E-2</v>
       </c>
       <c r="AH5">
-        <v>2.3098780200138242E-2</v>
+        <v>2.3812581655699692E-2</v>
       </c>
       <c r="AI5">
-        <v>2.3348190732448537E-2</v>
+        <v>2.4182876432116394E-2</v>
       </c>
       <c r="AJ5">
-        <v>2.3854236848706818E-2</v>
+        <v>2.4559599304822013E-2</v>
       </c>
       <c r="AK5">
-        <v>1.2881739993543802E-2</v>
+        <v>1.5465457633041578E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
@@ -5996,112 +5365,112 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4.41633367802329E-3</v>
+        <v>7.5434586071211982E-3</v>
       </c>
       <c r="C6">
-        <v>5.1216865193783158E-3</v>
+        <v>8.0298829882484574E-3</v>
       </c>
       <c r="D6">
-        <v>6.1141565640283847E-3</v>
+        <v>8.3782897093248321E-3</v>
       </c>
       <c r="E6">
-        <v>7.0122245355706842E-3</v>
+        <v>8.8208201610171545E-3</v>
       </c>
       <c r="F6">
-        <v>7.2281147337233554E-3</v>
+        <v>9.0828733040127403E-3</v>
       </c>
       <c r="G6">
-        <v>7.7292757260171603E-3</v>
+        <v>1.026767883542383E-2</v>
       </c>
       <c r="H6">
-        <v>7.8385209542153854E-3</v>
+        <v>1.0773747872432448E-2</v>
       </c>
       <c r="I6">
-        <v>8.0265864594320467E-3</v>
+        <v>1.1188276388041096E-2</v>
       </c>
       <c r="J6">
-        <v>8.2319618118570411E-3</v>
+        <v>1.1992185626541219E-2</v>
       </c>
       <c r="K6">
-        <v>1.1850182777217133E-2</v>
+        <v>1.2746911266587254E-2</v>
       </c>
       <c r="L6">
-        <v>1.2271254304734485E-2</v>
+        <v>1.3286300890020487E-2</v>
       </c>
       <c r="M6">
-        <v>1.1044410250891711E-2</v>
+        <v>1.4203950464421267E-2</v>
       </c>
       <c r="N6">
-        <v>1.1738732410040828E-2</v>
+        <v>1.504872795837703E-2</v>
       </c>
       <c r="O6">
-        <v>1.2007074706149444E-2</v>
+        <v>1.5984902601037906E-2</v>
       </c>
       <c r="P6">
-        <v>1.262946623441422E-2</v>
+        <v>1.6506027271116833E-2</v>
       </c>
       <c r="Q6">
-        <v>1.339862054956785E-2</v>
+        <v>1.722140497019314E-2</v>
       </c>
       <c r="R6">
-        <v>1.3609037591653364E-2</v>
+        <v>1.8355707576910331E-2</v>
       </c>
       <c r="S6">
-        <v>1.3512031551582529E-2</v>
+        <v>1.8678749566596802E-2</v>
       </c>
       <c r="T6">
-        <v>1.4441715585232924E-2</v>
+        <v>1.9399188925031327E-2</v>
       </c>
       <c r="U6">
-        <v>1.5789460491987071E-2</v>
+        <v>2.001513173375959E-2</v>
       </c>
       <c r="V6">
-        <v>1.6126031263286839E-2</v>
+        <v>2.0393871377513008E-2</v>
       </c>
       <c r="W6">
-        <v>1.651762555899873E-2</v>
+        <v>2.0674804590186325E-2</v>
       </c>
       <c r="X6">
-        <v>1.6952228951327062E-2</v>
+        <v>2.1318585205317962E-2</v>
       </c>
       <c r="Y6">
-        <v>1.7489474510746585E-2</v>
+        <v>2.1564840689492059E-2</v>
       </c>
       <c r="Z6">
-        <v>1.7993081809014492E-2</v>
+        <v>2.2507702723456778E-2</v>
       </c>
       <c r="AA6">
-        <v>1.8354529040570829E-2</v>
+        <v>2.2736208962346759E-2</v>
       </c>
       <c r="AB6">
-        <v>1.8754305170313675E-2</v>
+        <v>2.3276887516614667E-2</v>
       </c>
       <c r="AC6">
-        <v>1.8967918708700439E-2</v>
+        <v>2.3568208339297032E-2</v>
       </c>
       <c r="AD6">
-        <v>1.9790988052444239E-2</v>
+        <v>2.3867695860948869E-2</v>
       </c>
       <c r="AE6">
-        <v>2.0703244556360963E-2</v>
+        <v>2.4615143623908469E-2</v>
       </c>
       <c r="AF6">
-        <v>2.1347372713085268E-2</v>
+        <v>2.5661105713113318E-2</v>
       </c>
       <c r="AG6">
-        <v>2.1912421203827647E-2</v>
+        <v>2.5551592552803905E-2</v>
       </c>
       <c r="AH6">
-        <v>2.2055062678986357E-2</v>
+        <v>2.6380665110540383E-2</v>
       </c>
       <c r="AI6">
-        <v>2.2262470444689049E-2</v>
+        <v>2.6453697611525682E-2</v>
       </c>
       <c r="AJ6">
-        <v>2.5817969795165381E-2</v>
+        <v>2.7227318947124903E-2</v>
       </c>
       <c r="AK6">
-        <v>1.4133138624583397E-2</v>
+        <v>1.7110893678687726E-2</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
@@ -6109,112 +5478,112 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4.2434304902650832E-3</v>
+        <v>7.7142197890202923E-3</v>
       </c>
       <c r="C7">
-        <v>5.386834414230551E-3</v>
+        <v>8.3981983419789078E-3</v>
       </c>
       <c r="D7">
-        <v>6.439414603137553E-3</v>
+        <v>8.8246621286637277E-3</v>
       </c>
       <c r="E7">
-        <v>7.2406848981328214E-3</v>
+        <v>9.0480121307409955E-3</v>
       </c>
       <c r="F7">
-        <v>7.8645181754308322E-3</v>
+        <v>9.8150107929983726E-3</v>
       </c>
       <c r="G7">
-        <v>8.1707332440723243E-3</v>
+        <v>1.0831759169876141E-2</v>
       </c>
       <c r="H7">
-        <v>8.4057879025985077E-3</v>
+        <v>1.1458285016085527E-2</v>
       </c>
       <c r="I7">
-        <v>8.6492611919100418E-3</v>
+        <v>1.2349255576319447E-2</v>
       </c>
       <c r="J7">
-        <v>1.2542900196742198E-2</v>
+        <v>1.318040783044897E-2</v>
       </c>
       <c r="K7">
-        <v>1.0857502287328369E-2</v>
+        <v>1.3651053675662697E-2</v>
       </c>
       <c r="L7">
-        <v>1.1514554135427879E-2</v>
+        <v>1.4426515222360702E-2</v>
       </c>
       <c r="M7">
-        <v>1.2212532392335954E-2</v>
+        <v>1.5285760686980438E-2</v>
       </c>
       <c r="N7">
-        <v>1.2601402247747378E-2</v>
+        <v>1.6391417306243501E-2</v>
       </c>
       <c r="O7">
-        <v>1.3104575913542223E-2</v>
+        <v>1.7575338742324795E-2</v>
       </c>
       <c r="P7">
-        <v>1.3641180126816905E-2</v>
+        <v>1.8427435461401895E-2</v>
       </c>
       <c r="Q7">
-        <v>1.416899349506833E-2</v>
+        <v>1.9030379460254751E-2</v>
       </c>
       <c r="R7">
-        <v>1.4742968350733082E-2</v>
+        <v>1.9834461221366253E-2</v>
       </c>
       <c r="S7">
-        <v>1.5120093832464732E-2</v>
+        <v>2.0604370769074794E-2</v>
       </c>
       <c r="T7">
-        <v>1.5900064293708167E-2</v>
+        <v>2.1300245536295278E-2</v>
       </c>
       <c r="U7">
-        <v>1.6861183041580626E-2</v>
+        <v>2.1829374923633346E-2</v>
       </c>
       <c r="V7">
-        <v>1.748249835687532E-2</v>
+        <v>2.209443370582001E-2</v>
       </c>
       <c r="W7">
-        <v>1.7959680632487807E-2</v>
+        <v>2.2175313617166483E-2</v>
       </c>
       <c r="X7">
-        <v>1.809250724389725E-2</v>
+        <v>2.2754751994512469E-2</v>
       </c>
       <c r="Y7">
-        <v>1.8773905406847521E-2</v>
+        <v>2.3084754061823747E-2</v>
       </c>
       <c r="Z7">
-        <v>1.9759957434438709E-2</v>
+        <v>2.4399025737430042E-2</v>
       </c>
       <c r="AA7">
-        <v>1.9981308328765164E-2</v>
+        <v>2.4755969210126103E-2</v>
       </c>
       <c r="AB7">
-        <v>2.0434192190953868E-2</v>
+        <v>2.5133780388026702E-2</v>
       </c>
       <c r="AC7">
-        <v>2.077950753705942E-2</v>
+        <v>2.5479120135362958E-2</v>
       </c>
       <c r="AD7">
-        <v>2.168173483722036E-2</v>
+        <v>2.5631743940509114E-2</v>
       </c>
       <c r="AE7">
-        <v>2.2702141830148188E-2</v>
+        <v>2.6231127017330585E-2</v>
       </c>
       <c r="AF7">
-        <v>2.322106716182628E-2</v>
+        <v>2.7051507008114099E-2</v>
       </c>
       <c r="AG7">
-        <v>2.3485836897044844E-2</v>
+        <v>2.7283881392017029E-2</v>
       </c>
       <c r="AH7">
-        <v>2.389485084154468E-2</v>
+        <v>2.8382557753762812E-2</v>
       </c>
       <c r="AI7">
-        <v>2.4171947551423451E-2</v>
+        <v>2.8369590965750362E-2</v>
       </c>
       <c r="AJ7">
-        <v>2.4727831597806133E-2</v>
+        <v>2.8834171603478304E-2</v>
       </c>
       <c r="AK7">
-        <v>1.5184355952198147E-2</v>
+        <v>1.8367366916495625E-2</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -6222,112 +5591,112 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3.6421523759779056E-3</v>
+        <v>7.7553318804133922E-3</v>
       </c>
       <c r="C8">
-        <v>5.0946253265555224E-3</v>
+        <v>8.5250865030729664E-3</v>
       </c>
       <c r="D8">
-        <v>6.5007390469545576E-3</v>
+        <v>9.1393919929777766E-3</v>
       </c>
       <c r="E8">
-        <v>7.5667353184472345E-3</v>
+        <v>9.5208557589471117E-3</v>
       </c>
       <c r="F8">
-        <v>8.042679614198734E-3</v>
+        <v>1.0286920824917689E-2</v>
       </c>
       <c r="G8">
-        <v>8.5021704447484862E-3</v>
+        <v>1.1387802693551543E-2</v>
       </c>
       <c r="H8">
-        <v>8.8149885727495936E-3</v>
+        <v>1.2223690517737645E-2</v>
       </c>
       <c r="I8">
-        <v>1.2283559093667719E-2</v>
+        <v>1.3241215165190445E-2</v>
       </c>
       <c r="J8">
-        <v>1.2932904261001623E-2</v>
+        <v>1.385251230230543E-2</v>
       </c>
       <c r="K8">
-        <v>1.1623397316942723E-2</v>
+        <v>1.4693743877294552E-2</v>
       </c>
       <c r="L8">
-        <v>1.2407796205641459E-2</v>
+        <v>1.5514447520573902E-2</v>
       </c>
       <c r="M8">
-        <v>1.3101135149506865E-2</v>
+        <v>1.6601925725858103E-2</v>
       </c>
       <c r="N8">
-        <v>1.3398995070146847E-2</v>
+        <v>1.7757563533530332E-2</v>
       </c>
       <c r="O8">
-        <v>1.4146804280082798E-2</v>
+        <v>1.8469964335057883E-2</v>
       </c>
       <c r="P8">
-        <v>1.4503471338223202E-2</v>
+        <v>1.9367576592142149E-2</v>
       </c>
       <c r="Q8">
-        <v>1.5137703000860524E-2</v>
+        <v>2.0469286784004892E-2</v>
       </c>
       <c r="R8">
-        <v>1.5833001900858169E-2</v>
+        <v>2.0799593248139202E-2</v>
       </c>
       <c r="S8">
-        <v>1.6476836545829373E-2</v>
+        <v>2.1307582140063668E-2</v>
       </c>
       <c r="T8">
-        <v>1.7074239647903808E-2</v>
+        <v>2.2036750202206849E-2</v>
       </c>
       <c r="U8">
-        <v>1.8037100110800008E-2</v>
+        <v>2.2920547239811483E-2</v>
       </c>
       <c r="V8">
-        <v>1.8373198213228303E-2</v>
+        <v>2.3581849201844425E-2</v>
       </c>
       <c r="W8">
-        <v>1.8864977901928769E-2</v>
+        <v>2.3723587077882888E-2</v>
       </c>
       <c r="X8">
-        <v>1.9920389961694047E-2</v>
+        <v>2.4512801566492378E-2</v>
       </c>
       <c r="Y8">
-        <v>2.0539467600328837E-2</v>
+        <v>2.4448278961018425E-2</v>
       </c>
       <c r="Z8">
-        <v>2.107159159698585E-2</v>
+        <v>2.6166739247942248E-2</v>
       </c>
       <c r="AA8">
-        <v>2.1489247984493313E-2</v>
+        <v>2.666836221566856E-2</v>
       </c>
       <c r="AB8">
-        <v>2.1853554041558521E-2</v>
+        <v>2.6670607848941968E-2</v>
       </c>
       <c r="AC8">
-        <v>2.2236795523939062E-2</v>
+        <v>2.7257220847627179E-2</v>
       </c>
       <c r="AD8">
-        <v>2.3761497635603583E-2</v>
+        <v>2.7227269026236404E-2</v>
       </c>
       <c r="AE8">
-        <v>2.4274048263989313E-2</v>
+        <v>2.7798620512759983E-2</v>
       </c>
       <c r="AF8">
-        <v>2.4744838968325057E-2</v>
+        <v>2.9059921551915786E-2</v>
       </c>
       <c r="AG8">
-        <v>2.5068783318549889E-2</v>
+        <v>2.9008696971745226E-2</v>
       </c>
       <c r="AH8">
-        <v>2.5656423638040719E-2</v>
+        <v>2.9751678921396341E-2</v>
       </c>
       <c r="AI8">
-        <v>2.6499513893392605E-2</v>
+        <v>3.0084041605981823E-2</v>
       </c>
       <c r="AJ8">
-        <v>2.6673570409334199E-2</v>
+        <v>3.0323143014982779E-2</v>
       </c>
       <c r="AK8">
-        <v>1.6276972769796543E-2</v>
+        <v>1.9382454356248007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
@@ -6335,112 +5704,112 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.7392315380852777E-3</v>
+        <v>7.655989790190252E-3</v>
       </c>
       <c r="C9">
-        <v>4.2974354035624236E-3</v>
+        <v>8.709783012361064E-3</v>
       </c>
       <c r="D9">
-        <v>5.8268940681141653E-3</v>
+        <v>9.1141509877513075E-3</v>
       </c>
       <c r="E9">
-        <v>7.3103626594937434E-3</v>
+        <v>9.9036642101626195E-3</v>
       </c>
       <c r="F9">
-        <v>8.3451725614147806E-3</v>
+        <v>1.0674137534023822E-2</v>
       </c>
       <c r="G9">
-        <v>8.7946488299517848E-3</v>
+        <v>1.1800078734573193E-2</v>
       </c>
       <c r="H9">
-        <v>9.1580090777016541E-3</v>
+        <v>1.2733328509697057E-2</v>
       </c>
       <c r="I9">
-        <v>1.3128666995819526E-2</v>
+        <v>1.3766191787136528E-2</v>
       </c>
       <c r="J9">
-        <v>1.1448306882844272E-2</v>
+        <v>1.4341192266421854E-2</v>
       </c>
       <c r="K9">
-        <v>1.2015480742089746E-2</v>
+        <v>1.5564499665898502E-2</v>
       </c>
       <c r="L9">
-        <v>1.2997993001076213E-2</v>
+        <v>1.6418401595981263E-2</v>
       </c>
       <c r="M9">
-        <v>1.3515186973559513E-2</v>
+        <v>1.7469943478652925E-2</v>
       </c>
       <c r="N9">
-        <v>1.4183221611827281E-2</v>
+        <v>1.8637776077616647E-2</v>
       </c>
       <c r="O9">
-        <v>1.4690159337976754E-2</v>
+        <v>1.9283576659371759E-2</v>
       </c>
       <c r="P9">
-        <v>1.5216721903666268E-2</v>
+        <v>2.0314156105293336E-2</v>
       </c>
       <c r="Q9">
-        <v>1.5863407486980105E-2</v>
+        <v>2.1501867164836323E-2</v>
       </c>
       <c r="R9">
-        <v>1.6645934059565791E-2</v>
+        <v>2.1866067251390814E-2</v>
       </c>
       <c r="S9">
-        <v>1.7431331663387624E-2</v>
+        <v>2.2423183942549635E-2</v>
       </c>
       <c r="T9">
-        <v>1.8489956360579526E-2</v>
+        <v>2.3143820103367622E-2</v>
       </c>
       <c r="U9">
-        <v>1.9014437655009622E-2</v>
+        <v>2.4317013367001854E-2</v>
       </c>
       <c r="V9">
-        <v>1.9740237957841991E-2</v>
+        <v>2.4239026149086317E-2</v>
       </c>
       <c r="W9">
-        <v>2.0212380475919816E-2</v>
+        <v>2.476501685404876E-2</v>
       </c>
       <c r="X9">
-        <v>2.1110531857858057E-2</v>
+        <v>2.5633931698446678E-2</v>
       </c>
       <c r="Y9">
-        <v>2.177169752866695E-2</v>
+        <v>2.6316646583269026E-2</v>
       </c>
       <c r="Z9">
-        <v>2.241226560275492E-2</v>
+        <v>2.7525545041568764E-2</v>
       </c>
       <c r="AA9">
-        <v>2.2914669331785271E-2</v>
+        <v>2.7725343064291069E-2</v>
       </c>
       <c r="AB9">
-        <v>2.3202478007038327E-2</v>
+        <v>2.8446829785929727E-2</v>
       </c>
       <c r="AC9">
-        <v>2.4166679331375212E-2</v>
+        <v>2.8309432121678402E-2</v>
       </c>
       <c r="AD9">
-        <v>2.4536055880161604E-2</v>
+        <v>2.8882715299510555E-2</v>
       </c>
       <c r="AE9">
-        <v>2.5556446693771055E-2</v>
+        <v>2.9438455608327248E-2</v>
       </c>
       <c r="AF9">
-        <v>2.5932519317044826E-2</v>
+        <v>3.0467180481120796E-2</v>
       </c>
       <c r="AG9">
-        <v>2.6775705394906455E-2</v>
+        <v>3.0645616601610956E-2</v>
       </c>
       <c r="AH9">
-        <v>2.7315225592939269E-2</v>
+        <v>3.0546562368285467E-2</v>
       </c>
       <c r="AI9">
-        <v>2.7631688757435859E-2</v>
+        <v>3.144015334608477E-2</v>
       </c>
       <c r="AJ9">
-        <v>2.7390524933933947E-2</v>
+        <v>3.0197669860565823E-2</v>
       </c>
       <c r="AK9">
-        <v>1.6977138334519373E-2</v>
+        <v>2.0151072267443785E-2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
@@ -6448,112 +5817,112 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.7456891933289016E-3</v>
+        <v>7.3926920396290537E-3</v>
       </c>
       <c r="C10">
-        <v>3.2507136507998512E-3</v>
+        <v>8.5512107029758807E-3</v>
       </c>
       <c r="D10">
-        <v>5.1645666498282743E-3</v>
+        <v>9.2493896713130436E-3</v>
       </c>
       <c r="E10">
-        <v>6.6055559422258294E-3</v>
+        <v>9.9555228945617941E-3</v>
       </c>
       <c r="F10">
-        <v>7.7478416878398381E-3</v>
+        <v>1.0977147581398321E-2</v>
       </c>
       <c r="G10">
-        <v>9.0201418473029506E-3</v>
+        <v>1.2051129438077917E-2</v>
       </c>
       <c r="H10">
-        <v>9.4003548055473281E-3</v>
+        <v>1.2960250476649563E-2</v>
       </c>
       <c r="I10">
-        <v>9.6744970612670216E-3</v>
+        <v>1.3874163275504317E-2</v>
       </c>
       <c r="J10">
-        <v>1.1917566407375266E-2</v>
+        <v>1.4889039606634498E-2</v>
       </c>
       <c r="K10">
-        <v>1.2315606994947083E-2</v>
+        <v>1.6135049248579857E-2</v>
       </c>
       <c r="L10">
-        <v>1.3423858162260964E-2</v>
+        <v>1.7047555916488433E-2</v>
       </c>
       <c r="M10">
-        <v>1.3613378021115908E-2</v>
+        <v>1.8189516850686767E-2</v>
       </c>
       <c r="N10">
-        <v>1.4794974335658998E-2</v>
+        <v>1.931641876971469E-2</v>
       </c>
       <c r="O10">
-        <v>1.4983171577590012E-2</v>
+        <v>2.0041364007388752E-2</v>
       </c>
       <c r="P10">
-        <v>1.5628353159830743E-2</v>
+        <v>2.1148565709651627E-2</v>
       </c>
       <c r="Q10">
-        <v>1.6713240558757489E-2</v>
+        <v>2.2226012341357248E-2</v>
       </c>
       <c r="R10">
-        <v>1.7115231006485872E-2</v>
+        <v>2.2473041853880445E-2</v>
       </c>
       <c r="S10">
-        <v>1.8042292005689783E-2</v>
+        <v>2.3153442835532841E-2</v>
       </c>
       <c r="T10">
-        <v>1.9129217926735057E-2</v>
+        <v>2.4090877530393573E-2</v>
       </c>
       <c r="U10">
-        <v>1.9835536133305971E-2</v>
+        <v>2.5058396488080576E-2</v>
       </c>
       <c r="V10">
-        <v>2.0913317821868161E-2</v>
+        <v>2.5488724518158479E-2</v>
       </c>
       <c r="W10">
-        <v>2.1375269213128992E-2</v>
+        <v>2.5926234632360635E-2</v>
       </c>
       <c r="X10">
-        <v>2.2206113862001914E-2</v>
+        <v>2.6584577342320802E-2</v>
       </c>
       <c r="Y10">
-        <v>2.2617168691257478E-2</v>
+        <v>2.7551269144822622E-2</v>
       </c>
       <c r="Z10">
-        <v>2.327462798854648E-2</v>
+        <v>2.8696979426544981E-2</v>
       </c>
       <c r="AA10">
-        <v>2.3693363627450201E-2</v>
+        <v>2.8792201297346543E-2</v>
       </c>
       <c r="AB10">
-        <v>2.462264499895666E-2</v>
+        <v>2.9311702393864453E-2</v>
       </c>
       <c r="AC10">
-        <v>2.5267255481857508E-2</v>
+        <v>2.9348473498135654E-2</v>
       </c>
       <c r="AD10">
-        <v>2.5569044065347817E-2</v>
+        <v>3.0384989887662285E-2</v>
       </c>
       <c r="AE10">
-        <v>2.6986962788011697E-2</v>
+        <v>3.0867655318161089E-2</v>
       </c>
       <c r="AF10">
-        <v>2.7601306396842863E-2</v>
+        <v>3.157231949411371E-2</v>
       </c>
       <c r="AG10">
-        <v>2.8107159991387479E-2</v>
+        <v>3.099720579132148E-2</v>
       </c>
       <c r="AH10">
-        <v>2.8417756760149567E-2</v>
+        <v>3.1678264974030756E-2</v>
       </c>
       <c r="AI10">
-        <v>2.8780037961805938E-2</v>
+        <v>3.0924919526264801E-2</v>
       </c>
       <c r="AJ10">
-        <v>2.8732535396568358E-2</v>
+        <v>2.9684164592484869E-2</v>
       </c>
       <c r="AK10">
-        <v>1.7425473327564767E-2</v>
+        <v>2.0647095008724119E-2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
@@ -6561,112 +5930,112 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.7543093616269919E-3</v>
+        <v>6.9192589954489578E-3</v>
       </c>
       <c r="C11">
-        <v>2.2271192305793525E-3</v>
+        <v>8.2542970971966906E-3</v>
       </c>
       <c r="D11">
-        <v>3.7836115880651015E-3</v>
+        <v>9.1302332676360433E-3</v>
       </c>
       <c r="E11">
-        <v>5.61833800307534E-3</v>
+        <v>9.9794113576843462E-3</v>
       </c>
       <c r="F11">
-        <v>7.1308884800046551E-3</v>
+        <v>1.0973068162472122E-2</v>
       </c>
       <c r="G11">
-        <v>8.3172244577755551E-3</v>
+        <v>1.1961999739859093E-2</v>
       </c>
       <c r="H11">
-        <v>9.5477128119728846E-3</v>
+        <v>1.2967120343784385E-2</v>
       </c>
       <c r="I11">
-        <v>9.9454078368276695E-3</v>
+        <v>1.4094767029981489E-2</v>
       </c>
       <c r="J11">
-        <v>1.1928670318851531E-2</v>
+        <v>1.5112978563151141E-2</v>
       </c>
       <c r="K11">
-        <v>1.2682588046307376E-2</v>
+        <v>1.6552791966905147E-2</v>
       </c>
       <c r="L11">
-        <v>1.3858084931216794E-2</v>
+        <v>1.7297986082620807E-2</v>
       </c>
       <c r="M11">
-        <v>1.3715537541207874E-2</v>
+        <v>1.8723978045224954E-2</v>
       </c>
       <c r="N11">
-        <v>1.4970816405252333E-2</v>
+        <v>1.9846395146899308E-2</v>
       </c>
       <c r="O11">
-        <v>1.5239491673012921E-2</v>
+        <v>2.0613495897156338E-2</v>
       </c>
       <c r="P11">
-        <v>1.6100893994093837E-2</v>
+        <v>2.176919637239259E-2</v>
       </c>
       <c r="Q11">
-        <v>1.7158723052054268E-2</v>
+        <v>2.2694747401623701E-2</v>
       </c>
       <c r="R11">
-        <v>1.7757492715926842E-2</v>
+        <v>2.345387346403963E-2</v>
       </c>
       <c r="S11">
-        <v>1.8807111380232947E-2</v>
+        <v>2.3845473745906065E-2</v>
       </c>
       <c r="T11">
-        <v>1.9712129180620628E-2</v>
+        <v>2.4875742869291246E-2</v>
       </c>
       <c r="U11">
-        <v>2.0772546509660917E-2</v>
+        <v>2.6053405175793867E-2</v>
       </c>
       <c r="V11">
-        <v>2.1576933266199885E-2</v>
+        <v>2.5816043871205018E-2</v>
       </c>
       <c r="W11">
-        <v>2.2461103151684546E-2</v>
+        <v>2.6802340002790349E-2</v>
       </c>
       <c r="X11">
-        <v>2.2930660749016122E-2</v>
+        <v>2.7709242474124346E-2</v>
       </c>
       <c r="Y11">
-        <v>2.4977116668417218E-2</v>
+        <v>2.8266463081472442E-2</v>
       </c>
       <c r="Z11">
-        <v>2.5905654060315201E-2</v>
+        <v>2.9602285841380322E-2</v>
       </c>
       <c r="AA11">
-        <v>2.6386379529632534E-2</v>
+        <v>2.9800597086928345E-2</v>
       </c>
       <c r="AB11">
-        <v>2.6924611846156236E-2</v>
+        <v>2.9926673085661236E-2</v>
       </c>
       <c r="AC11">
-        <v>2.7780800158759507E-2</v>
+        <v>3.0686532317852417E-2</v>
       </c>
       <c r="AD11">
-        <v>2.6665567218074136E-2</v>
+        <v>3.0739931355211997E-2</v>
       </c>
       <c r="AE11">
-        <v>2.7871354540704177E-2</v>
+        <v>3.1332340827549883E-2</v>
       </c>
       <c r="AF11">
-        <v>2.8746512290148275E-2</v>
+        <v>3.1653567699350973E-2</v>
       </c>
       <c r="AG11">
-        <v>2.9221928202525768E-2</v>
+        <v>3.1510209568809899E-2</v>
       </c>
       <c r="AH11">
-        <v>2.9694672286575689E-2</v>
+        <v>3.1318774505228332E-2</v>
       </c>
       <c r="AI11">
-        <v>2.9945127272906994E-2</v>
+        <v>3.0338995931770259E-2</v>
       </c>
       <c r="AJ11">
-        <v>3.1326379334574453E-2</v>
+        <v>2.9553773092297321E-2</v>
       </c>
       <c r="AK11">
-        <v>1.8145218645328854E-2</v>
+        <v>2.0890389601423726E-2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
@@ -6674,112 +6043,112 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2.8428896695881331E-3</v>
+        <v>6.492195932657297E-3</v>
       </c>
       <c r="C12">
-        <v>2.6030352486173781E-3</v>
+        <v>7.9007454180311642E-3</v>
       </c>
       <c r="D12">
-        <v>2.802199350041037E-3</v>
+        <v>9.1879807908271365E-3</v>
       </c>
       <c r="E12">
-        <v>4.5648290245905382E-3</v>
+        <v>9.9215217051567099E-3</v>
       </c>
       <c r="F12">
-        <v>6.1991298900411539E-3</v>
+        <v>1.0723394378217522E-2</v>
       </c>
       <c r="G12">
-        <v>7.8394808277313897E-3</v>
+        <v>1.1947753179502354E-2</v>
       </c>
       <c r="H12">
-        <v>8.986953140428168E-3</v>
+        <v>1.2982226818397606E-2</v>
       </c>
       <c r="I12">
-        <v>9.8596859348230835E-3</v>
+        <v>1.3949469283395103E-2</v>
       </c>
       <c r="J12">
-        <v>9.9842249111840708E-3</v>
+        <v>1.5300280049128171E-2</v>
       </c>
       <c r="K12">
-        <v>1.2409031561665253E-2</v>
+        <v>1.656729181667491E-2</v>
       </c>
       <c r="L12">
-        <v>1.3531122088650734E-2</v>
+        <v>1.751835568811708E-2</v>
       </c>
       <c r="M12">
-        <v>1.411362483564293E-2</v>
+        <v>1.8994699129498648E-2</v>
       </c>
       <c r="N12">
-        <v>1.4532121490778611E-2</v>
+        <v>2.0179247681260008E-2</v>
       </c>
       <c r="O12">
-        <v>1.5303174333656088E-2</v>
+        <v>2.0913550207750851E-2</v>
       </c>
       <c r="P12">
-        <v>1.6017078540079659E-2</v>
+        <v>2.2085913830493412E-2</v>
       </c>
       <c r="Q12">
-        <v>1.7433572045155547E-2</v>
+        <v>2.3142741959250233E-2</v>
       </c>
       <c r="R12">
-        <v>1.8083093355967493E-2</v>
+        <v>2.357917475773437E-2</v>
       </c>
       <c r="S12">
-        <v>1.9153660387264983E-2</v>
+        <v>2.4405110181823772E-2</v>
       </c>
       <c r="T12">
-        <v>2.0377311688925648E-2</v>
+        <v>2.5455240592760199E-2</v>
       </c>
       <c r="U12">
-        <v>2.1352745461112016E-2</v>
+        <v>2.6378762388148635E-2</v>
       </c>
       <c r="V12">
-        <v>2.3865692952673996E-2</v>
+        <v>2.6417867165563987E-2</v>
       </c>
       <c r="W12">
-        <v>2.4552414111232004E-2</v>
+        <v>2.7162328895041814E-2</v>
       </c>
       <c r="X12">
-        <v>2.4984556097628719E-2</v>
+        <v>2.8537218622824528E-2</v>
       </c>
       <c r="Y12">
-        <v>2.5724254357878468E-2</v>
+        <v>2.8584308590441265E-2</v>
       </c>
       <c r="Z12">
-        <v>2.6608167851767801E-2</v>
+        <v>2.993509024875168E-2</v>
       </c>
       <c r="AA12">
-        <v>2.7118910564709584E-2</v>
+        <v>3.0322322928564838E-2</v>
       </c>
       <c r="AB12">
-        <v>2.8351086265583577E-2</v>
+        <v>3.0933871637991751E-2</v>
       </c>
       <c r="AC12">
-        <v>2.887699879764178E-2</v>
+        <v>3.0747891133695582E-2</v>
       </c>
       <c r="AD12">
-        <v>2.9544710734593905E-2</v>
+        <v>3.1000268646740339E-2</v>
       </c>
       <c r="AE12">
-        <v>2.8975416367390469E-2</v>
+        <v>3.2292511802189706E-2</v>
       </c>
       <c r="AF12">
-        <v>3.0016925657537115E-2</v>
+        <v>3.1446819719422564E-2</v>
       </c>
       <c r="AG12">
-        <v>3.0089474880471447E-2</v>
+        <v>3.0640248588957902E-2</v>
       </c>
       <c r="AH12">
-        <v>3.0418790680830168E-2</v>
+        <v>3.0817716869453889E-2</v>
       </c>
       <c r="AI12">
-        <v>3.1836536375668564E-2</v>
+        <v>2.9953951499823848E-2</v>
       </c>
       <c r="AJ12">
-        <v>3.2133367060480804E-2</v>
+        <v>2.9647070755090744E-2</v>
       </c>
       <c r="AK12">
-        <v>1.8718822580417686E-2</v>
+        <v>2.0909362081331866E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
@@ -6787,112 +6156,112 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5.2975330552468523E-3</v>
+        <v>5.6828282502417709E-3</v>
       </c>
       <c r="C13">
-        <v>3.9457459720527565E-3</v>
+        <v>7.2672211523574747E-3</v>
       </c>
       <c r="D13">
-        <v>3.5917201012227538E-3</v>
+        <v>8.6118473341603562E-3</v>
       </c>
       <c r="E13">
-        <v>3.7062210137453642E-3</v>
+        <v>9.63936762930203E-3</v>
       </c>
       <c r="F13">
-        <v>5.3837147147638284E-3</v>
+        <v>1.0497823727808019E-2</v>
       </c>
       <c r="G13">
-        <v>7.0386891007083842E-3</v>
+        <v>1.1543219971741134E-2</v>
       </c>
       <c r="H13">
-        <v>8.3999552593000057E-3</v>
+        <v>1.2658865242404648E-2</v>
       </c>
       <c r="I13">
-        <v>9.4398829639821841E-3</v>
+        <v>1.387666192478009E-2</v>
       </c>
       <c r="J13">
-        <v>9.966402061260371E-3</v>
+        <v>1.5239112156306361E-2</v>
       </c>
       <c r="K13">
-        <v>9.8397295828014271E-3</v>
+        <v>1.6305473951998828E-2</v>
       </c>
       <c r="L13">
-        <v>1.2772878396103915E-2</v>
+        <v>1.7546693874798021E-2</v>
       </c>
       <c r="M13">
-        <v>1.4218739767573615E-2</v>
+        <v>1.9091940392788099E-2</v>
       </c>
       <c r="N13">
-        <v>1.4277872776802517E-2</v>
+        <v>2.0297104395562801E-2</v>
       </c>
       <c r="O13">
-        <v>1.5226885425898872E-2</v>
+        <v>2.1249808294959364E-2</v>
       </c>
       <c r="P13">
-        <v>1.611447063060964E-2</v>
+        <v>2.2313569522377678E-2</v>
       </c>
       <c r="Q13">
-        <v>1.7322059199380877E-2</v>
+        <v>2.3274417086859449E-2</v>
       </c>
       <c r="R13">
-        <v>1.8201425070707513E-2</v>
+        <v>2.3854572986080666E-2</v>
       </c>
       <c r="S13">
-        <v>1.9608392907016117E-2</v>
+        <v>2.4822892401548807E-2</v>
       </c>
       <c r="T13">
-        <v>2.2003176784146535E-2</v>
+        <v>2.5972949342164178E-2</v>
       </c>
       <c r="U13">
-        <v>2.3291002015920891E-2</v>
+        <v>2.6895038284867809E-2</v>
       </c>
       <c r="V13">
-        <v>2.4163453568037809E-2</v>
+        <v>2.7200144913595816E-2</v>
       </c>
       <c r="W13">
-        <v>2.4827218516184961E-2</v>
+        <v>2.7836799897503081E-2</v>
       </c>
       <c r="X13">
-        <v>2.5491692473001763E-2</v>
+        <v>2.8855176844513639E-2</v>
       </c>
       <c r="Y13">
-        <v>2.6154977353145783E-2</v>
+        <v>2.9422127943396187E-2</v>
       </c>
       <c r="Z13">
-        <v>2.7203402473632739E-2</v>
+        <v>3.0745101077810304E-2</v>
       </c>
       <c r="AA13">
-        <v>2.7733139487020407E-2</v>
+        <v>3.078299162212338E-2</v>
       </c>
       <c r="AB13">
-        <v>2.9229958898553867E-2</v>
+        <v>3.1388677147503929E-2</v>
       </c>
       <c r="AC13">
-        <v>2.9359291146147368E-2</v>
+        <v>3.1775671586712607E-2</v>
       </c>
       <c r="AD13">
-        <v>3.0191282564302698E-2</v>
+        <v>3.1891680699467323E-2</v>
       </c>
       <c r="AE13">
-        <v>3.1926275547230057E-2</v>
+        <v>3.1032065871608679E-2</v>
       </c>
       <c r="AF13">
-        <v>3.0678178305499983E-2</v>
+        <v>3.1310210065712087E-2</v>
       </c>
       <c r="AG13">
-        <v>3.0922892354928379E-2</v>
+        <v>3.0243974707330767E-2</v>
       </c>
       <c r="AH13">
-        <v>3.2081100676332339E-2</v>
+        <v>2.9995474793791402E-2</v>
       </c>
       <c r="AI13">
-        <v>2.5525822091311347E-2</v>
+        <v>2.8661122305413726E-2</v>
       </c>
       <c r="AJ13">
-        <v>2.6176606136374812E-2</v>
+        <v>2.9226320876952039E-2</v>
       </c>
       <c r="AK13">
-        <v>1.8871005828318091E-2</v>
+        <v>2.078018879656901E-2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -6900,225 +6269,225 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>6.9720050125297063E-3</v>
+        <v>5.030512380322239E-3</v>
       </c>
       <c r="C14">
-        <v>5.8578977221638608E-3</v>
+        <v>6.7200642992952028E-3</v>
       </c>
       <c r="D14">
-        <v>5.2097263468685543E-3</v>
+        <v>8.2083557965908095E-3</v>
       </c>
       <c r="E14">
-        <v>4.7605129954027816E-3</v>
+        <v>9.3075003739773315E-3</v>
       </c>
       <c r="F14">
-        <v>5.019804514157949E-3</v>
+        <v>1.0265607719498989E-2</v>
       </c>
       <c r="G14">
-        <v>6.4239893319609801E-3</v>
+        <v>1.1395825812651682E-2</v>
       </c>
       <c r="H14">
-        <v>7.6130747025696414E-3</v>
+        <v>1.2667735486128573E-2</v>
       </c>
       <c r="I14">
-        <v>8.9551094011972743E-3</v>
+        <v>1.3520814851268199E-2</v>
       </c>
       <c r="J14">
-        <v>9.7437144311669222E-3</v>
+        <v>1.4883074765758657E-2</v>
       </c>
       <c r="K14">
-        <v>1.0234267646337E-2</v>
+        <v>1.6164638681593669E-2</v>
       </c>
       <c r="L14">
-        <v>1.0463913092948779E-2</v>
+        <v>1.735948770285177E-2</v>
       </c>
       <c r="M14">
-        <v>1.3627828244679979E-2</v>
+        <v>1.9032900136709271E-2</v>
       </c>
       <c r="N14">
-        <v>1.4533627137038785E-2</v>
+        <v>2.0224948616528869E-2</v>
       </c>
       <c r="O14">
-        <v>1.5742076816411033E-2</v>
+        <v>2.1261483326026714E-2</v>
       </c>
       <c r="P14">
-        <v>1.5962626469635727E-2</v>
+        <v>2.2354306056672796E-2</v>
       </c>
       <c r="Q14">
-        <v>1.7273612979421274E-2</v>
+        <v>2.3411433479578012E-2</v>
       </c>
       <c r="R14">
-        <v>1.9431954185846329E-2</v>
+        <v>2.4377259101344789E-2</v>
       </c>
       <c r="S14">
-        <v>2.0926293698190424E-2</v>
+        <v>2.4970435820160449E-2</v>
       </c>
       <c r="T14">
-        <v>2.2070594095261496E-2</v>
+        <v>2.6509312986880921E-2</v>
       </c>
       <c r="U14">
-        <v>2.3438855710212231E-2</v>
+        <v>2.7415026462430738E-2</v>
       </c>
       <c r="V14">
-        <v>2.4182723210952672E-2</v>
+        <v>2.7812372862152469E-2</v>
       </c>
       <c r="W14">
-        <v>2.5087885825690586E-2</v>
+        <v>2.8563620123385206E-2</v>
       </c>
       <c r="X14">
-        <v>2.5889801390200667E-2</v>
+        <v>2.9135963747932606E-2</v>
       </c>
       <c r="Y14">
-        <v>2.6321563039675762E-2</v>
+        <v>2.988133647173967E-2</v>
       </c>
       <c r="Z14">
-        <v>2.7705215319088549E-2</v>
+        <v>3.1163700703804312E-2</v>
       </c>
       <c r="AA14">
-        <v>2.8440218388192259E-2</v>
+        <v>3.1476517249381976E-2</v>
       </c>
       <c r="AB14">
-        <v>2.9836888877464437E-2</v>
+        <v>3.1697019668452439E-2</v>
       </c>
       <c r="AC14">
-        <v>3.0201360991531704E-2</v>
+        <v>3.1746574116308844E-2</v>
       </c>
       <c r="AD14">
-        <v>3.1252006292897316E-2</v>
+        <v>3.1893066089526724E-2</v>
       </c>
       <c r="AE14">
-        <v>3.2713174467260887E-2</v>
+        <v>3.2052359638134374E-2</v>
       </c>
       <c r="AF14">
-        <v>3.3362104573791455E-2</v>
+        <v>3.054831794997722E-2</v>
       </c>
       <c r="AG14">
-        <v>2.5417968017246596E-2</v>
+        <v>2.9609810255115426E-2</v>
       </c>
       <c r="AH14">
-        <v>2.5726739314243643E-2</v>
+        <v>2.9770227896351861E-2</v>
       </c>
       <c r="AI14">
-        <v>2.6185855534463967E-2</v>
+        <v>2.7089839767191502E-2</v>
       </c>
       <c r="AJ14">
-        <v>2.6815512444586662E-2</v>
+        <v>2.7032300455365817E-2</v>
       </c>
       <c r="AK14">
-        <v>1.9075963530634402E-2</v>
+        <v>2.0605331550780464E-2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15">
-        <v>3.6633159304256756E-3</v>
+        <v>6.9182872613397228E-3</v>
       </c>
       <c r="C15">
-        <v>4.2516165497850393E-3</v>
+        <v>7.9762200405635933E-3</v>
       </c>
       <c r="D15">
-        <v>5.138363939892223E-3</v>
+        <v>8.7473076500272501E-3</v>
       </c>
       <c r="E15">
-        <v>6.1207479154024415E-3</v>
+        <v>9.4026838821842824E-3</v>
       </c>
       <c r="F15">
-        <v>6.9939699648409147E-3</v>
+        <v>1.0170016001636509E-2</v>
       </c>
       <c r="G15">
-        <v>7.8744964879780971E-3</v>
+        <v>1.1208796763384507E-2</v>
       </c>
       <c r="H15">
-        <v>8.5298689754803297E-3</v>
+        <v>1.2080012821953747E-2</v>
       </c>
       <c r="I15">
-        <v>9.7144011464203352E-3</v>
+        <v>1.2963029454229589E-2</v>
       </c>
       <c r="J15">
-        <v>1.0624669894398907E-2</v>
+        <v>1.390456263022256E-2</v>
       </c>
       <c r="K15">
-        <v>1.1151826484726389E-2</v>
+        <v>1.4902288748960811E-2</v>
       </c>
       <c r="L15">
-        <v>1.2443122568764975E-2</v>
+        <v>1.5771987442230091E-2</v>
       </c>
       <c r="M15">
-        <v>1.3046294434747115E-2</v>
+        <v>1.6933352578806137E-2</v>
       </c>
       <c r="N15">
-        <v>1.375263789218526E-2</v>
+        <v>1.8012428842823867E-2</v>
       </c>
       <c r="O15">
-        <v>1.4089766686370898E-2</v>
+        <v>1.8865479895028982E-2</v>
       </c>
       <c r="P15">
-        <v>1.4655192961106739E-2</v>
+        <v>1.9803660902283065E-2</v>
       </c>
       <c r="Q15">
-        <v>1.5600355346697918E-2</v>
+        <v>2.0741627771803651E-2</v>
       </c>
       <c r="R15">
-        <v>1.6352529401305962E-2</v>
+        <v>2.1392408483314553E-2</v>
       </c>
       <c r="S15">
-        <v>1.7108242096363441E-2</v>
+        <v>2.1992723647951413E-2</v>
       </c>
       <c r="T15">
-        <v>1.8111408928430557E-2</v>
+        <v>2.2893166149471612E-2</v>
       </c>
       <c r="U15">
-        <v>1.9093285500137266E-2</v>
+        <v>2.3747780369897518E-2</v>
       </c>
       <c r="V15">
-        <v>2.0020287264786992E-2</v>
+        <v>2.3993777822717176E-2</v>
       </c>
       <c r="W15">
-        <v>2.0579529745096033E-2</v>
+        <v>2.4435834999694768E-2</v>
       </c>
       <c r="X15">
-        <v>2.1207165418207795E-2</v>
+        <v>2.5223581070360945E-2</v>
       </c>
       <c r="Y15">
-        <v>2.19049159026426E-2</v>
+        <v>2.5656066875925365E-2</v>
       </c>
       <c r="Z15">
-        <v>2.2729150749447948E-2</v>
+        <v>2.6862575699542108E-2</v>
       </c>
       <c r="AA15">
-        <v>2.3172377752966419E-2</v>
+        <v>2.7111169719143204E-2</v>
       </c>
       <c r="AB15">
-        <v>2.3937002028473459E-2</v>
+        <v>2.7528483406121407E-2</v>
       </c>
       <c r="AC15">
-        <v>2.4387678271053093E-2</v>
+        <v>2.7711589286531391E-2</v>
       </c>
       <c r="AD15">
-        <v>2.499889645495678E-2</v>
+        <v>2.8011960274616169E-2</v>
       </c>
       <c r="AE15">
-        <v>2.5852386825927696E-2</v>
+        <v>2.8456201780092234E-2</v>
       </c>
       <c r="AF15">
-        <v>2.6348488722891604E-2</v>
+        <v>2.8891148913576588E-2</v>
       </c>
       <c r="AG15">
-        <v>2.597257628839196E-2</v>
+        <v>2.8640747820344311E-2</v>
       </c>
       <c r="AH15">
-        <v>2.6781663554460166E-2</v>
+        <v>2.8980219858841038E-2</v>
       </c>
       <c r="AI15">
-        <v>2.6572548931081904E-2</v>
+        <v>2.8613330069699097E-2</v>
       </c>
       <c r="AJ15">
-        <v>2.732927128084418E-2</v>
+        <v>2.8512218596155565E-2</v>
       </c>
       <c r="AK15">
-        <v>1.6720399662382639E-2</v>
+        <v>1.93457888910359E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -7126,7 +6495,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>3.3362104573791455E-2</v>
+        <v>3.2292511802189706E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7139,9 +6508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7276,112 +6643,112 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5.8764395488135734E-3</v>
+        <v>4.0285926864198776E-3</v>
       </c>
       <c r="C5">
-        <v>5.9789540950131569E-3</v>
+        <v>4.8189019239090903E-3</v>
       </c>
       <c r="D5">
-        <v>6.442022144948943E-3</v>
+        <v>5.5863867083071209E-3</v>
       </c>
       <c r="E5">
-        <v>6.8309707562786287E-3</v>
+        <v>6.3229761891225988E-3</v>
       </c>
       <c r="F5">
-        <v>7.2538549100744669E-3</v>
+        <v>6.6706151271477016E-3</v>
       </c>
       <c r="G5">
-        <v>7.7343948753888286E-3</v>
+        <v>6.8200457656494478E-3</v>
       </c>
       <c r="H5">
-        <v>8.0501864298516308E-3</v>
+        <v>7.1528901893010586E-3</v>
       </c>
       <c r="I5">
-        <v>8.3593382388996648E-3</v>
+        <v>7.2297071976886815E-3</v>
       </c>
       <c r="J5">
-        <v>8.6687031433690543E-3</v>
+        <v>7.5808021306215606E-3</v>
       </c>
       <c r="K5">
-        <v>9.0562582238699046E-3</v>
+        <v>7.752392158501327E-3</v>
       </c>
       <c r="L5">
-        <v>9.4036769582138188E-3</v>
+        <v>1.12537523221731E-2</v>
       </c>
       <c r="M5">
-        <v>9.7264496452196189E-3</v>
+        <v>1.1444955269951618E-2</v>
       </c>
       <c r="N5">
-        <v>1.0261661905624884E-2</v>
+        <v>1.2627854863026828E-2</v>
       </c>
       <c r="O5">
-        <v>1.0723642251354396E-2</v>
+        <v>1.0684665080296184E-2</v>
       </c>
       <c r="P5">
-        <v>1.114904268328621E-2</v>
+        <v>1.0996874734789159E-2</v>
       </c>
       <c r="Q5">
-        <v>1.1587899590402823E-2</v>
+        <v>1.1853346086460138E-2</v>
       </c>
       <c r="R5">
-        <v>1.1694364771281839E-2</v>
+        <v>1.2440374691652472E-2</v>
       </c>
       <c r="S5">
-        <v>1.201637087234244E-2</v>
+        <v>1.2451520697320653E-2</v>
       </c>
       <c r="T5">
-        <v>1.2409301230191608E-2</v>
+        <v>1.2533623623541958E-2</v>
       </c>
       <c r="U5">
-        <v>1.3035138129112358E-2</v>
+        <v>1.3221518304353145E-2</v>
       </c>
       <c r="V5">
-        <v>1.3512754716430228E-2</v>
+        <v>1.4482708668164059E-2</v>
       </c>
       <c r="W5">
-        <v>1.3746552334701794E-2</v>
+        <v>1.4718068729489395E-2</v>
       </c>
       <c r="X5">
-        <v>1.4353902012591726E-2</v>
+        <v>1.520405411102092E-2</v>
       </c>
       <c r="Y5">
-        <v>1.4393525927478314E-2</v>
+        <v>1.5482348539720761E-2</v>
       </c>
       <c r="Z5">
-        <v>1.5193942608065563E-2</v>
+        <v>1.6229536218802947E-2</v>
       </c>
       <c r="AA5">
-        <v>1.5163198460612655E-2</v>
+        <v>1.6537943216298586E-2</v>
       </c>
       <c r="AB5">
-        <v>1.5531959455471886E-2</v>
+        <v>1.7062919305911438E-2</v>
       </c>
       <c r="AC5">
-        <v>1.5782882927719167E-2</v>
+        <v>1.7094820196374497E-2</v>
       </c>
       <c r="AD5">
-        <v>1.6016340570446246E-2</v>
+        <v>1.7877435811964083E-2</v>
       </c>
       <c r="AE5">
-        <v>1.6188067952852644E-2</v>
+        <v>1.7836147813983367E-2</v>
       </c>
       <c r="AF5">
-        <v>1.6884595688640057E-2</v>
+        <v>1.8824962784721285E-2</v>
       </c>
       <c r="AG5">
-        <v>1.695488944049002E-2</v>
+        <v>1.9412530810522653E-2</v>
       </c>
       <c r="AH5">
-        <v>1.717247475313859E-2</v>
+        <v>2.3098780200138242E-2</v>
       </c>
       <c r="AI5">
-        <v>1.7496971781906727E-2</v>
+        <v>2.3348190732448537E-2</v>
       </c>
       <c r="AJ5">
-        <v>1.7565512358226395E-2</v>
+        <v>2.3854236848706818E-2</v>
       </c>
       <c r="AK5">
-        <v>1.1795465948457783E-2</v>
+        <v>1.2881739993543802E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
@@ -7389,112 +6756,112 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7.5673086887345486E-3</v>
+        <v>4.41633367802329E-3</v>
       </c>
       <c r="C6">
-        <v>7.9606035226517519E-3</v>
+        <v>5.1216865193783158E-3</v>
       </c>
       <c r="D6">
-        <v>8.2941212459062778E-3</v>
+        <v>6.1141565640283847E-3</v>
       </c>
       <c r="E6">
-        <v>8.7895652426517607E-3</v>
+        <v>7.0122245355706842E-3</v>
       </c>
       <c r="F6">
-        <v>9.1828798444334118E-3</v>
+        <v>7.2281147337233554E-3</v>
       </c>
       <c r="G6">
-        <v>9.6292763402301643E-3</v>
+        <v>7.7292757260171603E-3</v>
       </c>
       <c r="H6">
-        <v>1.0046288710632041E-2</v>
+        <v>7.8385209542153854E-3</v>
       </c>
       <c r="I6">
-        <v>1.0570049198485629E-2</v>
+        <v>8.0265864594320467E-3</v>
       </c>
       <c r="J6">
-        <v>1.1161746240707258E-2</v>
+        <v>8.2319618118570411E-3</v>
       </c>
       <c r="K6">
-        <v>1.1702423764711695E-2</v>
+        <v>1.1850182777217133E-2</v>
       </c>
       <c r="L6">
-        <v>1.2232166423089601E-2</v>
+        <v>1.2271254304734485E-2</v>
       </c>
       <c r="M6">
-        <v>1.2721392373951517E-2</v>
+        <v>1.1044410250891711E-2</v>
       </c>
       <c r="N6">
-        <v>1.3241446626937296E-2</v>
+        <v>1.1738732410040828E-2</v>
       </c>
       <c r="O6">
-        <v>1.35118899257627E-2</v>
+        <v>1.2007074706149444E-2</v>
       </c>
       <c r="P6">
-        <v>1.3902789801623603E-2</v>
+        <v>1.262946623441422E-2</v>
       </c>
       <c r="Q6">
-        <v>1.454660377965864E-2</v>
+        <v>1.339862054956785E-2</v>
       </c>
       <c r="R6">
-        <v>1.4738641893090739E-2</v>
+        <v>1.3609037591653364E-2</v>
       </c>
       <c r="S6">
-        <v>1.5178305362309128E-2</v>
+        <v>1.3512031551582529E-2</v>
       </c>
       <c r="T6">
-        <v>1.5425402486060629E-2</v>
+        <v>1.4441715585232924E-2</v>
       </c>
       <c r="U6">
-        <v>1.5968565374070678E-2</v>
+        <v>1.5789460491987071E-2</v>
       </c>
       <c r="V6">
-        <v>1.5981373319613301E-2</v>
+        <v>1.6126031263286839E-2</v>
       </c>
       <c r="W6">
-        <v>1.6318481041877046E-2</v>
+        <v>1.651762555899873E-2</v>
       </c>
       <c r="X6">
-        <v>1.6955780930579804E-2</v>
+        <v>1.6952228951327062E-2</v>
       </c>
       <c r="Y6">
-        <v>1.7199165449378169E-2</v>
+        <v>1.7489474510746585E-2</v>
       </c>
       <c r="Z6">
-        <v>1.7527160608703303E-2</v>
+        <v>1.7993081809014492E-2</v>
       </c>
       <c r="AA6">
-        <v>1.75734794372026E-2</v>
+        <v>1.8354529040570829E-2</v>
       </c>
       <c r="AB6">
-        <v>1.805671752066176E-2</v>
+        <v>1.8754305170313675E-2</v>
       </c>
       <c r="AC6">
-        <v>1.832605442268722E-2</v>
+        <v>1.8967918708700439E-2</v>
       </c>
       <c r="AD6">
-        <v>1.8488149530961583E-2</v>
+        <v>1.9790988052444239E-2</v>
       </c>
       <c r="AE6">
-        <v>1.913269152389464E-2</v>
+        <v>2.0703244556360963E-2</v>
       </c>
       <c r="AF6">
-        <v>1.9599578879625556E-2</v>
+        <v>2.1347372713085268E-2</v>
       </c>
       <c r="AG6">
-        <v>1.9924168721801909E-2</v>
+        <v>2.1912421203827647E-2</v>
       </c>
       <c r="AH6">
-        <v>2.0165993632629199E-2</v>
+        <v>2.2055062678986357E-2</v>
       </c>
       <c r="AI6">
-        <v>2.0094338688478791E-2</v>
+        <v>2.2262470444689049E-2</v>
       </c>
       <c r="AJ6">
-        <v>2.0609818405879516E-2</v>
+        <v>2.5817969795165381E-2</v>
       </c>
       <c r="AK6">
-        <v>1.4333449853159281E-2</v>
+        <v>1.4133138624583397E-2</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
@@ -7502,112 +6869,112 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>9.5858801550377428E-3</v>
+        <v>4.2434304902650832E-3</v>
       </c>
       <c r="C7">
-        <v>9.9669795556260373E-3</v>
+        <v>5.386834414230551E-3</v>
       </c>
       <c r="D7">
-        <v>1.0384226534056488E-2</v>
+        <v>6.439414603137553E-3</v>
       </c>
       <c r="E7">
-        <v>1.0953063250008905E-2</v>
+        <v>7.2406848981328214E-3</v>
       </c>
       <c r="F7">
-        <v>1.1430246565152367E-2</v>
+        <v>7.8645181754308322E-3</v>
       </c>
       <c r="G7">
-        <v>1.1912780085681111E-2</v>
+        <v>8.1707332440723243E-3</v>
       </c>
       <c r="H7">
-        <v>1.2692410214223461E-2</v>
+        <v>8.4057879025985077E-3</v>
       </c>
       <c r="I7">
-        <v>1.3245733640030375E-2</v>
+        <v>8.6492611919100418E-3</v>
       </c>
       <c r="J7">
-        <v>1.3859206818095722E-2</v>
+        <v>1.2542900196742198E-2</v>
       </c>
       <c r="K7">
-        <v>1.4284602928692476E-2</v>
+        <v>1.0857502287328369E-2</v>
       </c>
       <c r="L7">
-        <v>1.5012846595321917E-2</v>
+        <v>1.1514554135427879E-2</v>
       </c>
       <c r="M7">
-        <v>1.5410874479565758E-2</v>
+        <v>1.2212532392335954E-2</v>
       </c>
       <c r="N7">
-        <v>1.6064021345775968E-2</v>
+        <v>1.2601402247747378E-2</v>
       </c>
       <c r="O7">
-        <v>1.6204565425723606E-2</v>
+        <v>1.3104575913542223E-2</v>
       </c>
       <c r="P7">
-        <v>1.6675094707383254E-2</v>
+        <v>1.3641180126816905E-2</v>
       </c>
       <c r="Q7">
-        <v>1.7163583811586412E-2</v>
+        <v>1.416899349506833E-2</v>
       </c>
       <c r="R7">
-        <v>1.7358160849141713E-2</v>
+        <v>1.4742968350733082E-2</v>
       </c>
       <c r="S7">
-        <v>1.7609213332985284E-2</v>
+        <v>1.5120093832464732E-2</v>
       </c>
       <c r="T7">
-        <v>1.7980394682818892E-2</v>
+        <v>1.5900064293708167E-2</v>
       </c>
       <c r="U7">
-        <v>1.8487453761362863E-2</v>
+        <v>1.6861183041580626E-2</v>
       </c>
       <c r="V7">
-        <v>1.8645501131891347E-2</v>
+        <v>1.748249835687532E-2</v>
       </c>
       <c r="W7">
-        <v>1.8878554865613458E-2</v>
+        <v>1.7959680632487807E-2</v>
       </c>
       <c r="X7">
-        <v>1.9274225712995044E-2</v>
+        <v>1.809250724389725E-2</v>
       </c>
       <c r="Y7">
-        <v>1.9460696445305035E-2</v>
+        <v>1.8773905406847521E-2</v>
       </c>
       <c r="Z7">
-        <v>2.0219832311873978E-2</v>
+        <v>1.9759957434438709E-2</v>
       </c>
       <c r="AA7">
-        <v>2.0399930836521925E-2</v>
+        <v>1.9981308328765164E-2</v>
       </c>
       <c r="AB7">
-        <v>2.0678041180941471E-2</v>
+        <v>2.0434192190953868E-2</v>
       </c>
       <c r="AC7">
-        <v>2.0893089408958117E-2</v>
+        <v>2.077950753705942E-2</v>
       </c>
       <c r="AD7">
-        <v>2.1382176888156561E-2</v>
+        <v>2.168173483722036E-2</v>
       </c>
       <c r="AE7">
-        <v>2.1806774205653474E-2</v>
+        <v>2.2702141830148188E-2</v>
       </c>
       <c r="AF7">
-        <v>2.2347398418351511E-2</v>
+        <v>2.322106716182628E-2</v>
       </c>
       <c r="AG7">
-        <v>2.2654711452996239E-2</v>
+        <v>2.3485836897044844E-2</v>
       </c>
       <c r="AH7">
-        <v>2.3224013967653365E-2</v>
+        <v>2.389485084154468E-2</v>
       </c>
       <c r="AI7">
-        <v>2.3232838703637571E-2</v>
+        <v>2.4171947551423451E-2</v>
       </c>
       <c r="AJ7">
-        <v>2.3089679090115774E-2</v>
+        <v>2.4727831597806133E-2</v>
       </c>
       <c r="AK7">
-        <v>1.6882706559260739E-2</v>
+        <v>1.5184355952198147E-2</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -7615,112 +6982,112 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.1786268238034898E-2</v>
+        <v>3.6421523759779056E-3</v>
       </c>
       <c r="C8">
-        <v>1.2080584383486E-2</v>
+        <v>5.0946253265555224E-3</v>
       </c>
       <c r="D8">
-        <v>1.2521388071678191E-2</v>
+        <v>6.5007390469545576E-3</v>
       </c>
       <c r="E8">
-        <v>1.3220307474028352E-2</v>
+        <v>7.5667353184472345E-3</v>
       </c>
       <c r="F8">
-        <v>1.3938074096688657E-2</v>
+        <v>8.042679614198734E-3</v>
       </c>
       <c r="G8">
-        <v>1.4765767505080216E-2</v>
+        <v>8.5021704447484862E-3</v>
       </c>
       <c r="H8">
-        <v>1.5449230374187229E-2</v>
+        <v>8.8149885727495936E-3</v>
       </c>
       <c r="I8">
-        <v>1.5971319822977448E-2</v>
+        <v>1.2283559093667719E-2</v>
       </c>
       <c r="J8">
-        <v>1.6649284546757522E-2</v>
+        <v>1.2932904261001623E-2</v>
       </c>
       <c r="K8">
-        <v>1.7171536229556878E-2</v>
+        <v>1.1623397316942723E-2</v>
       </c>
       <c r="L8">
-        <v>1.7485498952314615E-2</v>
+        <v>1.2407796205641459E-2</v>
       </c>
       <c r="M8">
-        <v>1.7814741956785667E-2</v>
+        <v>1.3101135149506865E-2</v>
       </c>
       <c r="N8">
-        <v>1.8346793501178429E-2</v>
+        <v>1.3398995070146847E-2</v>
       </c>
       <c r="O8">
-        <v>1.8691799034784688E-2</v>
+        <v>1.4146804280082798E-2</v>
       </c>
       <c r="P8">
-        <v>1.8984354755438727E-2</v>
+        <v>1.4503471338223202E-2</v>
       </c>
       <c r="Q8">
-        <v>1.9439909485045717E-2</v>
+        <v>1.5137703000860524E-2</v>
       </c>
       <c r="R8">
-        <v>1.9680949443964008E-2</v>
+        <v>1.5833001900858169E-2</v>
       </c>
       <c r="S8">
-        <v>1.9730301433823302E-2</v>
+        <v>1.6476836545829373E-2</v>
       </c>
       <c r="T8">
-        <v>1.9873300316164525E-2</v>
+        <v>1.7074239647903808E-2</v>
       </c>
       <c r="U8">
-        <v>2.0574959773079673E-2</v>
+        <v>1.8037100110800008E-2</v>
       </c>
       <c r="V8">
-        <v>2.0656343212661243E-2</v>
+        <v>1.8373198213228303E-2</v>
       </c>
       <c r="W8">
-        <v>2.0997851410835811E-2</v>
+        <v>1.8864977901928769E-2</v>
       </c>
       <c r="X8">
-        <v>2.1586767554233832E-2</v>
+        <v>1.9920389961694047E-2</v>
       </c>
       <c r="Y8">
-        <v>2.189360364448055E-2</v>
+        <v>2.0539467600328837E-2</v>
       </c>
       <c r="Z8">
-        <v>2.2953128133642774E-2</v>
+        <v>2.107159159698585E-2</v>
       </c>
       <c r="AA8">
-        <v>2.2857083384161911E-2</v>
+        <v>2.1489247984493313E-2</v>
       </c>
       <c r="AB8">
-        <v>2.3194085996909565E-2</v>
+        <v>2.1853554041558521E-2</v>
       </c>
       <c r="AC8">
-        <v>2.3637865798004195E-2</v>
+        <v>2.2236795523939062E-2</v>
       </c>
       <c r="AD8">
-        <v>2.3950402526123574E-2</v>
+        <v>2.3761497635603583E-2</v>
       </c>
       <c r="AE8">
-        <v>2.4388653334967075E-2</v>
+        <v>2.4274048263989313E-2</v>
       </c>
       <c r="AF8">
-        <v>2.513164313610123E-2</v>
+        <v>2.4744838968325057E-2</v>
       </c>
       <c r="AG8">
-        <v>2.539813514987144E-2</v>
+        <v>2.5068783318549889E-2</v>
       </c>
       <c r="AH8">
-        <v>2.5394298409884629E-2</v>
+        <v>2.5656423638040719E-2</v>
       </c>
       <c r="AI8">
-        <v>2.5611292945872454E-2</v>
+        <v>2.6499513893392605E-2</v>
       </c>
       <c r="AJ8">
-        <v>2.5681236358228148E-2</v>
+        <v>2.6673570409334199E-2</v>
       </c>
       <c r="AK8">
-        <v>1.9293924295184985E-2</v>
+        <v>1.6276972769796543E-2</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
@@ -7728,112 +7095,112 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.4009895604327197E-2</v>
+        <v>2.7392315380852777E-3</v>
       </c>
       <c r="C9">
-        <v>1.4531238454772407E-2</v>
+        <v>4.2974354035624236E-3</v>
       </c>
       <c r="D9">
-        <v>1.5268680673761061E-2</v>
+        <v>5.8268940681141653E-3</v>
       </c>
       <c r="E9">
-        <v>1.5735557197583107E-2</v>
+        <v>7.3103626594937434E-3</v>
       </c>
       <c r="F9">
-        <v>1.6526336907413432E-2</v>
+        <v>8.3451725614147806E-3</v>
       </c>
       <c r="G9">
-        <v>1.7462212245032881E-2</v>
+        <v>8.7946488299517848E-3</v>
       </c>
       <c r="H9">
-        <v>1.8140158379622243E-2</v>
+        <v>9.1580090777016541E-3</v>
       </c>
       <c r="I9">
-        <v>1.8573442251032378E-2</v>
+        <v>1.3128666995819526E-2</v>
       </c>
       <c r="J9">
-        <v>1.9073144225101677E-2</v>
+        <v>1.1448306882844272E-2</v>
       </c>
       <c r="K9">
-        <v>1.9389120010129199E-2</v>
+        <v>1.2015480742089746E-2</v>
       </c>
       <c r="L9">
-        <v>1.984295191587938E-2</v>
+        <v>1.2997993001076213E-2</v>
       </c>
       <c r="M9">
-        <v>2.0251107604651288E-2</v>
+        <v>1.3515186973559513E-2</v>
       </c>
       <c r="N9">
-        <v>2.0778969184923925E-2</v>
+        <v>1.4183221611827281E-2</v>
       </c>
       <c r="O9">
-        <v>2.0794329223281269E-2</v>
+        <v>1.4690159337976754E-2</v>
       </c>
       <c r="P9">
-        <v>2.1183965878648549E-2</v>
+        <v>1.5216721903666268E-2</v>
       </c>
       <c r="Q9">
-        <v>2.1505510347201082E-2</v>
+        <v>1.5863407486980105E-2</v>
       </c>
       <c r="R9">
-        <v>2.1524618525538577E-2</v>
+        <v>1.6645934059565791E-2</v>
       </c>
       <c r="S9">
-        <v>2.1733982953999486E-2</v>
+        <v>1.7431331663387624E-2</v>
       </c>
       <c r="T9">
-        <v>2.2013366149497667E-2</v>
+        <v>1.8489956360579526E-2</v>
       </c>
       <c r="U9">
-        <v>2.2668777122155547E-2</v>
+        <v>1.9014437655009622E-2</v>
       </c>
       <c r="V9">
-        <v>2.2904627537829982E-2</v>
+        <v>1.9740237957841991E-2</v>
       </c>
       <c r="W9">
-        <v>2.3534669895340428E-2</v>
+        <v>2.0212380475919816E-2</v>
       </c>
       <c r="X9">
-        <v>2.4202080332997089E-2</v>
+        <v>2.1110531857858057E-2</v>
       </c>
       <c r="Y9">
-        <v>2.4322044227814019E-2</v>
+        <v>2.177169752866695E-2</v>
       </c>
       <c r="Z9">
-        <v>2.5379708618717561E-2</v>
+        <v>2.241226560275492E-2</v>
       </c>
       <c r="AA9">
-        <v>2.5708320533119333E-2</v>
+        <v>2.2914669331785271E-2</v>
       </c>
       <c r="AB9">
-        <v>2.612736696254702E-2</v>
+        <v>2.3202478007038327E-2</v>
       </c>
       <c r="AC9">
-        <v>2.6341096684130604E-2</v>
+        <v>2.4166679331375212E-2</v>
       </c>
       <c r="AD9">
-        <v>2.6326570526490616E-2</v>
+        <v>2.4536055880161604E-2</v>
       </c>
       <c r="AE9">
-        <v>2.6734739799191141E-2</v>
+        <v>2.5556446693771055E-2</v>
       </c>
       <c r="AF9">
-        <v>2.71101993446346E-2</v>
+        <v>2.5932519317044826E-2</v>
       </c>
       <c r="AG9">
-        <v>2.7217922675570556E-2</v>
+        <v>2.6775705394906455E-2</v>
       </c>
       <c r="AH9">
-        <v>2.6928065975579108E-2</v>
+        <v>2.7315225592939269E-2</v>
       </c>
       <c r="AI9">
-        <v>2.6851471888210895E-2</v>
+        <v>2.7631688757435859E-2</v>
       </c>
       <c r="AJ9">
-        <v>2.7147206195183893E-2</v>
+        <v>2.7390524933933947E-2</v>
       </c>
       <c r="AK9">
-        <v>2.1579942752738966E-2</v>
+        <v>1.6977138334519373E-2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
@@ -7841,112 +7208,112 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.6581035617945473E-2</v>
+        <v>1.7456891933289016E-3</v>
       </c>
       <c r="C10">
-        <v>1.6927829498022351E-2</v>
+        <v>3.2507136507998512E-3</v>
       </c>
       <c r="D10">
-        <v>1.7596147847231177E-2</v>
+        <v>5.1645666498282743E-3</v>
       </c>
       <c r="E10">
-        <v>1.8047995882727791E-2</v>
+        <v>6.6055559422258294E-3</v>
       </c>
       <c r="F10">
-        <v>1.870108041097544E-2</v>
+        <v>7.7478416878398381E-3</v>
       </c>
       <c r="G10">
-        <v>1.9451278968997929E-2</v>
+        <v>9.0201418473029506E-3</v>
       </c>
       <c r="H10">
-        <v>2.0142049120687757E-2</v>
+        <v>9.4003548055473281E-3</v>
       </c>
       <c r="I10">
-        <v>2.0607766108682611E-2</v>
+        <v>9.6744970612670216E-3</v>
       </c>
       <c r="J10">
-        <v>2.1244013529883234E-2</v>
+        <v>1.1917566407375266E-2</v>
       </c>
       <c r="K10">
-        <v>2.1651128962427008E-2</v>
+        <v>1.2315606994947083E-2</v>
       </c>
       <c r="L10">
-        <v>2.2053798000557744E-2</v>
+        <v>1.3423858162260964E-2</v>
       </c>
       <c r="M10">
-        <v>2.2524070636076768E-2</v>
+        <v>1.3613378021115908E-2</v>
       </c>
       <c r="N10">
-        <v>2.2736641811778591E-2</v>
+        <v>1.4794974335658998E-2</v>
       </c>
       <c r="O10">
-        <v>2.2798217938434524E-2</v>
+        <v>1.4983171577590012E-2</v>
       </c>
       <c r="P10">
-        <v>2.320721771017694E-2</v>
+        <v>1.5628353159830743E-2</v>
       </c>
       <c r="Q10">
-        <v>2.3650443665803638E-2</v>
+        <v>1.6713240558757489E-2</v>
       </c>
       <c r="R10">
-        <v>2.3431358554042069E-2</v>
+        <v>1.7115231006485872E-2</v>
       </c>
       <c r="S10">
-        <v>2.3660904836411943E-2</v>
+        <v>1.8042292005689783E-2</v>
       </c>
       <c r="T10">
-        <v>2.4209246769234867E-2</v>
+        <v>1.9129217926735057E-2</v>
       </c>
       <c r="U10">
-        <v>2.5034352158565101E-2</v>
+        <v>1.9835536133305971E-2</v>
       </c>
       <c r="V10">
-        <v>2.512402849512866E-2</v>
+        <v>2.0913317821868161E-2</v>
       </c>
       <c r="W10">
-        <v>2.5430592529516263E-2</v>
+        <v>2.1375269213128992E-2</v>
       </c>
       <c r="X10">
-        <v>2.6008652774237005E-2</v>
+        <v>2.2206113862001914E-2</v>
       </c>
       <c r="Y10">
-        <v>2.6529016459767362E-2</v>
+        <v>2.2617168691257478E-2</v>
       </c>
       <c r="Z10">
-        <v>2.7595692194831611E-2</v>
+        <v>2.327462798854648E-2</v>
       </c>
       <c r="AA10">
-        <v>2.7364617401876873E-2</v>
+        <v>2.3693363627450201E-2</v>
       </c>
       <c r="AB10">
-        <v>2.7452700459614808E-2</v>
+        <v>2.462264499895666E-2</v>
       </c>
       <c r="AC10">
-        <v>2.7642488910273703E-2</v>
+        <v>2.5267255481857508E-2</v>
       </c>
       <c r="AD10">
-        <v>2.7451602761389221E-2</v>
+        <v>2.5569044065347817E-2</v>
       </c>
       <c r="AE10">
-        <v>2.7818401435890393E-2</v>
+        <v>2.6986962788011697E-2</v>
       </c>
       <c r="AF10">
-        <v>2.8396715723358317E-2</v>
+        <v>2.7601306396842863E-2</v>
       </c>
       <c r="AG10">
-        <v>2.8308579065529631E-2</v>
+        <v>2.8107159991387479E-2</v>
       </c>
       <c r="AH10">
-        <v>2.8636829932851129E-2</v>
+        <v>2.8417756760149567E-2</v>
       </c>
       <c r="AI10">
-        <v>2.8200925562420671E-2</v>
+        <v>2.8780037961805938E-2</v>
       </c>
       <c r="AJ10">
-        <v>2.8313551125886609E-2</v>
+        <v>2.8732535396568358E-2</v>
       </c>
       <c r="AK10">
-        <v>2.3489213911644779E-2</v>
+        <v>1.7425473327564767E-2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
@@ -7954,112 +7321,112 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.8787890072061959E-2</v>
+        <v>1.7543093616269919E-3</v>
       </c>
       <c r="C11">
-        <v>1.9376412479659155E-2</v>
+        <v>2.2271192305793525E-3</v>
       </c>
       <c r="D11">
-        <v>1.9641326409217164E-2</v>
+        <v>3.7836115880651015E-3</v>
       </c>
       <c r="E11">
-        <v>2.0249954934594465E-2</v>
+        <v>5.61833800307534E-3</v>
       </c>
       <c r="F11">
-        <v>2.0955388178875455E-2</v>
+        <v>7.1308884800046551E-3</v>
       </c>
       <c r="G11">
-        <v>2.1730133503377675E-2</v>
+        <v>8.3172244577755551E-3</v>
       </c>
       <c r="H11">
-        <v>2.2388164301183747E-2</v>
+        <v>9.5477128119728846E-3</v>
       </c>
       <c r="I11">
-        <v>2.2845098522810504E-2</v>
+        <v>9.9454078368276695E-3</v>
       </c>
       <c r="J11">
-        <v>2.3340859992089368E-2</v>
+        <v>1.1928670318851531E-2</v>
       </c>
       <c r="K11">
-        <v>2.3770973452144954E-2</v>
+        <v>1.2682588046307376E-2</v>
       </c>
       <c r="L11">
-        <v>2.4134800981891549E-2</v>
+        <v>1.3858084931216794E-2</v>
       </c>
       <c r="M11">
-        <v>2.4428148737785396E-2</v>
+        <v>1.3715537541207874E-2</v>
       </c>
       <c r="N11">
-        <v>2.475262307083995E-2</v>
+        <v>1.4970816405252333E-2</v>
       </c>
       <c r="O11">
-        <v>2.4882705289839387E-2</v>
+        <v>1.5239491673012921E-2</v>
       </c>
       <c r="P11">
-        <v>2.5019040687896746E-2</v>
+        <v>1.6100893994093837E-2</v>
       </c>
       <c r="Q11">
-        <v>2.5566766787079153E-2</v>
+        <v>1.7158723052054268E-2</v>
       </c>
       <c r="R11">
-        <v>2.5261895150667547E-2</v>
+        <v>1.7757492715926842E-2</v>
       </c>
       <c r="S11">
-        <v>2.5899715774341449E-2</v>
+        <v>1.8807111380232947E-2</v>
       </c>
       <c r="T11">
-        <v>2.6475864120240021E-2</v>
+        <v>1.9712129180620628E-2</v>
       </c>
       <c r="U11">
-        <v>2.7252532856670456E-2</v>
+        <v>2.0772546509660917E-2</v>
       </c>
       <c r="V11">
-        <v>2.7215243993026366E-2</v>
+        <v>2.1576933266199885E-2</v>
       </c>
       <c r="W11">
-        <v>2.7161348838410506E-2</v>
+        <v>2.2461103151684546E-2</v>
       </c>
       <c r="X11">
-        <v>2.7884331884125854E-2</v>
+        <v>2.2930660749016122E-2</v>
       </c>
       <c r="Y11">
-        <v>2.8152839770837129E-2</v>
+        <v>2.4977116668417218E-2</v>
       </c>
       <c r="Z11">
-        <v>2.8609182921764762E-2</v>
+        <v>2.5905654060315201E-2</v>
       </c>
       <c r="AA11">
-        <v>2.8500633410950969E-2</v>
+        <v>2.6386379529632534E-2</v>
       </c>
       <c r="AB11">
-        <v>2.8350607296704029E-2</v>
+        <v>2.6924611846156236E-2</v>
       </c>
       <c r="AC11">
-        <v>2.8432540248136164E-2</v>
+        <v>2.7780800158759507E-2</v>
       </c>
       <c r="AD11">
-        <v>2.855866802954651E-2</v>
+        <v>2.6665567218074136E-2</v>
       </c>
       <c r="AE11">
-        <v>2.8621555523004254E-2</v>
+        <v>2.7871354540704177E-2</v>
       </c>
       <c r="AF11">
-        <v>2.9002638209828312E-2</v>
+        <v>2.8746512290148275E-2</v>
       </c>
       <c r="AG11">
-        <v>2.9167683871800149E-2</v>
+        <v>2.9221928202525768E-2</v>
       </c>
       <c r="AH11">
-        <v>2.8997931058152137E-2</v>
+        <v>2.9694672286575689E-2</v>
       </c>
       <c r="AI11">
-        <v>2.8824091069014898E-2</v>
+        <v>2.9945127272906994E-2</v>
       </c>
       <c r="AJ11">
-        <v>2.7603364588037187E-2</v>
+        <v>3.1326379334574453E-2</v>
       </c>
       <c r="AK11">
-        <v>2.5147723737484848E-2</v>
+        <v>1.8145218645328854E-2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
@@ -8067,112 +7434,112 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2.1198587889492543E-2</v>
+        <v>2.8428896695881331E-3</v>
       </c>
       <c r="C12">
-        <v>2.1488028124347369E-2</v>
+        <v>2.6030352486173781E-3</v>
       </c>
       <c r="D12">
-        <v>2.2087768936263713E-2</v>
+        <v>2.802199350041037E-3</v>
       </c>
       <c r="E12">
-        <v>2.2651170035213709E-2</v>
+        <v>4.5648290245905382E-3</v>
       </c>
       <c r="F12">
-        <v>2.3409354153988791E-2</v>
+        <v>6.1991298900411539E-3</v>
       </c>
       <c r="G12">
-        <v>2.3867176205173261E-2</v>
+        <v>7.8394808277313897E-3</v>
       </c>
       <c r="H12">
-        <v>2.456281886938369E-2</v>
+        <v>8.986953140428168E-3</v>
       </c>
       <c r="I12">
-        <v>2.5110296073186513E-2</v>
+        <v>9.8596859348230835E-3</v>
       </c>
       <c r="J12">
-        <v>2.5334965453244662E-2</v>
+        <v>9.9842249111840708E-3</v>
       </c>
       <c r="K12">
-        <v>2.571386379314931E-2</v>
+        <v>1.2409031561665253E-2</v>
       </c>
       <c r="L12">
-        <v>2.5919271644794222E-2</v>
+        <v>1.3531122088650734E-2</v>
       </c>
       <c r="M12">
-        <v>2.6280325501660616E-2</v>
+        <v>1.411362483564293E-2</v>
       </c>
       <c r="N12">
-        <v>2.6697408131170938E-2</v>
+        <v>1.4532121490778611E-2</v>
       </c>
       <c r="O12">
-        <v>2.6694993059513037E-2</v>
+        <v>1.5303174333656088E-2</v>
       </c>
       <c r="P12">
-        <v>2.7167644929675848E-2</v>
+        <v>1.6017078540079659E-2</v>
       </c>
       <c r="Q12">
-        <v>2.7539105495532148E-2</v>
+        <v>1.7433572045155547E-2</v>
       </c>
       <c r="R12">
-        <v>2.7619300245948934E-2</v>
+        <v>1.8083093355967493E-2</v>
       </c>
       <c r="S12">
-        <v>2.8205754853747756E-2</v>
+        <v>1.9153660387264983E-2</v>
       </c>
       <c r="T12">
-        <v>2.8209625699870663E-2</v>
+        <v>2.0377311688925648E-2</v>
       </c>
       <c r="U12">
-        <v>2.8999157295160897E-2</v>
+        <v>2.1352745461112016E-2</v>
       </c>
       <c r="V12">
-        <v>2.8782976373775651E-2</v>
+        <v>2.3865692952673996E-2</v>
       </c>
       <c r="W12">
-        <v>2.8032363941592732E-2</v>
+        <v>2.4552414111232004E-2</v>
       </c>
       <c r="X12">
-        <v>2.8558903104085501E-2</v>
+        <v>2.4984556097628719E-2</v>
       </c>
       <c r="Y12">
-        <v>2.8441574183979201E-2</v>
+        <v>2.5724254357878468E-2</v>
       </c>
       <c r="Z12">
-        <v>2.9434285543506966E-2</v>
+        <v>2.6608167851767801E-2</v>
       </c>
       <c r="AA12">
-        <v>2.9376103555587136E-2</v>
+        <v>2.7118910564709584E-2</v>
       </c>
       <c r="AB12">
-        <v>2.9573947209029484E-2</v>
+        <v>2.8351086265583577E-2</v>
       </c>
       <c r="AC12">
-        <v>2.9097133241564783E-2</v>
+        <v>2.887699879764178E-2</v>
       </c>
       <c r="AD12">
-        <v>2.9628731278748675E-2</v>
+        <v>2.9544710734593905E-2</v>
       </c>
       <c r="AE12">
-        <v>2.9344037496884776E-2</v>
+        <v>2.8975416367390469E-2</v>
       </c>
       <c r="AF12">
-        <v>2.9036282177103068E-2</v>
+        <v>3.0016925657537115E-2</v>
       </c>
       <c r="AG12">
-        <v>2.7900293232208766E-2</v>
+        <v>3.0089474880471447E-2</v>
       </c>
       <c r="AH12">
-        <v>2.8590080451364224E-2</v>
+        <v>3.0418790680830168E-2</v>
       </c>
       <c r="AI12">
-        <v>2.7716998275655488E-2</v>
+        <v>3.1836536375668564E-2</v>
       </c>
       <c r="AJ12">
-        <v>2.7633513358308628E-2</v>
+        <v>3.2133367060480804E-2</v>
       </c>
       <c r="AK12">
-        <v>2.6591879743854421E-2</v>
+        <v>1.8718822580417686E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
@@ -8180,112 +7547,112 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2.3063282817802372E-2</v>
+        <v>5.2975330552468523E-3</v>
       </c>
       <c r="C13">
-        <v>2.335157588863163E-2</v>
+        <v>3.9457459720527565E-3</v>
       </c>
       <c r="D13">
-        <v>2.4016171020102159E-2</v>
+        <v>3.5917201012227538E-3</v>
       </c>
       <c r="E13">
-        <v>2.4608985037443319E-2</v>
+        <v>3.7062210137453642E-3</v>
       </c>
       <c r="F13">
-        <v>2.5176192836645624E-2</v>
+        <v>5.3837147147638284E-3</v>
       </c>
       <c r="G13">
-        <v>2.5924823691271134E-2</v>
+        <v>7.0386891007083842E-3</v>
       </c>
       <c r="H13">
-        <v>2.6316650912166117E-2</v>
+        <v>8.3999552593000057E-3</v>
       </c>
       <c r="I13">
-        <v>2.6807218772708068E-2</v>
+        <v>9.4398829639821841E-3</v>
       </c>
       <c r="J13">
-        <v>2.7270291901652342E-2</v>
+        <v>9.966402061260371E-3</v>
       </c>
       <c r="K13">
-        <v>2.7514649287573942E-2</v>
+        <v>9.8397295828014271E-3</v>
       </c>
       <c r="L13">
-        <v>2.7867103812808148E-2</v>
+        <v>1.2772878396103915E-2</v>
       </c>
       <c r="M13">
-        <v>2.803524050713891E-2</v>
+        <v>1.4218739767573615E-2</v>
       </c>
       <c r="N13">
-        <v>2.8480415486121725E-2</v>
+        <v>1.4277872776802517E-2</v>
       </c>
       <c r="O13">
-        <v>2.838104362022956E-2</v>
+        <v>1.5226885425898872E-2</v>
       </c>
       <c r="P13">
-        <v>2.9064822778308963E-2</v>
+        <v>1.611447063060964E-2</v>
       </c>
       <c r="Q13">
-        <v>2.9522497679515165E-2</v>
+        <v>1.7322059199380877E-2</v>
       </c>
       <c r="R13">
-        <v>2.8971711504632441E-2</v>
+        <v>1.8201425070707513E-2</v>
       </c>
       <c r="S13">
-        <v>2.9305172067699375E-2</v>
+        <v>1.9608392907016117E-2</v>
       </c>
       <c r="T13">
-        <v>2.9611613608367917E-2</v>
+        <v>2.2003176784146535E-2</v>
       </c>
       <c r="U13">
-        <v>2.9612511235715792E-2</v>
+        <v>2.3291002015920891E-2</v>
       </c>
       <c r="V13">
-        <v>2.9167419827007501E-2</v>
+        <v>2.4163453568037809E-2</v>
       </c>
       <c r="W13">
-        <v>2.8854172953004076E-2</v>
+        <v>2.4827218516184961E-2</v>
       </c>
       <c r="X13">
-        <v>2.9311474806301131E-2</v>
+        <v>2.5491692473001763E-2</v>
       </c>
       <c r="Y13">
-        <v>2.9582045778483803E-2</v>
+        <v>2.6154977353145783E-2</v>
       </c>
       <c r="Z13">
-        <v>2.9764952141111349E-2</v>
+        <v>2.7203402473632739E-2</v>
       </c>
       <c r="AA13">
-        <v>2.8544387530906098E-2</v>
+        <v>2.7733139487020407E-2</v>
       </c>
       <c r="AB13">
-        <v>2.8667418085528199E-2</v>
+        <v>2.9229958898553867E-2</v>
       </c>
       <c r="AC13">
-        <v>2.8744744455146264E-2</v>
+        <v>2.9359291146147368E-2</v>
       </c>
       <c r="AD13">
-        <v>2.8056364860205001E-2</v>
+        <v>3.0191282564302698E-2</v>
       </c>
       <c r="AE13">
-        <v>2.8206953416053115E-2</v>
+        <v>3.1926275547230057E-2</v>
       </c>
       <c r="AF13">
-        <v>2.7647706387621217E-2</v>
+        <v>3.0678178305499983E-2</v>
       </c>
       <c r="AG13">
-        <v>2.6991972745985429E-2</v>
+        <v>3.0922892354928379E-2</v>
       </c>
       <c r="AH13">
-        <v>2.6288096801114668E-2</v>
+        <v>3.2081100676332339E-2</v>
       </c>
       <c r="AI13">
-        <v>2.5732204696839282E-2</v>
+        <v>2.5525822091311347E-2</v>
       </c>
       <c r="AJ13">
-        <v>2.5298075367403267E-2</v>
+        <v>2.6176606136374812E-2</v>
       </c>
       <c r="AK13">
-        <v>2.745684015280983E-2</v>
+        <v>1.8871005828318091E-2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -8293,112 +7660,112 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2.4250929955226864E-2</v>
+        <v>6.9720050125297063E-3</v>
       </c>
       <c r="C14">
-        <v>2.4910858676821676E-2</v>
+        <v>5.8578977221638608E-3</v>
       </c>
       <c r="D14">
-        <v>2.5628099505814014E-2</v>
+        <v>5.2097263468685543E-3</v>
       </c>
       <c r="E14">
-        <v>2.6313858703580658E-2</v>
+        <v>4.7605129954027816E-3</v>
       </c>
       <c r="F14">
-        <v>2.655993170586125E-2</v>
+        <v>5.019804514157949E-3</v>
       </c>
       <c r="G14">
-        <v>2.7239757055753069E-2</v>
+        <v>6.4239893319609801E-3</v>
       </c>
       <c r="H14">
-        <v>2.7885529509904489E-2</v>
+        <v>7.6130747025696414E-3</v>
       </c>
       <c r="I14">
-        <v>2.8417105254410963E-2</v>
+        <v>8.9551094011972743E-3</v>
       </c>
       <c r="J14">
-        <v>2.873999765050084E-2</v>
+        <v>9.7437144311669222E-3</v>
       </c>
       <c r="K14">
-        <v>2.8758848034794043E-2</v>
+        <v>1.0234267646337E-2</v>
       </c>
       <c r="L14">
-        <v>2.9412595770809333E-2</v>
+        <v>1.0463913092948779E-2</v>
       </c>
       <c r="M14">
-        <v>2.9738590510744008E-2</v>
+        <v>1.3627828244679979E-2</v>
       </c>
       <c r="N14">
-        <v>2.995217106932286E-2</v>
+        <v>1.4533627137038785E-2</v>
       </c>
       <c r="O14">
-        <v>3.025609008618128E-2</v>
+        <v>1.5742076816411033E-2</v>
       </c>
       <c r="P14">
-        <v>3.020081371956276E-2</v>
+        <v>1.5962626469635727E-2</v>
       </c>
       <c r="Q14">
-        <v>3.0407112555974825E-2</v>
+        <v>1.7273612979421274E-2</v>
       </c>
       <c r="R14">
-        <v>3.0216481600303692E-2</v>
+        <v>1.9431954185846329E-2</v>
       </c>
       <c r="S14">
-        <v>2.9967879227421248E-2</v>
+        <v>2.0926293698190424E-2</v>
       </c>
       <c r="T14">
-        <v>2.9737988069709887E-2</v>
+        <v>2.2070594095261496E-2</v>
       </c>
       <c r="U14">
-        <v>3.0041191873789785E-2</v>
+        <v>2.3438855710212231E-2</v>
       </c>
       <c r="V14">
-        <v>2.9659808133059247E-2</v>
+        <v>2.4182723210952672E-2</v>
       </c>
       <c r="W14">
-        <v>2.9789712136505091E-2</v>
+        <v>2.5087885825690586E-2</v>
       </c>
       <c r="X14">
-        <v>2.9400332853851661E-2</v>
+        <v>2.5889801390200667E-2</v>
       </c>
       <c r="Y14">
-        <v>2.8943672085842857E-2</v>
+        <v>2.6321563039675762E-2</v>
       </c>
       <c r="Z14">
-        <v>2.977054225885194E-2</v>
+        <v>2.7705215319088549E-2</v>
       </c>
       <c r="AA14">
-        <v>2.8935112776631629E-2</v>
+        <v>2.8440218388192259E-2</v>
       </c>
       <c r="AB14">
-        <v>2.8227044147333947E-2</v>
+        <v>2.9836888877464437E-2</v>
       </c>
       <c r="AC14">
-        <v>2.7500617730756374E-2</v>
+        <v>3.0201360991531704E-2</v>
       </c>
       <c r="AD14">
-        <v>2.7205470975862511E-2</v>
+        <v>3.1252006292897316E-2</v>
       </c>
       <c r="AE14">
-        <v>2.604060311860229E-2</v>
+        <v>3.2713174467260887E-2</v>
       </c>
       <c r="AF14">
-        <v>2.5654657492103692E-2</v>
+        <v>3.3362104573791455E-2</v>
       </c>
       <c r="AG14">
-        <v>2.5197749835764564E-2</v>
+        <v>2.5417968017246596E-2</v>
       </c>
       <c r="AH14">
-        <v>2.4767559049710185E-2</v>
+        <v>2.5726739314243643E-2</v>
       </c>
       <c r="AI14">
-        <v>2.2888472998341181E-2</v>
+        <v>2.6185855534463967E-2</v>
       </c>
       <c r="AJ14">
-        <v>2.0769651427024794E-2</v>
+        <v>2.6815512444586662E-2</v>
       </c>
       <c r="AK14">
-        <v>2.8034196473117667E-2</v>
+        <v>1.9075963530634402E-2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
@@ -8406,112 +7773,112 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1.4725444964793683E-2</v>
+        <v>3.6633159304256756E-3</v>
       </c>
       <c r="C15">
-        <v>1.5092906405622657E-2</v>
+        <v>4.2516165497850393E-3</v>
       </c>
       <c r="D15">
-        <v>1.5600292659410655E-2</v>
+        <v>5.138363939892223E-3</v>
       </c>
       <c r="E15">
-        <v>1.6150548111282227E-2</v>
+        <v>6.1207479154024415E-3</v>
       </c>
       <c r="F15">
-        <v>1.671744962234856E-2</v>
+        <v>6.9939699648409147E-3</v>
       </c>
       <c r="G15">
-        <v>1.7360975605694374E-2</v>
+        <v>7.8744964879780971E-3</v>
       </c>
       <c r="H15">
-        <v>1.7951381515235919E-2</v>
+        <v>8.5298689754803297E-3</v>
       </c>
       <c r="I15">
-        <v>1.8438202959659044E-2</v>
+        <v>9.7144011464203352E-3</v>
       </c>
       <c r="J15">
-        <v>1.8917871496209965E-2</v>
+        <v>1.0624669894398907E-2</v>
       </c>
       <c r="K15">
-        <v>1.9295358477628338E-2</v>
+        <v>1.1151826484726389E-2</v>
       </c>
       <c r="L15">
-        <v>1.97299169715957E-2</v>
+        <v>1.2443122568764975E-2</v>
       </c>
       <c r="M15">
-        <v>2.0086842674339311E-2</v>
+        <v>1.3046294434747115E-2</v>
       </c>
       <c r="N15">
-        <v>2.0516866214024567E-2</v>
+        <v>1.375263789218526E-2</v>
       </c>
       <c r="O15">
-        <v>2.0675867390064336E-2</v>
+        <v>1.4089766686370898E-2</v>
       </c>
       <c r="P15">
-        <v>2.104013047009062E-2</v>
+        <v>1.4655192961106739E-2</v>
       </c>
       <c r="Q15">
-        <v>2.1467662834012049E-2</v>
+        <v>1.5600355346697918E-2</v>
       </c>
       <c r="R15">
-        <v>2.1433931546825331E-2</v>
+        <v>1.6352529401305962E-2</v>
       </c>
       <c r="S15">
-        <v>2.1709783002487493E-2</v>
+        <v>1.7108242096363441E-2</v>
       </c>
       <c r="T15">
-        <v>2.1964640114689571E-2</v>
+        <v>1.8111408928430557E-2</v>
       </c>
       <c r="U15">
-        <v>2.2534094221666041E-2</v>
+        <v>1.9093285500137266E-2</v>
       </c>
       <c r="V15">
-        <v>2.2537632505692927E-2</v>
+        <v>2.0020287264786992E-2</v>
       </c>
       <c r="W15">
-        <v>2.2639632978228557E-2</v>
+        <v>2.0579529745096033E-2</v>
       </c>
       <c r="X15">
-        <v>2.3121887323777037E-2</v>
+        <v>2.1207165418207795E-2</v>
       </c>
       <c r="Y15">
-        <v>2.3254203970411971E-2</v>
+        <v>2.19049159026426E-2</v>
       </c>
       <c r="Z15">
-        <v>2.3979957670581448E-2</v>
+        <v>2.2729150749447948E-2</v>
       </c>
       <c r="AA15">
-        <v>2.3795340726049677E-2</v>
+        <v>2.3172377752966419E-2</v>
       </c>
       <c r="AB15">
-        <v>2.3944165760469257E-2</v>
+        <v>2.3937002028473459E-2</v>
       </c>
       <c r="AC15">
-        <v>2.4015065369824052E-2</v>
+        <v>2.4387678271053093E-2</v>
       </c>
       <c r="AD15">
-        <v>2.408050477228969E-2</v>
+        <v>2.499889645495678E-2</v>
       </c>
       <c r="AE15">
-        <v>2.4238374103612684E-2</v>
+        <v>2.5852386825927696E-2</v>
       </c>
       <c r="AF15">
-        <v>2.4532565482035213E-2</v>
+        <v>2.6348488722891604E-2</v>
       </c>
       <c r="AG15">
-        <v>2.4467714920868279E-2</v>
+        <v>2.597257628839196E-2</v>
       </c>
       <c r="AH15">
-        <v>2.4529877767588557E-2</v>
+        <v>2.6781663554460166E-2</v>
       </c>
       <c r="AI15">
-        <v>2.4272979827058963E-2</v>
+        <v>2.6572548931081904E-2</v>
       </c>
       <c r="AJ15">
-        <v>2.4103467149214009E-2</v>
+        <v>2.732927128084418E-2</v>
       </c>
       <c r="AK15">
-        <v>2.0799864475169245E-2</v>
+        <v>1.6720399662382639E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8519,7 +7886,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>3.0407112555974825E-2</v>
+        <v>3.3362104573791455E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8669,112 +8036,112 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6.645453921119762E-3</v>
+        <v>5.8764395488135734E-3</v>
       </c>
       <c r="C5">
-        <v>6.939046393908339E-3</v>
+        <v>5.9789540950131569E-3</v>
       </c>
       <c r="D5">
-        <v>7.0756380404834616E-3</v>
+        <v>6.442022144948943E-3</v>
       </c>
       <c r="E5">
-        <v>7.4535861558492787E-3</v>
+        <v>6.8309707562786287E-3</v>
       </c>
       <c r="F5">
-        <v>7.3971460642146157E-3</v>
+        <v>7.2538549100744669E-3</v>
       </c>
       <c r="G5">
-        <v>8.0178115492950744E-3</v>
+        <v>7.7343948753888286E-3</v>
       </c>
       <c r="H5">
-        <v>8.522705589425323E-3</v>
+        <v>8.0501864298516308E-3</v>
       </c>
       <c r="I5">
-        <v>8.9881531525349452E-3</v>
+        <v>8.3593382388996648E-3</v>
       </c>
       <c r="J5">
-        <v>9.442613208771454E-3</v>
+        <v>8.6687031433690543E-3</v>
       </c>
       <c r="K5">
-        <v>9.9285663714684131E-3</v>
+        <v>9.0562582238699046E-3</v>
       </c>
       <c r="L5">
-        <v>1.033026761005339E-2</v>
+        <v>9.4036769582138188E-3</v>
       </c>
       <c r="M5">
-        <v>1.0905414416636448E-2</v>
+        <v>9.7264496452196189E-3</v>
       </c>
       <c r="N5">
-        <v>1.1647380185160964E-2</v>
+        <v>1.0261661905624884E-2</v>
       </c>
       <c r="O5">
-        <v>1.2012583262773604E-2</v>
+        <v>1.0723642251354396E-2</v>
       </c>
       <c r="P5">
-        <v>1.287098672631631E-2</v>
+        <v>1.114904268328621E-2</v>
       </c>
       <c r="Q5">
-        <v>1.3607376539635976E-2</v>
+        <v>1.1587899590402823E-2</v>
       </c>
       <c r="R5">
-        <v>1.4048894541546279E-2</v>
+        <v>1.1694364771281839E-2</v>
       </c>
       <c r="S5">
-        <v>1.4747539755965981E-2</v>
+        <v>1.201637087234244E-2</v>
       </c>
       <c r="T5">
-        <v>1.5430901467122879E-2</v>
+        <v>1.2409301230191608E-2</v>
       </c>
       <c r="U5">
-        <v>1.6124211990597721E-2</v>
+        <v>1.3035138129112358E-2</v>
       </c>
       <c r="V5">
-        <v>1.6518728576642293E-2</v>
+        <v>1.3512754716430228E-2</v>
       </c>
       <c r="W5">
-        <v>1.6721821454369373E-2</v>
+        <v>1.3746552334701794E-2</v>
       </c>
       <c r="X5">
-        <v>1.7221244146769139E-2</v>
+        <v>1.4353902012591726E-2</v>
       </c>
       <c r="Y5">
-        <v>1.7424847598075131E-2</v>
+        <v>1.4393525927478314E-2</v>
       </c>
       <c r="Z5">
-        <v>1.832965196259893E-2</v>
+        <v>1.5193942608065563E-2</v>
       </c>
       <c r="AA5">
-        <v>1.8385534129156222E-2</v>
+        <v>1.5163198460612655E-2</v>
       </c>
       <c r="AB5">
-        <v>1.8827239566825402E-2</v>
+        <v>1.5531959455471886E-2</v>
       </c>
       <c r="AC5">
-        <v>1.9291164778892273E-2</v>
+        <v>1.5782882927719167E-2</v>
       </c>
       <c r="AD5">
-        <v>1.9592356249208104E-2</v>
+        <v>1.6016340570446246E-2</v>
       </c>
       <c r="AE5">
-        <v>1.9854033367632917E-2</v>
+        <v>1.6188067952852644E-2</v>
       </c>
       <c r="AF5">
-        <v>2.0294936502291749E-2</v>
+        <v>1.6884595688640057E-2</v>
       </c>
       <c r="AG5">
-        <v>2.0778170293602783E-2</v>
+        <v>1.695488944049002E-2</v>
       </c>
       <c r="AH5">
-        <v>2.1262401590263713E-2</v>
+        <v>1.717247475313859E-2</v>
       </c>
       <c r="AI5">
-        <v>2.1575479562711788E-2</v>
+        <v>1.7496971781906727E-2</v>
       </c>
       <c r="AJ5">
-        <v>2.1903634255684531E-2</v>
+        <v>1.7565512358226395E-2</v>
       </c>
       <c r="AK5">
-        <v>1.3831959478706029E-2</v>
+        <v>1.1795465948457783E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
@@ -8782,112 +8149,112 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7.4084925829069163E-3</v>
+        <v>7.5673086887345486E-3</v>
       </c>
       <c r="C6">
-        <v>7.9116868590854116E-3</v>
+        <v>7.9606035226517519E-3</v>
       </c>
       <c r="D6">
-        <v>7.9809249421255515E-3</v>
+        <v>8.2941212459062778E-3</v>
       </c>
       <c r="E6">
-        <v>8.2960388615602454E-3</v>
+        <v>8.7895652426517607E-3</v>
       </c>
       <c r="F6">
-        <v>8.5726848609020065E-3</v>
+        <v>9.1828798444334118E-3</v>
       </c>
       <c r="G6">
-        <v>9.3331361701196689E-3</v>
+        <v>9.6292763402301643E-3</v>
       </c>
       <c r="H6">
-        <v>1.01403782658649E-2</v>
+        <v>1.0046288710632041E-2</v>
       </c>
       <c r="I6">
-        <v>1.0494870412056295E-2</v>
+        <v>1.0570049198485629E-2</v>
       </c>
       <c r="J6">
-        <v>1.0929154385943838E-2</v>
+        <v>1.1161746240707258E-2</v>
       </c>
       <c r="K6">
-        <v>1.153489311517476E-2</v>
+        <v>1.1702423764711695E-2</v>
       </c>
       <c r="L6">
-        <v>1.2191765952165114E-2</v>
+        <v>1.2232166423089601E-2</v>
       </c>
       <c r="M6">
-        <v>1.291330067220724E-2</v>
+        <v>1.2721392373951517E-2</v>
       </c>
       <c r="N6">
-        <v>1.3562412619328522E-2</v>
+        <v>1.3241446626937296E-2</v>
       </c>
       <c r="O6">
-        <v>1.4306696054659677E-2</v>
+        <v>1.35118899257627E-2</v>
       </c>
       <c r="P6">
-        <v>1.5021028878200277E-2</v>
+        <v>1.3902789801623603E-2</v>
       </c>
       <c r="Q6">
-        <v>1.583859608354031E-2</v>
+        <v>1.454660377965864E-2</v>
       </c>
       <c r="R6">
-        <v>1.6321728979418058E-2</v>
+        <v>1.4738641893090739E-2</v>
       </c>
       <c r="S6">
-        <v>1.7087173787586694E-2</v>
+        <v>1.5178305362309128E-2</v>
       </c>
       <c r="T6">
-        <v>1.7801508096633431E-2</v>
+        <v>1.5425402486060629E-2</v>
       </c>
       <c r="U6">
-        <v>1.8323424664129621E-2</v>
+        <v>1.5968565374070678E-2</v>
       </c>
       <c r="V6">
-        <v>1.8790132219229625E-2</v>
+        <v>1.5981373319613301E-2</v>
       </c>
       <c r="W6">
-        <v>1.9049944460529197E-2</v>
+        <v>1.6318481041877046E-2</v>
       </c>
       <c r="X6">
-        <v>1.9865693583900546E-2</v>
+        <v>1.6955780930579804E-2</v>
       </c>
       <c r="Y6">
-        <v>2.0064310950222063E-2</v>
+        <v>1.7199165449378169E-2</v>
       </c>
       <c r="Z6">
-        <v>2.0673774991653036E-2</v>
+        <v>1.7527160608703303E-2</v>
       </c>
       <c r="AA6">
-        <v>2.0783039063213549E-2</v>
+        <v>1.75734794372026E-2</v>
       </c>
       <c r="AB6">
-        <v>2.125484589004413E-2</v>
+        <v>1.805671752066176E-2</v>
       </c>
       <c r="AC6">
-        <v>2.1499975168354151E-2</v>
+        <v>1.832605442268722E-2</v>
       </c>
       <c r="AD6">
-        <v>2.1809117674945477E-2</v>
+        <v>1.8488149530961583E-2</v>
       </c>
       <c r="AE6">
-        <v>2.2415530531647656E-2</v>
+        <v>1.913269152389464E-2</v>
       </c>
       <c r="AF6">
-        <v>2.3240464700281294E-2</v>
+        <v>1.9599578879625556E-2</v>
       </c>
       <c r="AG6">
-        <v>2.3527643577928151E-2</v>
+        <v>1.9924168721801909E-2</v>
       </c>
       <c r="AH6">
-        <v>2.4341319191447938E-2</v>
+        <v>2.0165993632629199E-2</v>
       </c>
       <c r="AI6">
-        <v>2.4426390964564601E-2</v>
+        <v>2.0094338688478791E-2</v>
       </c>
       <c r="AJ6">
-        <v>2.4576541531224495E-2</v>
+        <v>2.0609818405879516E-2</v>
       </c>
       <c r="AK6">
-        <v>1.5795533237991786E-2</v>
+        <v>1.4333449853159281E-2</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
@@ -8895,112 +8262,112 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>8.2350215491849912E-3</v>
+        <v>9.5858801550377428E-3</v>
       </c>
       <c r="C7">
-        <v>8.7312381838032492E-3</v>
+        <v>9.9669795556260373E-3</v>
       </c>
       <c r="D7">
-        <v>8.8084406367012098E-3</v>
+        <v>1.0384226534056488E-2</v>
       </c>
       <c r="E7">
-        <v>9.206027149819742E-3</v>
+        <v>1.0953063250008905E-2</v>
       </c>
       <c r="F7">
-        <v>9.6123399303990574E-3</v>
+        <v>1.1430246565152367E-2</v>
       </c>
       <c r="G7">
-        <v>1.0659472355303812E-2</v>
+        <v>1.1912780085681111E-2</v>
       </c>
       <c r="H7">
-        <v>1.1362425083027438E-2</v>
+        <v>1.2692410214223461E-2</v>
       </c>
       <c r="I7">
-        <v>1.1828835442226782E-2</v>
+        <v>1.3245733640030375E-2</v>
       </c>
       <c r="J7">
-        <v>1.2615087661001756E-2</v>
+        <v>1.3859206818095722E-2</v>
       </c>
       <c r="K7">
-        <v>1.321320019306879E-2</v>
+        <v>1.4284602928692476E-2</v>
       </c>
       <c r="L7">
-        <v>1.3744542026314317E-2</v>
+        <v>1.5012846595321917E-2</v>
       </c>
       <c r="M7">
-        <v>1.461523273661894E-2</v>
+        <v>1.5410874479565758E-2</v>
       </c>
       <c r="N7">
-        <v>1.5377678417863496E-2</v>
+        <v>1.6064021345775968E-2</v>
       </c>
       <c r="O7">
-        <v>1.6233474310184189E-2</v>
+        <v>1.6204565425723606E-2</v>
       </c>
       <c r="P7">
-        <v>1.6975992086023437E-2</v>
+        <v>1.6675094707383254E-2</v>
       </c>
       <c r="Q7">
-        <v>1.7984795589154126E-2</v>
+        <v>1.7163583811586412E-2</v>
       </c>
       <c r="R7">
-        <v>1.8478500716715189E-2</v>
+        <v>1.7358160849141713E-2</v>
       </c>
       <c r="S7">
-        <v>1.9176617004793204E-2</v>
+        <v>1.7609213332985284E-2</v>
       </c>
       <c r="T7">
-        <v>1.9717508188996046E-2</v>
+        <v>1.7980394682818892E-2</v>
       </c>
       <c r="U7">
-        <v>2.038435831753517E-2</v>
+        <v>1.8487453761362863E-2</v>
       </c>
       <c r="V7">
-        <v>2.090279885415423E-2</v>
+        <v>1.8645501131891347E-2</v>
       </c>
       <c r="W7">
-        <v>2.1391763598508588E-2</v>
+        <v>1.8878554865613458E-2</v>
       </c>
       <c r="X7">
-        <v>2.1933398542502112E-2</v>
+        <v>1.9274225712995044E-2</v>
       </c>
       <c r="Y7">
-        <v>2.2328224276032562E-2</v>
+        <v>1.9460696445305035E-2</v>
       </c>
       <c r="Z7">
-        <v>2.2831716846750241E-2</v>
+        <v>2.0219832311873978E-2</v>
       </c>
       <c r="AA7">
-        <v>2.3179573494851561E-2</v>
+        <v>2.0399930836521925E-2</v>
       </c>
       <c r="AB7">
-        <v>2.3560057807085241E-2</v>
+        <v>2.0678041180941471E-2</v>
       </c>
       <c r="AC7">
-        <v>2.3814675727268819E-2</v>
+        <v>2.0893089408958117E-2</v>
       </c>
       <c r="AD7">
-        <v>2.4138874971007286E-2</v>
+        <v>2.1382176888156561E-2</v>
       </c>
       <c r="AE7">
-        <v>2.5208870520877148E-2</v>
+        <v>2.1806774205653474E-2</v>
       </c>
       <c r="AF7">
-        <v>2.5935406624814722E-2</v>
+        <v>2.2347398418351511E-2</v>
       </c>
       <c r="AG7">
-        <v>2.6150577708602688E-2</v>
+        <v>2.2654711452996239E-2</v>
       </c>
       <c r="AH7">
-        <v>2.6773890473999629E-2</v>
+        <v>2.3224013967653365E-2</v>
       </c>
       <c r="AI7">
-        <v>2.6652574805795026E-2</v>
+        <v>2.3232838703637571E-2</v>
       </c>
       <c r="AJ7">
-        <v>2.7363633772186587E-2</v>
+        <v>2.3089679090115774E-2</v>
       </c>
       <c r="AK7">
-        <v>1.7589827670460526E-2</v>
+        <v>1.6882706559260739E-2</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -9008,112 +8375,112 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>8.8376751426438079E-3</v>
+        <v>1.1786268238034898E-2</v>
       </c>
       <c r="C8">
-        <v>9.5040161564348934E-3</v>
+        <v>1.2080584383486E-2</v>
       </c>
       <c r="D8">
-        <v>9.584631695811946E-3</v>
+        <v>1.2521388071678191E-2</v>
       </c>
       <c r="E8">
-        <v>1.0204058106315738E-2</v>
+        <v>1.3220307474028352E-2</v>
       </c>
       <c r="F8">
-        <v>1.0959667491283817E-2</v>
+        <v>1.3938074096688657E-2</v>
       </c>
       <c r="G8">
-        <v>1.1877158687330365E-2</v>
+        <v>1.4765767505080216E-2</v>
       </c>
       <c r="H8">
-        <v>1.2652272457334187E-2</v>
+        <v>1.5449230374187229E-2</v>
       </c>
       <c r="I8">
-        <v>1.3140530499239711E-2</v>
+        <v>1.5971319822977448E-2</v>
       </c>
       <c r="J8">
-        <v>1.3821663574801515E-2</v>
+        <v>1.6649284546757522E-2</v>
       </c>
       <c r="K8">
-        <v>1.448812479131628E-2</v>
+        <v>1.7171536229556878E-2</v>
       </c>
       <c r="L8">
-        <v>1.5471950969627685E-2</v>
+        <v>1.7485498952314615E-2</v>
       </c>
       <c r="M8">
-        <v>1.6149996948404684E-2</v>
+        <v>1.7814741956785667E-2</v>
       </c>
       <c r="N8">
-        <v>1.693384939280607E-2</v>
+        <v>1.8346793501178429E-2</v>
       </c>
       <c r="O8">
-        <v>1.7852713109047607E-2</v>
+        <v>1.8691799034784688E-2</v>
       </c>
       <c r="P8">
-        <v>1.8813832180641397E-2</v>
+        <v>1.8984354755438727E-2</v>
       </c>
       <c r="Q8">
-        <v>1.9516466179028254E-2</v>
+        <v>1.9439909485045717E-2</v>
       </c>
       <c r="R8">
-        <v>2.0288128661183388E-2</v>
+        <v>1.9680949443964008E-2</v>
       </c>
       <c r="S8">
-        <v>2.083985599151526E-2</v>
+        <v>1.9730301433823302E-2</v>
       </c>
       <c r="T8">
-        <v>2.1633507996895653E-2</v>
+        <v>1.9873300316164525E-2</v>
       </c>
       <c r="U8">
-        <v>2.2353187742409589E-2</v>
+        <v>2.0574959773079673E-2</v>
       </c>
       <c r="V8">
-        <v>2.2694165991048718E-2</v>
+        <v>2.0656343212661243E-2</v>
       </c>
       <c r="W8">
-        <v>2.3099071554437491E-2</v>
+        <v>2.0997851410835811E-2</v>
       </c>
       <c r="X8">
-        <v>2.3624198075798696E-2</v>
+        <v>2.1586767554233832E-2</v>
       </c>
       <c r="Y8">
-        <v>2.39876425402266E-2</v>
+        <v>2.189360364448055E-2</v>
       </c>
       <c r="Z8">
-        <v>2.4558962827990739E-2</v>
+        <v>2.2953128133642774E-2</v>
       </c>
       <c r="AA8">
-        <v>2.4784079057752036E-2</v>
+        <v>2.2857083384161911E-2</v>
       </c>
       <c r="AB8">
-        <v>2.5642473547201387E-2</v>
+        <v>2.3194085996909565E-2</v>
       </c>
       <c r="AC8">
-        <v>2.5937264556521386E-2</v>
+        <v>2.3637865798004195E-2</v>
       </c>
       <c r="AD8">
-        <v>2.6500428919776959E-2</v>
+        <v>2.3950402526123574E-2</v>
       </c>
       <c r="AE8">
-        <v>2.7108399140869308E-2</v>
+        <v>2.4388653334967075E-2</v>
       </c>
       <c r="AF8">
-        <v>2.7840148447498582E-2</v>
+        <v>2.513164313610123E-2</v>
       </c>
       <c r="AG8">
-        <v>2.7970448437982905E-2</v>
+        <v>2.539813514987144E-2</v>
       </c>
       <c r="AH8">
-        <v>2.8355831331445432E-2</v>
+        <v>2.5394298409884629E-2</v>
       </c>
       <c r="AI8">
-        <v>2.8988913878309274E-2</v>
+        <v>2.5611292945872454E-2</v>
       </c>
       <c r="AJ8">
-        <v>2.8872421952637048E-2</v>
+        <v>2.5681236358228148E-2</v>
       </c>
       <c r="AK8">
-        <v>1.909829849492287E-2</v>
+        <v>1.9293924295184985E-2</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
@@ -9121,112 +8488,112 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>9.3773640259175398E-3</v>
+        <v>1.4009895604327197E-2</v>
       </c>
       <c r="C9">
-        <v>1.008184277079056E-2</v>
+        <v>1.4531238454772407E-2</v>
       </c>
       <c r="D9">
-        <v>1.0373855715455649E-2</v>
+        <v>1.5268680673761061E-2</v>
       </c>
       <c r="E9">
-        <v>1.0923966612820525E-2</v>
+        <v>1.5735557197583107E-2</v>
       </c>
       <c r="F9">
-        <v>1.16642135470002E-2</v>
+        <v>1.6526336907413432E-2</v>
       </c>
       <c r="G9">
-        <v>1.2749953523703311E-2</v>
+        <v>1.7462212245032881E-2</v>
       </c>
       <c r="H9">
-        <v>1.3414900929968587E-2</v>
+        <v>1.8140158379622243E-2</v>
       </c>
       <c r="I9">
-        <v>1.4224672424054145E-2</v>
+        <v>1.8573442251032378E-2</v>
       </c>
       <c r="J9">
-        <v>1.4883921458584927E-2</v>
+        <v>1.9073144225101677E-2</v>
       </c>
       <c r="K9">
-        <v>1.5946389341713458E-2</v>
+        <v>1.9389120010129199E-2</v>
       </c>
       <c r="L9">
-        <v>1.68254167550696E-2</v>
+        <v>1.984295191587938E-2</v>
       </c>
       <c r="M9">
-        <v>1.7392798536445833E-2</v>
+        <v>2.0251107604651288E-2</v>
       </c>
       <c r="N9">
-        <v>1.8260824409117121E-2</v>
+        <v>2.0778969184923925E-2</v>
       </c>
       <c r="O9">
-        <v>1.9247298833843129E-2</v>
+        <v>2.0794329223281269E-2</v>
       </c>
       <c r="P9">
-        <v>1.9913652859636623E-2</v>
+        <v>2.1183965878648549E-2</v>
       </c>
       <c r="Q9">
-        <v>2.0795750160141523E-2</v>
+        <v>2.1505510347201082E-2</v>
       </c>
       <c r="R9">
-        <v>2.1676723088020922E-2</v>
+        <v>2.1524618525538577E-2</v>
       </c>
       <c r="S9">
-        <v>2.2357941132546407E-2</v>
+        <v>2.1733982953999486E-2</v>
       </c>
       <c r="T9">
-        <v>2.2926755386577128E-2</v>
+        <v>2.2013366149497667E-2</v>
       </c>
       <c r="U9">
-        <v>2.3716050948743218E-2</v>
+        <v>2.2668777122155547E-2</v>
       </c>
       <c r="V9">
-        <v>2.4077154227586144E-2</v>
+        <v>2.2904627537829982E-2</v>
       </c>
       <c r="W9">
-        <v>2.4643424325035683E-2</v>
+        <v>2.3534669895340428E-2</v>
       </c>
       <c r="X9">
-        <v>2.5510134764065603E-2</v>
+        <v>2.4202080332997089E-2</v>
       </c>
       <c r="Y9">
-        <v>2.5694074489848617E-2</v>
+        <v>2.4322044227814019E-2</v>
       </c>
       <c r="Z9">
-        <v>2.6064063772145617E-2</v>
+        <v>2.5379708618717561E-2</v>
       </c>
       <c r="AA9">
-        <v>2.6655617864534957E-2</v>
+        <v>2.5708320533119333E-2</v>
       </c>
       <c r="AB9">
-        <v>2.7195823128881056E-2</v>
+        <v>2.612736696254702E-2</v>
       </c>
       <c r="AC9">
-        <v>2.7620490524379943E-2</v>
+        <v>2.6341096684130604E-2</v>
       </c>
       <c r="AD9">
-        <v>2.8257644438303739E-2</v>
+        <v>2.6326570526490616E-2</v>
       </c>
       <c r="AE9">
-        <v>2.8492854214151028E-2</v>
+        <v>2.6734739799191141E-2</v>
       </c>
       <c r="AF9">
-        <v>2.9439310550364518E-2</v>
+        <v>2.71101993446346E-2</v>
       </c>
       <c r="AG9">
-        <v>2.9733484696232111E-2</v>
+        <v>2.7217922675570556E-2</v>
       </c>
       <c r="AH9">
-        <v>3.0661987655521802E-2</v>
+        <v>2.6928065975579108E-2</v>
       </c>
       <c r="AI9">
-        <v>3.064889552494357E-2</v>
+        <v>2.6851471888210895E-2</v>
       </c>
       <c r="AJ9">
-        <v>3.0786886565130431E-2</v>
+        <v>2.7147206195183893E-2</v>
       </c>
       <c r="AK9">
-        <v>2.0353301618658465E-2</v>
+        <v>2.1579942752738966E-2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
@@ -9234,112 +8601,112 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9.4448102120853732E-3</v>
+        <v>1.6581035617945473E-2</v>
       </c>
       <c r="C10">
-        <v>1.0158993157747799E-2</v>
+        <v>1.6927829498022351E-2</v>
       </c>
       <c r="D10">
-        <v>1.079475466635303E-2</v>
+        <v>1.7596147847231177E-2</v>
       </c>
       <c r="E10">
-        <v>1.1465631582501848E-2</v>
+        <v>1.8047995882727791E-2</v>
       </c>
       <c r="F10">
-        <v>1.2444249700409823E-2</v>
+        <v>1.870108041097544E-2</v>
       </c>
       <c r="G10">
-        <v>1.3633888452983804E-2</v>
+        <v>1.9451278968997929E-2</v>
       </c>
       <c r="H10">
-        <v>1.4229098169194434E-2</v>
+        <v>2.0142049120687757E-2</v>
       </c>
       <c r="I10">
-        <v>1.504196241070864E-2</v>
+        <v>2.0607766108682611E-2</v>
       </c>
       <c r="J10">
-        <v>1.5921989256970734E-2</v>
+        <v>2.1244013529883234E-2</v>
       </c>
       <c r="K10">
-        <v>1.6818603359422646E-2</v>
+        <v>2.1651128962427008E-2</v>
       </c>
       <c r="L10">
-        <v>1.7833095835679786E-2</v>
+        <v>2.2053798000557744E-2</v>
       </c>
       <c r="M10">
-        <v>1.8508419010908883E-2</v>
+        <v>2.2524070636076768E-2</v>
       </c>
       <c r="N10">
-        <v>1.9555459825769148E-2</v>
+        <v>2.2736641811778591E-2</v>
       </c>
       <c r="O10">
-        <v>2.0220030660132702E-2</v>
+        <v>2.2798217938434524E-2</v>
       </c>
       <c r="P10">
-        <v>2.1163131792870056E-2</v>
+        <v>2.320721771017694E-2</v>
       </c>
       <c r="Q10">
-        <v>2.2354518419037864E-2</v>
+        <v>2.3650443665803638E-2</v>
       </c>
       <c r="R10">
-        <v>2.2912402375366771E-2</v>
+        <v>2.3431358554042069E-2</v>
       </c>
       <c r="S10">
-        <v>2.3507415880909398E-2</v>
+        <v>2.3660904836411943E-2</v>
       </c>
       <c r="T10">
-        <v>2.4102975529015809E-2</v>
+        <v>2.4209246769234867E-2</v>
       </c>
       <c r="U10">
-        <v>2.4751012307181273E-2</v>
+        <v>2.5034352158565101E-2</v>
       </c>
       <c r="V10">
-        <v>2.5379014727422072E-2</v>
+        <v>2.512402849512866E-2</v>
       </c>
       <c r="W10">
-        <v>2.6000006964565496E-2</v>
+        <v>2.5430592529516263E-2</v>
       </c>
       <c r="X10">
-        <v>2.6751126612451992E-2</v>
+        <v>2.6008652774237005E-2</v>
       </c>
       <c r="Y10">
-        <v>2.7169594564828849E-2</v>
+        <v>2.6529016459767362E-2</v>
       </c>
       <c r="Z10">
-        <v>2.7887306228542415E-2</v>
+        <v>2.7595692194831611E-2</v>
       </c>
       <c r="AA10">
-        <v>2.8243264793079672E-2</v>
+        <v>2.7364617401876873E-2</v>
       </c>
       <c r="AB10">
-        <v>2.867620729269995E-2</v>
+        <v>2.7452700459614808E-2</v>
       </c>
       <c r="AC10">
-        <v>2.9203080870268693E-2</v>
+        <v>2.7642488910273703E-2</v>
       </c>
       <c r="AD10">
-        <v>2.9380842016480779E-2</v>
+        <v>2.7451602761389221E-2</v>
       </c>
       <c r="AE10">
-        <v>3.0001599144514533E-2</v>
+        <v>2.7818401435890393E-2</v>
       </c>
       <c r="AF10">
-        <v>3.1020205646207166E-2</v>
+        <v>2.8396715723358317E-2</v>
       </c>
       <c r="AG10">
-        <v>3.1825729900916817E-2</v>
+        <v>2.8308579065529631E-2</v>
       </c>
       <c r="AH10">
-        <v>3.179400071390108E-2</v>
+        <v>2.8636829932851129E-2</v>
       </c>
       <c r="AI10">
-        <v>3.1163128398494482E-2</v>
+        <v>2.8200925562420671E-2</v>
       </c>
       <c r="AJ10">
-        <v>3.1531705643664434E-2</v>
+        <v>2.8313551125886609E-2</v>
       </c>
       <c r="AK10">
-        <v>2.1343914075748389E-2</v>
+        <v>2.3489213911644779E-2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
@@ -9347,112 +8714,112 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>9.5184851818240056E-3</v>
+        <v>1.8787890072061959E-2</v>
       </c>
       <c r="C11">
-        <v>1.0268251857634842E-2</v>
+        <v>1.9376412479659155E-2</v>
       </c>
       <c r="D11">
-        <v>1.1016654103955028E-2</v>
+        <v>1.9641326409217164E-2</v>
       </c>
       <c r="E11">
-        <v>1.1859545097355271E-2</v>
+        <v>2.0249954934594465E-2</v>
       </c>
       <c r="F11">
-        <v>1.2919848531481736E-2</v>
+        <v>2.0955388178875455E-2</v>
       </c>
       <c r="G11">
-        <v>1.4030390064622198E-2</v>
+        <v>2.1730133503377675E-2</v>
       </c>
       <c r="H11">
-        <v>1.4775027704050538E-2</v>
+        <v>2.2388164301183747E-2</v>
       </c>
       <c r="I11">
-        <v>1.5953070266590531E-2</v>
+        <v>2.2845098522810504E-2</v>
       </c>
       <c r="J11">
-        <v>1.6683966232454463E-2</v>
+        <v>2.3340859992089368E-2</v>
       </c>
       <c r="K11">
-        <v>1.7618725562828948E-2</v>
+        <v>2.3770973452144954E-2</v>
       </c>
       <c r="L11">
-        <v>1.855816826619729E-2</v>
+        <v>2.4134800981891549E-2</v>
       </c>
       <c r="M11">
-        <v>1.9716937123923129E-2</v>
+        <v>2.4428148737785396E-2</v>
       </c>
       <c r="N11">
-        <v>2.0290594792545805E-2</v>
+        <v>2.475262307083995E-2</v>
       </c>
       <c r="O11">
-        <v>2.1249475112902465E-2</v>
+        <v>2.4882705289839387E-2</v>
       </c>
       <c r="P11">
-        <v>2.2124827682913829E-2</v>
+        <v>2.5019040687896746E-2</v>
       </c>
       <c r="Q11">
-        <v>2.3249782104315414E-2</v>
+        <v>2.5566766787079153E-2</v>
       </c>
       <c r="R11">
-        <v>2.3769497206696577E-2</v>
+        <v>2.5261895150667547E-2</v>
       </c>
       <c r="S11">
-        <v>2.4269791290252977E-2</v>
+        <v>2.5899715774341449E-2</v>
       </c>
       <c r="T11">
-        <v>2.4763344808414325E-2</v>
+        <v>2.6475864120240021E-2</v>
       </c>
       <c r="U11">
-        <v>2.574797605691197E-2</v>
+        <v>2.7252532856670456E-2</v>
       </c>
       <c r="V11">
-        <v>2.6596900599732975E-2</v>
+        <v>2.7215243993026366E-2</v>
       </c>
       <c r="W11">
-        <v>2.7086348560910568E-2</v>
+        <v>2.7161348838410506E-2</v>
       </c>
       <c r="X11">
-        <v>2.7733318503043228E-2</v>
+        <v>2.7884331884125854E-2</v>
       </c>
       <c r="Y11">
-        <v>2.8215278100572262E-2</v>
+        <v>2.8152839770837129E-2</v>
       </c>
       <c r="Z11">
-        <v>2.9492967104314302E-2</v>
+        <v>2.8609182921764762E-2</v>
       </c>
       <c r="AA11">
-        <v>2.9592032277491482E-2</v>
+        <v>2.8500633410950969E-2</v>
       </c>
       <c r="AB11">
-        <v>2.9918641598057891E-2</v>
+        <v>2.8350607296704029E-2</v>
       </c>
       <c r="AC11">
-        <v>3.0610903846052088E-2</v>
+        <v>2.8432540248136164E-2</v>
       </c>
       <c r="AD11">
-        <v>3.0924679211154948E-2</v>
+        <v>2.855866802954651E-2</v>
       </c>
       <c r="AE11">
-        <v>3.1060599752494658E-2</v>
+        <v>2.8621555523004254E-2</v>
       </c>
       <c r="AF11">
-        <v>3.1934429445129975E-2</v>
+        <v>2.9002638209828312E-2</v>
       </c>
       <c r="AG11">
-        <v>3.2391901814027582E-2</v>
+        <v>2.9167683871800149E-2</v>
       </c>
       <c r="AH11">
-        <v>3.2651893176652964E-2</v>
+        <v>2.8997931058152137E-2</v>
       </c>
       <c r="AI11">
-        <v>3.2418991450192808E-2</v>
+        <v>2.8824091069014898E-2</v>
       </c>
       <c r="AJ11">
-        <v>3.2069933986105914E-2</v>
+        <v>2.7603364588037187E-2</v>
       </c>
       <c r="AK11">
-        <v>2.2095809349707118E-2</v>
+        <v>2.5147723737484848E-2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
@@ -9460,112 +8827,112 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>9.2979843838606833E-3</v>
+        <v>2.1198587889492543E-2</v>
       </c>
       <c r="C12">
-        <v>1.0299893342915891E-2</v>
+        <v>2.1488028124347369E-2</v>
       </c>
       <c r="D12">
-        <v>1.1213553638782132E-2</v>
+        <v>2.2087768936263713E-2</v>
       </c>
       <c r="E12">
-        <v>1.2179328361430814E-2</v>
+        <v>2.2651170035213709E-2</v>
       </c>
       <c r="F12">
-        <v>1.3353139908517532E-2</v>
+        <v>2.3409354153988791E-2</v>
       </c>
       <c r="G12">
-        <v>1.4488405903582285E-2</v>
+        <v>2.3867176205173261E-2</v>
       </c>
       <c r="H12">
-        <v>1.5549038252330472E-2</v>
+        <v>2.456281886938369E-2</v>
       </c>
       <c r="I12">
-        <v>1.6551396158590213E-2</v>
+        <v>2.5110296073186513E-2</v>
       </c>
       <c r="J12">
-        <v>1.7401409772061571E-2</v>
+        <v>2.5334965453244662E-2</v>
       </c>
       <c r="K12">
-        <v>1.8395803110163356E-2</v>
+        <v>2.571386379314931E-2</v>
       </c>
       <c r="L12">
-        <v>1.9358169635330595E-2</v>
+        <v>2.5919271644794222E-2</v>
       </c>
       <c r="M12">
-        <v>2.0553442447881706E-2</v>
+        <v>2.6280325501660616E-2</v>
       </c>
       <c r="N12">
-        <v>2.1248188371683192E-2</v>
+        <v>2.6697408131170938E-2</v>
       </c>
       <c r="O12">
-        <v>2.2175358065847372E-2</v>
+        <v>2.6694993059513037E-2</v>
       </c>
       <c r="P12">
-        <v>2.3086985248970803E-2</v>
+        <v>2.7167644929675848E-2</v>
       </c>
       <c r="Q12">
-        <v>2.4267827231965761E-2</v>
+        <v>2.7539105495532148E-2</v>
       </c>
       <c r="R12">
-        <v>2.4378793440674156E-2</v>
+        <v>2.7619300245948934E-2</v>
       </c>
       <c r="S12">
-        <v>2.4978472520869766E-2</v>
+        <v>2.8205754853747756E-2</v>
       </c>
       <c r="T12">
-        <v>2.5787952427921382E-2</v>
+        <v>2.8209625699870663E-2</v>
       </c>
       <c r="U12">
-        <v>2.6994601148839278E-2</v>
+        <v>2.8999157295160897E-2</v>
       </c>
       <c r="V12">
-        <v>2.7448460659487448E-2</v>
+        <v>2.8782976373775651E-2</v>
       </c>
       <c r="W12">
-        <v>2.7756421610282581E-2</v>
+        <v>2.8032363941592732E-2</v>
       </c>
       <c r="X12">
-        <v>2.8674296280303945E-2</v>
+        <v>2.8558903104085501E-2</v>
       </c>
       <c r="Y12">
-        <v>2.9349071547462725E-2</v>
+        <v>2.8441574183979201E-2</v>
       </c>
       <c r="Z12">
-        <v>3.0626000662956628E-2</v>
+        <v>2.9434285543506966E-2</v>
       </c>
       <c r="AA12">
-        <v>3.0567450402050979E-2</v>
+        <v>2.9376103555587136E-2</v>
       </c>
       <c r="AB12">
-        <v>3.0934244850750834E-2</v>
+        <v>2.9573947209029484E-2</v>
       </c>
       <c r="AC12">
-        <v>3.1322199312814568E-2</v>
+        <v>2.9097133241564783E-2</v>
       </c>
       <c r="AD12">
-        <v>3.1345599736937249E-2</v>
+        <v>2.9628731278748675E-2</v>
       </c>
       <c r="AE12">
-        <v>3.1851623075174258E-2</v>
+        <v>2.9344037496884776E-2</v>
       </c>
       <c r="AF12">
-        <v>3.2742497194242021E-2</v>
+        <v>2.9036282177103068E-2</v>
       </c>
       <c r="AG12">
-        <v>3.2499976067954024E-2</v>
+        <v>2.7900293232208766E-2</v>
       </c>
       <c r="AH12">
-        <v>3.2395228510953111E-2</v>
+        <v>2.8590080451364224E-2</v>
       </c>
       <c r="AI12">
-        <v>3.195983575090712E-2</v>
+        <v>2.7716998275655488E-2</v>
       </c>
       <c r="AJ12">
-        <v>3.0463308695798889E-2</v>
+        <v>2.7633513358308628E-2</v>
       </c>
       <c r="AK12">
-        <v>2.258782588132301E-2</v>
+        <v>2.6591879743854421E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
@@ -9573,112 +8940,112 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>9.2088391462651509E-3</v>
+        <v>2.3063282817802372E-2</v>
       </c>
       <c r="C13">
-        <v>1.016541775538031E-2</v>
+        <v>2.335157588863163E-2</v>
       </c>
       <c r="D13">
-        <v>1.1326353903140483E-2</v>
+        <v>2.4016171020102159E-2</v>
       </c>
       <c r="E13">
-        <v>1.218044410005825E-2</v>
+        <v>2.4608985037443319E-2</v>
       </c>
       <c r="F13">
-        <v>1.368786631996665E-2</v>
+        <v>2.5176192836645624E-2</v>
       </c>
       <c r="G13">
-        <v>1.469856137309085E-2</v>
+        <v>2.5924823691271134E-2</v>
       </c>
       <c r="H13">
-        <v>1.5855075862306986E-2</v>
+        <v>2.6316650912166117E-2</v>
       </c>
       <c r="I13">
-        <v>1.7222707693623839E-2</v>
+        <v>2.6807218772708068E-2</v>
       </c>
       <c r="J13">
-        <v>1.8250695898825851E-2</v>
+        <v>2.7270291901652342E-2</v>
       </c>
       <c r="K13">
-        <v>1.9101710936283264E-2</v>
+        <v>2.7514649287573942E-2</v>
       </c>
       <c r="L13">
-        <v>2.0062112329205274E-2</v>
+        <v>2.7867103812808148E-2</v>
       </c>
       <c r="M13">
-        <v>2.1011439670598962E-2</v>
+        <v>2.803524050713891E-2</v>
       </c>
       <c r="N13">
-        <v>2.2017167884181853E-2</v>
+        <v>2.8480415486121725E-2</v>
       </c>
       <c r="O13">
-        <v>2.2535490547282915E-2</v>
+        <v>2.838104362022956E-2</v>
       </c>
       <c r="P13">
-        <v>2.384201157958836E-2</v>
+        <v>2.9064822778308963E-2</v>
       </c>
       <c r="Q13">
-        <v>2.452929173997118E-2</v>
+        <v>2.9522497679515165E-2</v>
       </c>
       <c r="R13">
-        <v>2.5261572482427521E-2</v>
+        <v>2.8971711504632441E-2</v>
       </c>
       <c r="S13">
-        <v>2.5617795489413637E-2</v>
+        <v>2.9305172067699375E-2</v>
       </c>
       <c r="T13">
-        <v>2.6429528525149997E-2</v>
+        <v>2.9611613608367917E-2</v>
       </c>
       <c r="U13">
-        <v>2.7985475457768073E-2</v>
+        <v>2.9612511235715792E-2</v>
       </c>
       <c r="V13">
-        <v>2.8346767225052739E-2</v>
+        <v>2.9167419827007501E-2</v>
       </c>
       <c r="W13">
-        <v>2.8501718861572413E-2</v>
+        <v>2.8854172953004076E-2</v>
       </c>
       <c r="X13">
-        <v>2.9324514447998436E-2</v>
+        <v>2.9311474806301131E-2</v>
       </c>
       <c r="Y13">
-        <v>3.0035668111599263E-2</v>
+        <v>2.9582045778483803E-2</v>
       </c>
       <c r="Z13">
-        <v>3.1236542181468849E-2</v>
+        <v>2.9764952141111349E-2</v>
       </c>
       <c r="AA13">
-        <v>3.1184593368444834E-2</v>
+        <v>2.8544387530906098E-2</v>
       </c>
       <c r="AB13">
-        <v>3.1572225120653177E-2</v>
+        <v>2.8667418085528199E-2</v>
       </c>
       <c r="AC13">
-        <v>3.2133565203735927E-2</v>
+        <v>2.8744744455146264E-2</v>
       </c>
       <c r="AD13">
-        <v>3.2264551179455495E-2</v>
+        <v>2.8056364860205001E-2</v>
       </c>
       <c r="AE13">
-        <v>3.1542097631568199E-2</v>
+        <v>2.8206953416053115E-2</v>
       </c>
       <c r="AF13">
-        <v>3.2747118260121937E-2</v>
+        <v>2.7647706387621217E-2</v>
       </c>
       <c r="AG13">
-        <v>3.2853333221187782E-2</v>
+        <v>2.6991972745985429E-2</v>
       </c>
       <c r="AH13">
-        <v>3.2561427853888901E-2</v>
+        <v>2.6288096801114668E-2</v>
       </c>
       <c r="AI13">
-        <v>3.1198225799409968E-2</v>
+        <v>2.5732204696839282E-2</v>
       </c>
       <c r="AJ13">
-        <v>2.9364312914367356E-2</v>
+        <v>2.5298075367403267E-2</v>
       </c>
       <c r="AK13">
-        <v>2.2901468711992355E-2</v>
+        <v>2.745684015280983E-2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -9686,112 +9053,112 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>9.1509437514525373E-3</v>
+        <v>2.4250929955226864E-2</v>
       </c>
       <c r="C14">
-        <v>1.0109475466105321E-2</v>
+        <v>2.4910858676821676E-2</v>
       </c>
       <c r="D14">
-        <v>1.1101325692860863E-2</v>
+        <v>2.5628099505814014E-2</v>
       </c>
       <c r="E14">
-        <v>1.2367384082679803E-2</v>
+        <v>2.6313858703580658E-2</v>
       </c>
       <c r="F14">
-        <v>1.3662809652131857E-2</v>
+        <v>2.655993170586125E-2</v>
       </c>
       <c r="G14">
-        <v>1.4956995393571825E-2</v>
+        <v>2.7239757055753069E-2</v>
       </c>
       <c r="H14">
-        <v>1.6306664593386627E-2</v>
+        <v>2.7885529509904489E-2</v>
       </c>
       <c r="I14">
-        <v>1.7635276218106656E-2</v>
+        <v>2.8417105254410963E-2</v>
       </c>
       <c r="J14">
-        <v>1.8662837521733387E-2</v>
+        <v>2.873999765050084E-2</v>
       </c>
       <c r="K14">
-        <v>1.956154507182091E-2</v>
+        <v>2.8758848034794043E-2</v>
       </c>
       <c r="L14">
-        <v>2.0671348406527703E-2</v>
+        <v>2.9412595770809333E-2</v>
       </c>
       <c r="M14">
-        <v>2.1552364051754026E-2</v>
+        <v>2.9738590510744008E-2</v>
       </c>
       <c r="N14">
-        <v>2.2286337422013615E-2</v>
+        <v>2.995217106932286E-2</v>
       </c>
       <c r="O14">
-        <v>2.3137769040860175E-2</v>
+        <v>3.025609008618128E-2</v>
       </c>
       <c r="P14">
-        <v>2.4370934338493803E-2</v>
+        <v>3.020081371956276E-2</v>
       </c>
       <c r="Q14">
-        <v>2.5199740376245495E-2</v>
+        <v>3.0407112555974825E-2</v>
       </c>
       <c r="R14">
-        <v>2.5816191836090359E-2</v>
+        <v>3.0216481600303692E-2</v>
       </c>
       <c r="S14">
-        <v>2.6565915413164085E-2</v>
+        <v>2.9967879227421248E-2</v>
       </c>
       <c r="T14">
-        <v>2.7400515953493795E-2</v>
+        <v>2.9737988069709887E-2</v>
       </c>
       <c r="U14">
-        <v>2.8593225279850219E-2</v>
+        <v>3.0041191873789785E-2</v>
       </c>
       <c r="V14">
-        <v>2.8899900686919326E-2</v>
+        <v>2.9659808133059247E-2</v>
       </c>
       <c r="W14">
-        <v>2.9104772291090489E-2</v>
+        <v>2.9789712136505091E-2</v>
       </c>
       <c r="X14">
-        <v>3.0138806157102786E-2</v>
+        <v>2.9400332853851661E-2</v>
       </c>
       <c r="Y14">
-        <v>3.0480446688829699E-2</v>
+        <v>2.8943672085842857E-2</v>
       </c>
       <c r="Z14">
-        <v>3.1718113641713334E-2</v>
+        <v>2.977054225885194E-2</v>
       </c>
       <c r="AA14">
-        <v>3.2036302481117176E-2</v>
+        <v>2.8935112776631629E-2</v>
       </c>
       <c r="AB14">
-        <v>3.2170810047132015E-2</v>
+        <v>2.8227044147333947E-2</v>
       </c>
       <c r="AC14">
-        <v>3.2583683051234831E-2</v>
+        <v>2.7500617730756374E-2</v>
       </c>
       <c r="AD14">
-        <v>3.2180665112672799E-2</v>
+        <v>2.7205470975862511E-2</v>
       </c>
       <c r="AE14">
-        <v>3.2426517133780773E-2</v>
+        <v>2.604060311860229E-2</v>
       </c>
       <c r="AF14">
-        <v>3.2834079362275552E-2</v>
+        <v>2.5654657492103692E-2</v>
       </c>
       <c r="AG14">
-        <v>3.1711394662406203E-2</v>
+        <v>2.5197749835764564E-2</v>
       </c>
       <c r="AH14">
-        <v>3.1797095123962116E-2</v>
+        <v>2.4767559049710185E-2</v>
       </c>
       <c r="AI14">
-        <v>2.9773951418814025E-2</v>
+        <v>2.2888472998341181E-2</v>
       </c>
       <c r="AJ14">
-        <v>2.8765156075085316E-2</v>
+        <v>2.0769651427024794E-2</v>
       </c>
       <c r="AK14">
-        <v>2.3089377854357065E-2</v>
+        <v>2.8034196473117667E-2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
@@ -9799,112 +9166,112 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>8.6997966990235154E-3</v>
+        <v>1.4725444964793683E-2</v>
       </c>
       <c r="C15">
-        <v>9.3933444699197573E-3</v>
+        <v>1.5092906405622657E-2</v>
       </c>
       <c r="D15">
-        <v>9.8865310939837796E-3</v>
+        <v>1.5600292659410655E-2</v>
       </c>
       <c r="E15">
-        <v>1.0560820922953894E-2</v>
+        <v>1.6150548111282227E-2</v>
       </c>
       <c r="F15">
-        <v>1.1348052920523464E-2</v>
+        <v>1.671744962234856E-2</v>
       </c>
       <c r="G15">
-        <v>1.2357636228137285E-2</v>
+        <v>1.7360975605694374E-2</v>
       </c>
       <c r="H15">
-        <v>1.318545312768205E-2</v>
+        <v>1.7951381515235919E-2</v>
       </c>
       <c r="I15">
-        <v>1.3993786813539744E-2</v>
+        <v>1.8438202959659044E-2</v>
       </c>
       <c r="J15">
-        <v>1.4739772908997141E-2</v>
+        <v>1.8917871496209965E-2</v>
       </c>
       <c r="K15">
-        <v>1.5528421011058635E-2</v>
+        <v>1.9295358477628338E-2</v>
       </c>
       <c r="L15">
-        <v>1.6356560164534802E-2</v>
+        <v>1.97299169715957E-2</v>
       </c>
       <c r="M15">
-        <v>1.7169491055150761E-2</v>
+        <v>2.0086842674339311E-2</v>
       </c>
       <c r="N15">
-        <v>1.7948874272686013E-2</v>
+        <v>2.0516866214024567E-2</v>
       </c>
       <c r="O15">
-        <v>1.8714195853882815E-2</v>
+        <v>2.0675867390064336E-2</v>
       </c>
       <c r="P15">
-        <v>1.9622725448065266E-2</v>
+        <v>2.104013047009062E-2</v>
       </c>
       <c r="Q15">
-        <v>2.0523973981292E-2</v>
+        <v>2.1467662834012049E-2</v>
       </c>
       <c r="R15">
-        <v>2.1083171158777777E-2</v>
+        <v>2.1433931546825331E-2</v>
       </c>
       <c r="S15">
-        <v>2.1699283375728622E-2</v>
+        <v>2.1709783002487493E-2</v>
       </c>
       <c r="T15">
-        <v>2.2377349374713511E-2</v>
+        <v>2.1964640114689571E-2</v>
       </c>
       <c r="U15">
-        <v>2.3255369317124002E-2</v>
+        <v>2.2534094221666041E-2</v>
       </c>
       <c r="V15">
-        <v>2.3703740392826567E-2</v>
+        <v>2.2537632505692927E-2</v>
       </c>
       <c r="W15">
-        <v>2.4057426119524158E-2</v>
+        <v>2.2639632978228557E-2</v>
       </c>
       <c r="X15">
-        <v>2.4778879190744976E-2</v>
+        <v>2.3121887323777037E-2</v>
       </c>
       <c r="Y15">
-        <v>2.5148445196695953E-2</v>
+        <v>2.3254203970411971E-2</v>
       </c>
       <c r="Z15">
-        <v>2.5991248485035257E-2</v>
+        <v>2.3979957670581448E-2</v>
       </c>
       <c r="AA15">
-        <v>2.6180737968992195E-2</v>
+        <v>2.3795340726049677E-2</v>
       </c>
       <c r="AB15">
-        <v>2.6607951898699925E-2</v>
+        <v>2.3944165760469257E-2</v>
       </c>
       <c r="AC15">
-        <v>2.7012912120621853E-2</v>
+        <v>2.4015065369824052E-2</v>
       </c>
       <c r="AD15">
-        <v>2.7243334168053687E-2</v>
+        <v>2.408050477228969E-2</v>
       </c>
       <c r="AE15">
-        <v>2.7597944739860342E-2</v>
+        <v>2.4238374103612684E-2</v>
       </c>
       <c r="AF15">
-        <v>2.8369804197476155E-2</v>
+        <v>2.4532565482035213E-2</v>
       </c>
       <c r="AG15">
-        <v>2.849500913984861E-2</v>
+        <v>2.4467714920868279E-2</v>
       </c>
       <c r="AH15">
-        <v>2.8786148544071591E-2</v>
+        <v>2.4529877767588557E-2</v>
       </c>
       <c r="AI15">
-        <v>2.8470802182759092E-2</v>
+        <v>2.4272979827058963E-2</v>
       </c>
       <c r="AJ15">
-        <v>2.8229772595857339E-2</v>
+        <v>2.4103467149214009E-2</v>
       </c>
       <c r="AK15">
-        <v>1.9677043412628017E-2</v>
+        <v>2.0799864475169245E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9912,7 +9279,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>3.2853333221187782E-2</v>
+        <v>3.0407112555974825E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9922,6 +9289,1399 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1">
+        <v>32</v>
+      </c>
+      <c r="T4" s="1">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1">
+        <v>34</v>
+      </c>
+      <c r="V4" s="1">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>47</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>6.645453921119762E-3</v>
+      </c>
+      <c r="C5">
+        <v>6.939046393908339E-3</v>
+      </c>
+      <c r="D5">
+        <v>7.0756380404834616E-3</v>
+      </c>
+      <c r="E5">
+        <v>7.4535861558492787E-3</v>
+      </c>
+      <c r="F5">
+        <v>7.3971460642146157E-3</v>
+      </c>
+      <c r="G5">
+        <v>8.0178115492950744E-3</v>
+      </c>
+      <c r="H5">
+        <v>8.522705589425323E-3</v>
+      </c>
+      <c r="I5">
+        <v>8.9881531525349452E-3</v>
+      </c>
+      <c r="J5">
+        <v>9.442613208771454E-3</v>
+      </c>
+      <c r="K5">
+        <v>9.9285663714684131E-3</v>
+      </c>
+      <c r="L5">
+        <v>1.033026761005339E-2</v>
+      </c>
+      <c r="M5">
+        <v>1.0905414416636448E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.1647380185160964E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.2012583262773604E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.287098672631631E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.3607376539635976E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.4048894541546279E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.4747539755965981E-2</v>
+      </c>
+      <c r="T5">
+        <v>1.5430901467122879E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.6124211990597721E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.6518728576642293E-2</v>
+      </c>
+      <c r="W5">
+        <v>1.6721821454369373E-2</v>
+      </c>
+      <c r="X5">
+        <v>1.7221244146769139E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.7424847598075131E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1.832965196259893E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.8385534129156222E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.8827239566825402E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.9291164778892273E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.9592356249208104E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.9854033367632917E-2</v>
+      </c>
+      <c r="AF5">
+        <v>2.0294936502291749E-2</v>
+      </c>
+      <c r="AG5">
+        <v>2.0778170293602783E-2</v>
+      </c>
+      <c r="AH5">
+        <v>2.1262401590263713E-2</v>
+      </c>
+      <c r="AI5">
+        <v>2.1575479562711788E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>2.1903634255684531E-2</v>
+      </c>
+      <c r="AK5">
+        <v>1.3831959478706029E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7.4084925829069163E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.9116868590854116E-3</v>
+      </c>
+      <c r="D6">
+        <v>7.9809249421255515E-3</v>
+      </c>
+      <c r="E6">
+        <v>8.2960388615602454E-3</v>
+      </c>
+      <c r="F6">
+        <v>8.5726848609020065E-3</v>
+      </c>
+      <c r="G6">
+        <v>9.3331361701196689E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.01403782658649E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.0494870412056295E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.0929154385943838E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.153489311517476E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.2191765952165114E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.291330067220724E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.3562412619328522E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.4306696054659677E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.5021028878200277E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.583859608354031E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.6321728979418058E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.7087173787586694E-2</v>
+      </c>
+      <c r="T6">
+        <v>1.7801508096633431E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.8323424664129621E-2</v>
+      </c>
+      <c r="V6">
+        <v>1.8790132219229625E-2</v>
+      </c>
+      <c r="W6">
+        <v>1.9049944460529197E-2</v>
+      </c>
+      <c r="X6">
+        <v>1.9865693583900546E-2</v>
+      </c>
+      <c r="Y6">
+        <v>2.0064310950222063E-2</v>
+      </c>
+      <c r="Z6">
+        <v>2.0673774991653036E-2</v>
+      </c>
+      <c r="AA6">
+        <v>2.0783039063213549E-2</v>
+      </c>
+      <c r="AB6">
+        <v>2.125484589004413E-2</v>
+      </c>
+      <c r="AC6">
+        <v>2.1499975168354151E-2</v>
+      </c>
+      <c r="AD6">
+        <v>2.1809117674945477E-2</v>
+      </c>
+      <c r="AE6">
+        <v>2.2415530531647656E-2</v>
+      </c>
+      <c r="AF6">
+        <v>2.3240464700281294E-2</v>
+      </c>
+      <c r="AG6">
+        <v>2.3527643577928151E-2</v>
+      </c>
+      <c r="AH6">
+        <v>2.4341319191447938E-2</v>
+      </c>
+      <c r="AI6">
+        <v>2.4426390964564601E-2</v>
+      </c>
+      <c r="AJ6">
+        <v>2.4576541531224495E-2</v>
+      </c>
+      <c r="AK6">
+        <v>1.5795533237991786E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8.2350215491849912E-3</v>
+      </c>
+      <c r="C7">
+        <v>8.7312381838032492E-3</v>
+      </c>
+      <c r="D7">
+        <v>8.8084406367012098E-3</v>
+      </c>
+      <c r="E7">
+        <v>9.206027149819742E-3</v>
+      </c>
+      <c r="F7">
+        <v>9.6123399303990574E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.0659472355303812E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.1362425083027438E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.1828835442226782E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.2615087661001756E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.321320019306879E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.3744542026314317E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.461523273661894E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.5377678417863496E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.6233474310184189E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.6975992086023437E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.7984795589154126E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.8478500716715189E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.9176617004793204E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.9717508188996046E-2</v>
+      </c>
+      <c r="U7">
+        <v>2.038435831753517E-2</v>
+      </c>
+      <c r="V7">
+        <v>2.090279885415423E-2</v>
+      </c>
+      <c r="W7">
+        <v>2.1391763598508588E-2</v>
+      </c>
+      <c r="X7">
+        <v>2.1933398542502112E-2</v>
+      </c>
+      <c r="Y7">
+        <v>2.2328224276032562E-2</v>
+      </c>
+      <c r="Z7">
+        <v>2.2831716846750241E-2</v>
+      </c>
+      <c r="AA7">
+        <v>2.3179573494851561E-2</v>
+      </c>
+      <c r="AB7">
+        <v>2.3560057807085241E-2</v>
+      </c>
+      <c r="AC7">
+        <v>2.3814675727268819E-2</v>
+      </c>
+      <c r="AD7">
+        <v>2.4138874971007286E-2</v>
+      </c>
+      <c r="AE7">
+        <v>2.5208870520877148E-2</v>
+      </c>
+      <c r="AF7">
+        <v>2.5935406624814722E-2</v>
+      </c>
+      <c r="AG7">
+        <v>2.6150577708602688E-2</v>
+      </c>
+      <c r="AH7">
+        <v>2.6773890473999629E-2</v>
+      </c>
+      <c r="AI7">
+        <v>2.6652574805795026E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>2.7363633772186587E-2</v>
+      </c>
+      <c r="AK7">
+        <v>1.7589827670460526E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8.8376751426438079E-3</v>
+      </c>
+      <c r="C8">
+        <v>9.5040161564348934E-3</v>
+      </c>
+      <c r="D8">
+        <v>9.584631695811946E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.0204058106315738E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.0959667491283817E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.1877158687330365E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.2652272457334187E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.3140530499239711E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.3821663574801515E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.448812479131628E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.5471950969627685E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.6149996948404684E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.693384939280607E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.7852713109047607E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.8813832180641397E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.9516466179028254E-2</v>
+      </c>
+      <c r="R8">
+        <v>2.0288128661183388E-2</v>
+      </c>
+      <c r="S8">
+        <v>2.083985599151526E-2</v>
+      </c>
+      <c r="T8">
+        <v>2.1633507996895653E-2</v>
+      </c>
+      <c r="U8">
+        <v>2.2353187742409589E-2</v>
+      </c>
+      <c r="V8">
+        <v>2.2694165991048718E-2</v>
+      </c>
+      <c r="W8">
+        <v>2.3099071554437491E-2</v>
+      </c>
+      <c r="X8">
+        <v>2.3624198075798696E-2</v>
+      </c>
+      <c r="Y8">
+        <v>2.39876425402266E-2</v>
+      </c>
+      <c r="Z8">
+        <v>2.4558962827990739E-2</v>
+      </c>
+      <c r="AA8">
+        <v>2.4784079057752036E-2</v>
+      </c>
+      <c r="AB8">
+        <v>2.5642473547201387E-2</v>
+      </c>
+      <c r="AC8">
+        <v>2.5937264556521386E-2</v>
+      </c>
+      <c r="AD8">
+        <v>2.6500428919776959E-2</v>
+      </c>
+      <c r="AE8">
+        <v>2.7108399140869308E-2</v>
+      </c>
+      <c r="AF8">
+        <v>2.7840148447498582E-2</v>
+      </c>
+      <c r="AG8">
+        <v>2.7970448437982905E-2</v>
+      </c>
+      <c r="AH8">
+        <v>2.8355831331445432E-2</v>
+      </c>
+      <c r="AI8">
+        <v>2.8988913878309274E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>2.8872421952637048E-2</v>
+      </c>
+      <c r="AK8">
+        <v>1.909829849492287E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>9.3773640259175398E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.008184277079056E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.0373855715455649E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.0923966612820525E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.16642135470002E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.2749953523703311E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.3414900929968587E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.4224672424054145E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.4883921458584927E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.5946389341713458E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.68254167550696E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.7392798536445833E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.8260824409117121E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.9247298833843129E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.9913652859636623E-2</v>
+      </c>
+      <c r="Q9">
+        <v>2.0795750160141523E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.1676723088020922E-2</v>
+      </c>
+      <c r="S9">
+        <v>2.2357941132546407E-2</v>
+      </c>
+      <c r="T9">
+        <v>2.2926755386577128E-2</v>
+      </c>
+      <c r="U9">
+        <v>2.3716050948743218E-2</v>
+      </c>
+      <c r="V9">
+        <v>2.4077154227586144E-2</v>
+      </c>
+      <c r="W9">
+        <v>2.4643424325035683E-2</v>
+      </c>
+      <c r="X9">
+        <v>2.5510134764065603E-2</v>
+      </c>
+      <c r="Y9">
+        <v>2.5694074489848617E-2</v>
+      </c>
+      <c r="Z9">
+        <v>2.6064063772145617E-2</v>
+      </c>
+      <c r="AA9">
+        <v>2.6655617864534957E-2</v>
+      </c>
+      <c r="AB9">
+        <v>2.7195823128881056E-2</v>
+      </c>
+      <c r="AC9">
+        <v>2.7620490524379943E-2</v>
+      </c>
+      <c r="AD9">
+        <v>2.8257644438303739E-2</v>
+      </c>
+      <c r="AE9">
+        <v>2.8492854214151028E-2</v>
+      </c>
+      <c r="AF9">
+        <v>2.9439310550364518E-2</v>
+      </c>
+      <c r="AG9">
+        <v>2.9733484696232111E-2</v>
+      </c>
+      <c r="AH9">
+        <v>3.0661987655521802E-2</v>
+      </c>
+      <c r="AI9">
+        <v>3.064889552494357E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>3.0786886565130431E-2</v>
+      </c>
+      <c r="AK9">
+        <v>2.0353301618658465E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>9.4448102120853732E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.0158993157747799E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.079475466635303E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.1465631582501848E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.2444249700409823E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.3633888452983804E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.4229098169194434E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.504196241070864E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.5921989256970734E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.6818603359422646E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.7833095835679786E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.8508419010908883E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.9555459825769148E-2</v>
+      </c>
+      <c r="O10">
+        <v>2.0220030660132702E-2</v>
+      </c>
+      <c r="P10">
+        <v>2.1163131792870056E-2</v>
+      </c>
+      <c r="Q10">
+        <v>2.2354518419037864E-2</v>
+      </c>
+      <c r="R10">
+        <v>2.2912402375366771E-2</v>
+      </c>
+      <c r="S10">
+        <v>2.3507415880909398E-2</v>
+      </c>
+      <c r="T10">
+        <v>2.4102975529015809E-2</v>
+      </c>
+      <c r="U10">
+        <v>2.4751012307181273E-2</v>
+      </c>
+      <c r="V10">
+        <v>2.5379014727422072E-2</v>
+      </c>
+      <c r="W10">
+        <v>2.6000006964565496E-2</v>
+      </c>
+      <c r="X10">
+        <v>2.6751126612451992E-2</v>
+      </c>
+      <c r="Y10">
+        <v>2.7169594564828849E-2</v>
+      </c>
+      <c r="Z10">
+        <v>2.7887306228542415E-2</v>
+      </c>
+      <c r="AA10">
+        <v>2.8243264793079672E-2</v>
+      </c>
+      <c r="AB10">
+        <v>2.867620729269995E-2</v>
+      </c>
+      <c r="AC10">
+        <v>2.9203080870268693E-2</v>
+      </c>
+      <c r="AD10">
+        <v>2.9380842016480779E-2</v>
+      </c>
+      <c r="AE10">
+        <v>3.0001599144514533E-2</v>
+      </c>
+      <c r="AF10">
+        <v>3.1020205646207166E-2</v>
+      </c>
+      <c r="AG10">
+        <v>3.1825729900916817E-2</v>
+      </c>
+      <c r="AH10">
+        <v>3.179400071390108E-2</v>
+      </c>
+      <c r="AI10">
+        <v>3.1163128398494482E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>3.1531705643664434E-2</v>
+      </c>
+      <c r="AK10">
+        <v>2.1343914075748389E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9.5184851818240056E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.0268251857634842E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.1016654103955028E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.1859545097355271E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.2919848531481736E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.4030390064622198E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.4775027704050538E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.5953070266590531E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.6683966232454463E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.7618725562828948E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.855816826619729E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.9716937123923129E-2</v>
+      </c>
+      <c r="N11">
+        <v>2.0290594792545805E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.1249475112902465E-2</v>
+      </c>
+      <c r="P11">
+        <v>2.2124827682913829E-2</v>
+      </c>
+      <c r="Q11">
+        <v>2.3249782104315414E-2</v>
+      </c>
+      <c r="R11">
+        <v>2.3769497206696577E-2</v>
+      </c>
+      <c r="S11">
+        <v>2.4269791290252977E-2</v>
+      </c>
+      <c r="T11">
+        <v>2.4763344808414325E-2</v>
+      </c>
+      <c r="U11">
+        <v>2.574797605691197E-2</v>
+      </c>
+      <c r="V11">
+        <v>2.6596900599732975E-2</v>
+      </c>
+      <c r="W11">
+        <v>2.7086348560910568E-2</v>
+      </c>
+      <c r="X11">
+        <v>2.7733318503043228E-2</v>
+      </c>
+      <c r="Y11">
+        <v>2.8215278100572262E-2</v>
+      </c>
+      <c r="Z11">
+        <v>2.9492967104314302E-2</v>
+      </c>
+      <c r="AA11">
+        <v>2.9592032277491482E-2</v>
+      </c>
+      <c r="AB11">
+        <v>2.9918641598057891E-2</v>
+      </c>
+      <c r="AC11">
+        <v>3.0610903846052088E-2</v>
+      </c>
+      <c r="AD11">
+        <v>3.0924679211154948E-2</v>
+      </c>
+      <c r="AE11">
+        <v>3.1060599752494658E-2</v>
+      </c>
+      <c r="AF11">
+        <v>3.1934429445129975E-2</v>
+      </c>
+      <c r="AG11">
+        <v>3.2391901814027582E-2</v>
+      </c>
+      <c r="AH11">
+        <v>3.2651893176652964E-2</v>
+      </c>
+      <c r="AI11">
+        <v>3.2418991450192808E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>3.2069933986105914E-2</v>
+      </c>
+      <c r="AK11">
+        <v>2.2095809349707118E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>9.2979843838606833E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.0299893342915891E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.1213553638782132E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.2179328361430814E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.3353139908517532E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.4488405903582285E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.5549038252330472E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.6551396158590213E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.7401409772061571E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.8395803110163356E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.9358169635330595E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.0553442447881706E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.1248188371683192E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.2175358065847372E-2</v>
+      </c>
+      <c r="P12">
+        <v>2.3086985248970803E-2</v>
+      </c>
+      <c r="Q12">
+        <v>2.4267827231965761E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.4378793440674156E-2</v>
+      </c>
+      <c r="S12">
+        <v>2.4978472520869766E-2</v>
+      </c>
+      <c r="T12">
+        <v>2.5787952427921382E-2</v>
+      </c>
+      <c r="U12">
+        <v>2.6994601148839278E-2</v>
+      </c>
+      <c r="V12">
+        <v>2.7448460659487448E-2</v>
+      </c>
+      <c r="W12">
+        <v>2.7756421610282581E-2</v>
+      </c>
+      <c r="X12">
+        <v>2.8674296280303945E-2</v>
+      </c>
+      <c r="Y12">
+        <v>2.9349071547462725E-2</v>
+      </c>
+      <c r="Z12">
+        <v>3.0626000662956628E-2</v>
+      </c>
+      <c r="AA12">
+        <v>3.0567450402050979E-2</v>
+      </c>
+      <c r="AB12">
+        <v>3.0934244850750834E-2</v>
+      </c>
+      <c r="AC12">
+        <v>3.1322199312814568E-2</v>
+      </c>
+      <c r="AD12">
+        <v>3.1345599736937249E-2</v>
+      </c>
+      <c r="AE12">
+        <v>3.1851623075174258E-2</v>
+      </c>
+      <c r="AF12">
+        <v>3.2742497194242021E-2</v>
+      </c>
+      <c r="AG12">
+        <v>3.2499976067954024E-2</v>
+      </c>
+      <c r="AH12">
+        <v>3.2395228510953111E-2</v>
+      </c>
+      <c r="AI12">
+        <v>3.195983575090712E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>3.0463308695798889E-2</v>
+      </c>
+      <c r="AK12">
+        <v>2.258782588132301E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>9.2088391462651509E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.016541775538031E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.1326353903140483E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.218044410005825E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.368786631996665E-2</v>
+      </c>
+      <c r="G13">
+        <v>1.469856137309085E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.5855075862306986E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.7222707693623839E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.8250695898825851E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.9101710936283264E-2</v>
+      </c>
+      <c r="L13">
+        <v>2.0062112329205274E-2</v>
+      </c>
+      <c r="M13">
+        <v>2.1011439670598962E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.2017167884181853E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.2535490547282915E-2</v>
+      </c>
+      <c r="P13">
+        <v>2.384201157958836E-2</v>
+      </c>
+      <c r="Q13">
+        <v>2.452929173997118E-2</v>
+      </c>
+      <c r="R13">
+        <v>2.5261572482427521E-2</v>
+      </c>
+      <c r="S13">
+        <v>2.5617795489413637E-2</v>
+      </c>
+      <c r="T13">
+        <v>2.6429528525149997E-2</v>
+      </c>
+      <c r="U13">
+        <v>2.7985475457768073E-2</v>
+      </c>
+      <c r="V13">
+        <v>2.8346767225052739E-2</v>
+      </c>
+      <c r="W13">
+        <v>2.8501718861572413E-2</v>
+      </c>
+      <c r="X13">
+        <v>2.9324514447998436E-2</v>
+      </c>
+      <c r="Y13">
+        <v>3.0035668111599263E-2</v>
+      </c>
+      <c r="Z13">
+        <v>3.1236542181468849E-2</v>
+      </c>
+      <c r="AA13">
+        <v>3.1184593368444834E-2</v>
+      </c>
+      <c r="AB13">
+        <v>3.1572225120653177E-2</v>
+      </c>
+      <c r="AC13">
+        <v>3.2133565203735927E-2</v>
+      </c>
+      <c r="AD13">
+        <v>3.2264551179455495E-2</v>
+      </c>
+      <c r="AE13">
+        <v>3.1542097631568199E-2</v>
+      </c>
+      <c r="AF13">
+        <v>3.2747118260121937E-2</v>
+      </c>
+      <c r="AG13">
+        <v>3.2853333221187782E-2</v>
+      </c>
+      <c r="AH13">
+        <v>3.2561427853888901E-2</v>
+      </c>
+      <c r="AI13">
+        <v>3.1198225799409968E-2</v>
+      </c>
+      <c r="AJ13">
+        <v>2.9364312914367356E-2</v>
+      </c>
+      <c r="AK13">
+        <v>2.2901468711992355E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>9.1509437514525373E-3</v>
+      </c>
+      <c r="C14">
+        <v>1.0109475466105321E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.1101325692860863E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.2367384082679803E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.3662809652131857E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.4956995393571825E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.6306664593386627E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.7635276218106656E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.8662837521733387E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.956154507182091E-2</v>
+      </c>
+      <c r="L14">
+        <v>2.0671348406527703E-2</v>
+      </c>
+      <c r="M14">
+        <v>2.1552364051754026E-2</v>
+      </c>
+      <c r="N14">
+        <v>2.2286337422013615E-2</v>
+      </c>
+      <c r="O14">
+        <v>2.3137769040860175E-2</v>
+      </c>
+      <c r="P14">
+        <v>2.4370934338493803E-2</v>
+      </c>
+      <c r="Q14">
+        <v>2.5199740376245495E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.5816191836090359E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.6565915413164085E-2</v>
+      </c>
+      <c r="T14">
+        <v>2.7400515953493795E-2</v>
+      </c>
+      <c r="U14">
+        <v>2.8593225279850219E-2</v>
+      </c>
+      <c r="V14">
+        <v>2.8899900686919326E-2</v>
+      </c>
+      <c r="W14">
+        <v>2.9104772291090489E-2</v>
+      </c>
+      <c r="X14">
+        <v>3.0138806157102786E-2</v>
+      </c>
+      <c r="Y14">
+        <v>3.0480446688829699E-2</v>
+      </c>
+      <c r="Z14">
+        <v>3.1718113641713334E-2</v>
+      </c>
+      <c r="AA14">
+        <v>3.2036302481117176E-2</v>
+      </c>
+      <c r="AB14">
+        <v>3.2170810047132015E-2</v>
+      </c>
+      <c r="AC14">
+        <v>3.2583683051234831E-2</v>
+      </c>
+      <c r="AD14">
+        <v>3.2180665112672799E-2</v>
+      </c>
+      <c r="AE14">
+        <v>3.2426517133780773E-2</v>
+      </c>
+      <c r="AF14">
+        <v>3.2834079362275552E-2</v>
+      </c>
+      <c r="AG14">
+        <v>3.1711394662406203E-2</v>
+      </c>
+      <c r="AH14">
+        <v>3.1797095123962116E-2</v>
+      </c>
+      <c r="AI14">
+        <v>2.9773951418814025E-2</v>
+      </c>
+      <c r="AJ14">
+        <v>2.8765156075085316E-2</v>
+      </c>
+      <c r="AK14">
+        <v>2.3089377854357065E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>8.6997966990235154E-3</v>
+      </c>
+      <c r="C15">
+        <v>9.3933444699197573E-3</v>
+      </c>
+      <c r="D15">
+        <v>9.8865310939837796E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.0560820922953894E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.1348052920523464E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.2357636228137285E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.318545312768205E-2</v>
+      </c>
+      <c r="I15">
+        <v>1.3993786813539744E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.4739772908997141E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.5528421011058635E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.6356560164534802E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.7169491055150761E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.7948874272686013E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.8714195853882815E-2</v>
+      </c>
+      <c r="P15">
+        <v>1.9622725448065266E-2</v>
+      </c>
+      <c r="Q15">
+        <v>2.0523973981292E-2</v>
+      </c>
+      <c r="R15">
+        <v>2.1083171158777777E-2</v>
+      </c>
+      <c r="S15">
+        <v>2.1699283375728622E-2</v>
+      </c>
+      <c r="T15">
+        <v>2.2377349374713511E-2</v>
+      </c>
+      <c r="U15">
+        <v>2.3255369317124002E-2</v>
+      </c>
+      <c r="V15">
+        <v>2.3703740392826567E-2</v>
+      </c>
+      <c r="W15">
+        <v>2.4057426119524158E-2</v>
+      </c>
+      <c r="X15">
+        <v>2.4778879190744976E-2</v>
+      </c>
+      <c r="Y15">
+        <v>2.5148445196695953E-2</v>
+      </c>
+      <c r="Z15">
+        <v>2.5991248485035257E-2</v>
+      </c>
+      <c r="AA15">
+        <v>2.6180737968992195E-2</v>
+      </c>
+      <c r="AB15">
+        <v>2.6607951898699925E-2</v>
+      </c>
+      <c r="AC15">
+        <v>2.7012912120621853E-2</v>
+      </c>
+      <c r="AD15">
+        <v>2.7243334168053687E-2</v>
+      </c>
+      <c r="AE15">
+        <v>2.7597944739860342E-2</v>
+      </c>
+      <c r="AF15">
+        <v>2.8369804197476155E-2</v>
+      </c>
+      <c r="AG15">
+        <v>2.849500913984861E-2</v>
+      </c>
+      <c r="AH15">
+        <v>2.8786148544071591E-2</v>
+      </c>
+      <c r="AI15">
+        <v>2.8470802182759092E-2</v>
+      </c>
+      <c r="AJ15">
+        <v>2.8229772595857339E-2</v>
+      </c>
+      <c r="AK15">
+        <v>1.9677043412628017E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>3.2853333221187782E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK17"/>
   <sheetViews>

--- a/backtracer_summary.xlsx
+++ b/backtracer_summary.xlsx
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>lenprofitrate &gt; 50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lenprofitrate &gt; 50 인 종목만 계산한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -162,11 +158,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3. 단지 parameter을 좀더 한정적으로 선정할 수 있을 뿐이다.</t>
+    <t>lenprofitrate &gt; 50 인 종목만 계산한다.(거래 건수 &gt; 50 인 것 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>거래량 이평선 =[31,35,37,39,41], 거래량비교배수=[30], 단순이평선 장단기=[(47,17), (47,15),(57,19)]</t>
+    <t>3. 단지 parameter을 좀더 세밀하게 선정할 수 있을 뿐이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 추천하는 거래량 이평선 =[31,35,37,39,41], 거래량비교배수=[30], 단순이평선 장단기=[(47,17), (47,15),(57,19)]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -238,10 +238,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -563,7 +563,7 @@
   <dimension ref="A2:AP54"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:O33"/>
+      <selection activeCell="A29" sqref="A29:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2475,522 +2475,539 @@
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A50:O50"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="A52:O52"/>
+    <mergeCell ref="A53:O53"/>
+    <mergeCell ref="A54:O54"/>
+    <mergeCell ref="A49:O49"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="A48:O48"/>
     <mergeCell ref="A37:O37"/>
     <mergeCell ref="A26:O26"/>
     <mergeCell ref="A27:O27"/>
@@ -3003,23 +3020,6 @@
     <mergeCell ref="A34:O34"/>
     <mergeCell ref="A35:O35"/>
     <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A49:O49"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="A39:O39"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="A47:O47"/>
-    <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A50:O50"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A52:O52"/>
-    <mergeCell ref="A53:O53"/>
-    <mergeCell ref="A54:O54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:AO20">
@@ -3035,27 +3035,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:O32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3569,156 +3569,156 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3742,102 +3742,102 @@
   <dimension ref="A1:O126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -5803,7 +5803,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -5811,12 +5811,12 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>2.8580951343459372E-2</v>
@@ -7194,7 +7194,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -7202,12 +7202,12 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -8563,7 +8563,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3.2292511802189706E-2</v>
@@ -8585,7 +8585,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -8593,12 +8593,12 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3.3362104573791455E-2</v>
@@ -9978,7 +9978,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -9986,12 +9986,12 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -11347,7 +11347,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3.0407112555974825E-2</v>
@@ -11371,7 +11371,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -11379,12 +11379,12 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -12740,7 +12740,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3.2853333221187782E-2</v>
@@ -12764,7 +12764,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -12772,12 +12772,12 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3.0904351803675567E-2</v>
